--- a/AAII_Financials/Yearly/BMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BMO_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19687000</v>
+        <v>19004400</v>
       </c>
       <c r="E8" s="3">
-        <v>15834900</v>
+        <v>15285900</v>
       </c>
       <c r="F8" s="3">
-        <v>13108300</v>
+        <v>12653900</v>
       </c>
       <c r="G8" s="3">
-        <v>10831100</v>
+        <v>10455600</v>
       </c>
       <c r="H8" s="3">
-        <v>9905200</v>
+        <v>9561800</v>
       </c>
       <c r="I8" s="3">
-        <v>9689900</v>
+        <v>9354000</v>
       </c>
       <c r="J8" s="3">
-        <v>9985800</v>
+        <v>9639500</v>
       </c>
       <c r="K8" s="3">
         <v>10252200</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-417000</v>
+        <v>-402600</v>
       </c>
       <c r="E15" s="3">
-        <v>-378700</v>
+        <v>-365500</v>
       </c>
       <c r="F15" s="3">
-        <v>-730200</v>
+        <v>-704900</v>
       </c>
       <c r="G15" s="3">
-        <v>-668500</v>
+        <v>-645300</v>
       </c>
       <c r="H15" s="3">
-        <v>-309400</v>
+        <v>-298700</v>
       </c>
       <c r="I15" s="3">
-        <v>-575100</v>
+        <v>-555200</v>
       </c>
       <c r="J15" s="3">
-        <v>-260500</v>
+        <v>-251400</v>
       </c>
       <c r="K15" s="3">
         <v>-246300</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10641400</v>
+        <v>10272500</v>
       </c>
       <c r="E17" s="3">
-        <v>7722900</v>
+        <v>7455100</v>
       </c>
       <c r="F17" s="3">
-        <v>5182200</v>
+        <v>5002500</v>
       </c>
       <c r="G17" s="3">
-        <v>3980000</v>
+        <v>3842000</v>
       </c>
       <c r="H17" s="3">
-        <v>3769200</v>
+        <v>3638500</v>
       </c>
       <c r="I17" s="3">
-        <v>3870100</v>
+        <v>3735900</v>
       </c>
       <c r="J17" s="3">
-        <v>3895700</v>
+        <v>3760600</v>
       </c>
       <c r="K17" s="3">
         <v>4169800</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9045500</v>
+        <v>8731900</v>
       </c>
       <c r="E18" s="3">
-        <v>8112100</v>
+        <v>7830800</v>
       </c>
       <c r="F18" s="3">
-        <v>7926100</v>
+        <v>7651300</v>
       </c>
       <c r="G18" s="3">
-        <v>6851100</v>
+        <v>6613600</v>
       </c>
       <c r="H18" s="3">
-        <v>6136000</v>
+        <v>5923300</v>
       </c>
       <c r="I18" s="3">
-        <v>5819800</v>
+        <v>5618000</v>
       </c>
       <c r="J18" s="3">
-        <v>6090100</v>
+        <v>5878900</v>
       </c>
       <c r="K18" s="3">
         <v>6082400</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3571200</v>
+        <v>-3447400</v>
       </c>
       <c r="E20" s="3">
-        <v>-2530900</v>
+        <v>-2443100</v>
       </c>
       <c r="F20" s="3">
-        <v>-2934400</v>
+        <v>-2832600</v>
       </c>
       <c r="G20" s="3">
-        <v>-2536100</v>
+        <v>-2448200</v>
       </c>
       <c r="H20" s="3">
-        <v>-2115300</v>
+        <v>-2042000</v>
       </c>
       <c r="I20" s="3">
-        <v>-1878200</v>
+        <v>-1813100</v>
       </c>
       <c r="J20" s="3">
-        <v>-2137900</v>
+        <v>-2063800</v>
       </c>
       <c r="K20" s="3">
         <v>-2339100</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6219100</v>
+        <v>6003800</v>
       </c>
       <c r="E21" s="3">
-        <v>6261300</v>
+        <v>6044400</v>
       </c>
       <c r="F21" s="3">
-        <v>5651500</v>
+        <v>5455800</v>
       </c>
       <c r="G21" s="3">
-        <v>4938600</v>
+        <v>4767600</v>
       </c>
       <c r="H21" s="3">
-        <v>4614900</v>
+        <v>4455100</v>
       </c>
       <c r="I21" s="3">
-        <v>4504200</v>
+        <v>4348200</v>
       </c>
       <c r="J21" s="3">
-        <v>4474800</v>
+        <v>4319800</v>
       </c>
       <c r="K21" s="3">
         <v>4252000</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5474300</v>
+        <v>5284500</v>
       </c>
       <c r="E23" s="3">
-        <v>5581200</v>
+        <v>5387700</v>
       </c>
       <c r="F23" s="3">
-        <v>4991800</v>
+        <v>4818700</v>
       </c>
       <c r="G23" s="3">
-        <v>4315000</v>
+        <v>4165400</v>
       </c>
       <c r="H23" s="3">
-        <v>4020700</v>
+        <v>3881300</v>
       </c>
       <c r="I23" s="3">
-        <v>3941600</v>
+        <v>3804900</v>
       </c>
       <c r="J23" s="3">
-        <v>3952100</v>
+        <v>3815100</v>
       </c>
       <c r="K23" s="3">
         <v>3743400</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1139700</v>
+        <v>1100200</v>
       </c>
       <c r="E24" s="3">
-        <v>1156300</v>
+        <v>1116200</v>
       </c>
       <c r="F24" s="3">
-        <v>972600</v>
+        <v>938900</v>
       </c>
       <c r="G24" s="3">
-        <v>828800</v>
+        <v>800100</v>
       </c>
       <c r="H24" s="3">
-        <v>704600</v>
+        <v>680200</v>
       </c>
       <c r="I24" s="3">
-        <v>679800</v>
+        <v>656200</v>
       </c>
       <c r="J24" s="3">
-        <v>794200</v>
+        <v>766700</v>
       </c>
       <c r="K24" s="3">
         <v>650400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4334600</v>
+        <v>4184300</v>
       </c>
       <c r="E26" s="3">
-        <v>4424900</v>
+        <v>4271500</v>
       </c>
       <c r="F26" s="3">
-        <v>4019100</v>
+        <v>3879800</v>
       </c>
       <c r="G26" s="3">
-        <v>3486200</v>
+        <v>3365300</v>
       </c>
       <c r="H26" s="3">
-        <v>3316000</v>
+        <v>3201100</v>
       </c>
       <c r="I26" s="3">
-        <v>3261800</v>
+        <v>3148700</v>
       </c>
       <c r="J26" s="3">
-        <v>3158000</v>
+        <v>3048500</v>
       </c>
       <c r="K26" s="3">
         <v>3092900</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4175700</v>
+        <v>4030900</v>
       </c>
       <c r="E27" s="3">
-        <v>4286400</v>
+        <v>4137800</v>
       </c>
       <c r="F27" s="3">
-        <v>3879100</v>
+        <v>3744600</v>
       </c>
       <c r="G27" s="3">
-        <v>3366500</v>
+        <v>3249800</v>
       </c>
       <c r="H27" s="3">
-        <v>3201600</v>
+        <v>3090600</v>
       </c>
       <c r="I27" s="3">
-        <v>3129300</v>
+        <v>3020900</v>
       </c>
       <c r="J27" s="3">
-        <v>3018700</v>
+        <v>2914000</v>
       </c>
       <c r="K27" s="3">
         <v>2936700</v>
@@ -1356,7 +1356,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="3">
-        <v>-319900</v>
+        <v>-308800</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3571200</v>
+        <v>3447400</v>
       </c>
       <c r="E32" s="3">
-        <v>2530900</v>
+        <v>2443100</v>
       </c>
       <c r="F32" s="3">
-        <v>2934400</v>
+        <v>2832600</v>
       </c>
       <c r="G32" s="3">
-        <v>2536100</v>
+        <v>2448200</v>
       </c>
       <c r="H32" s="3">
-        <v>2115300</v>
+        <v>2042000</v>
       </c>
       <c r="I32" s="3">
-        <v>1878200</v>
+        <v>1813100</v>
       </c>
       <c r="J32" s="3">
-        <v>2137900</v>
+        <v>2063800</v>
       </c>
       <c r="K32" s="3">
         <v>2339100</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4175700</v>
+        <v>4030900</v>
       </c>
       <c r="E33" s="3">
-        <v>3966500</v>
+        <v>3828900</v>
       </c>
       <c r="F33" s="3">
-        <v>3879100</v>
+        <v>3744600</v>
       </c>
       <c r="G33" s="3">
-        <v>3366500</v>
+        <v>3249800</v>
       </c>
       <c r="H33" s="3">
-        <v>3201600</v>
+        <v>3090600</v>
       </c>
       <c r="I33" s="3">
-        <v>3129300</v>
+        <v>3020900</v>
       </c>
       <c r="J33" s="3">
-        <v>3018700</v>
+        <v>2914000</v>
       </c>
       <c r="K33" s="3">
         <v>2936700</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4175700</v>
+        <v>4030900</v>
       </c>
       <c r="E35" s="3">
-        <v>3966500</v>
+        <v>3828900</v>
       </c>
       <c r="F35" s="3">
-        <v>3879100</v>
+        <v>3744600</v>
       </c>
       <c r="G35" s="3">
-        <v>3366500</v>
+        <v>3249800</v>
       </c>
       <c r="H35" s="3">
-        <v>3201600</v>
+        <v>3090600</v>
       </c>
       <c r="I35" s="3">
-        <v>3129300</v>
+        <v>3020900</v>
       </c>
       <c r="J35" s="3">
-        <v>3018700</v>
+        <v>2914000</v>
       </c>
       <c r="K35" s="3">
         <v>2936700</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>36738400</v>
+        <v>35444200</v>
       </c>
       <c r="E41" s="3">
-        <v>63448200</v>
+        <v>61212900</v>
       </c>
       <c r="F41" s="3">
-        <v>49080400</v>
+        <v>47351400</v>
       </c>
       <c r="G41" s="3">
-        <v>47656100</v>
+        <v>45977200</v>
       </c>
       <c r="H41" s="3">
-        <v>30333700</v>
+        <v>29265000</v>
       </c>
       <c r="I41" s="3">
-        <v>21368700</v>
+        <v>20615900</v>
       </c>
       <c r="J41" s="3">
-        <v>39279100</v>
+        <v>37895300</v>
       </c>
       <c r="K41" s="3">
         <v>14840300</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>179242000</v>
+        <v>172927000</v>
       </c>
       <c r="E42" s="3">
-        <v>175255000</v>
+        <v>169081000</v>
       </c>
       <c r="F42" s="3">
-        <v>182652000</v>
+        <v>176217000</v>
       </c>
       <c r="G42" s="3">
-        <v>117776000</v>
+        <v>113626000</v>
       </c>
       <c r="H42" s="3">
-        <v>140897000</v>
+        <v>135933000</v>
       </c>
       <c r="I42" s="3">
-        <v>134244000</v>
+        <v>129515000</v>
       </c>
       <c r="J42" s="3">
-        <v>114901000</v>
+        <v>110854000</v>
       </c>
       <c r="K42" s="3">
         <v>56894900</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1547000</v>
+        <v>1492500</v>
       </c>
       <c r="E48" s="3">
-        <v>2990100</v>
+        <v>2884700</v>
       </c>
       <c r="F48" s="3">
-        <v>3060800</v>
+        <v>2953000</v>
       </c>
       <c r="G48" s="3">
-        <v>3232500</v>
+        <v>3118600</v>
       </c>
       <c r="H48" s="3">
-        <v>1720100</v>
+        <v>1659500</v>
       </c>
       <c r="I48" s="3">
-        <v>1713400</v>
+        <v>1653000</v>
       </c>
       <c r="J48" s="3">
-        <v>3264100</v>
+        <v>3149100</v>
       </c>
       <c r="K48" s="3">
         <v>1577700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6597500</v>
+        <v>6365000</v>
       </c>
       <c r="E49" s="3">
-        <v>8218200</v>
+        <v>7928700</v>
       </c>
       <c r="F49" s="3">
-        <v>8762500</v>
+        <v>8453800</v>
       </c>
       <c r="G49" s="3">
-        <v>8082700</v>
+        <v>7798000</v>
       </c>
       <c r="H49" s="3">
-        <v>6230800</v>
+        <v>6011300</v>
       </c>
       <c r="I49" s="3">
-        <v>5574400</v>
+        <v>5378000</v>
       </c>
       <c r="J49" s="3">
-        <v>5149800</v>
+        <v>4968400</v>
       </c>
       <c r="K49" s="3">
         <v>3921200</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1355000</v>
+        <v>1307300</v>
       </c>
       <c r="E52" s="3">
-        <v>2034800</v>
+        <v>1963100</v>
       </c>
       <c r="F52" s="3">
-        <v>2539200</v>
+        <v>2449700</v>
       </c>
       <c r="G52" s="3">
-        <v>2423200</v>
+        <v>2337900</v>
       </c>
       <c r="H52" s="3">
-        <v>2758200</v>
+        <v>2661100</v>
       </c>
       <c r="I52" s="3">
-        <v>2469200</v>
+        <v>2382200</v>
       </c>
       <c r="J52" s="3">
-        <v>2423200</v>
+        <v>2337900</v>
       </c>
       <c r="K52" s="3">
         <v>3503000</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>641524000</v>
+        <v>618924000</v>
       </c>
       <c r="E54" s="3">
-        <v>582127000</v>
+        <v>561620000</v>
       </c>
       <c r="F54" s="3">
-        <v>534165000</v>
+        <v>515347000</v>
       </c>
       <c r="G54" s="3">
-        <v>517871000</v>
+        <v>499627000</v>
       </c>
       <c r="H54" s="3">
-        <v>483202000</v>
+        <v>466179000</v>
       </c>
       <c r="I54" s="3">
-        <v>443137000</v>
+        <v>427525000</v>
       </c>
       <c r="J54" s="3">
-        <v>404281000</v>
+        <v>390039000</v>
       </c>
       <c r="K54" s="3">
         <v>391044000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8142900</v>
+        <v>7856100</v>
       </c>
       <c r="E57" s="3">
-        <v>7565500</v>
+        <v>7299000</v>
       </c>
       <c r="F57" s="3">
-        <v>7581300</v>
+        <v>7314300</v>
       </c>
       <c r="G57" s="3">
-        <v>7550500</v>
+        <v>7284500</v>
       </c>
       <c r="H57" s="3">
-        <v>6584700</v>
+        <v>6352700</v>
       </c>
       <c r="I57" s="3">
-        <v>5806300</v>
+        <v>5601700</v>
       </c>
       <c r="J57" s="3">
-        <v>5711400</v>
+        <v>5510200</v>
       </c>
       <c r="K57" s="3">
         <v>6660700</v>
@@ -2177,16 +2177,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>88580800</v>
+        <v>85460200</v>
       </c>
       <c r="E58" s="3">
-        <v>74670000</v>
+        <v>72039400</v>
       </c>
       <c r="F58" s="3">
-        <v>63177900</v>
+        <v>60952200</v>
       </c>
       <c r="G58" s="3">
-        <v>52563600</v>
+        <v>50711800</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>5</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1315900</v>
+        <v>1269500</v>
       </c>
       <c r="E59" s="3">
-        <v>1080300</v>
+        <v>1042200</v>
       </c>
       <c r="F59" s="3">
-        <v>874700</v>
+        <v>843900</v>
       </c>
       <c r="G59" s="3">
-        <v>841600</v>
+        <v>812000</v>
       </c>
       <c r="H59" s="3">
-        <v>806200</v>
+        <v>777800</v>
       </c>
       <c r="I59" s="3">
-        <v>967300</v>
+        <v>933300</v>
       </c>
       <c r="J59" s="3">
-        <v>989900</v>
+        <v>955000</v>
       </c>
       <c r="K59" s="3">
         <v>727100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>22126800</v>
+        <v>21347300</v>
       </c>
       <c r="E61" s="3">
-        <v>21176000</v>
+        <v>20430000</v>
       </c>
       <c r="F61" s="3">
-        <v>18398200</v>
+        <v>17750000</v>
       </c>
       <c r="G61" s="3">
-        <v>17174900</v>
+        <v>16569900</v>
       </c>
       <c r="H61" s="3">
-        <v>19639500</v>
+        <v>18947700</v>
       </c>
       <c r="I61" s="3">
-        <v>20609900</v>
+        <v>19883800</v>
       </c>
       <c r="J61" s="3">
-        <v>19841300</v>
+        <v>19142300</v>
       </c>
       <c r="K61" s="3">
         <v>3046100</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1139700</v>
+        <v>1099600</v>
       </c>
       <c r="E62" s="3">
-        <v>971100</v>
+        <v>936900</v>
       </c>
       <c r="F62" s="3">
-        <v>1430300</v>
+        <v>1379900</v>
       </c>
       <c r="G62" s="3">
-        <v>1535700</v>
+        <v>1481600</v>
       </c>
       <c r="H62" s="3">
-        <v>1370800</v>
+        <v>1322500</v>
       </c>
       <c r="I62" s="3">
-        <v>1212700</v>
+        <v>1170000</v>
       </c>
       <c r="J62" s="3">
-        <v>972600</v>
+        <v>938300</v>
       </c>
       <c r="K62" s="3">
         <v>1239100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>603074000</v>
+        <v>581829000</v>
       </c>
       <c r="E66" s="3">
-        <v>547709000</v>
+        <v>528414000</v>
       </c>
       <c r="F66" s="3">
-        <v>500776000</v>
+        <v>483134000</v>
       </c>
       <c r="G66" s="3">
-        <v>486025000</v>
+        <v>468902000</v>
       </c>
       <c r="H66" s="3">
-        <v>453525000</v>
+        <v>437548000</v>
       </c>
       <c r="I66" s="3">
-        <v>417306000</v>
+        <v>402605000</v>
       </c>
       <c r="J66" s="3">
-        <v>381617000</v>
+        <v>368173000</v>
       </c>
       <c r="K66" s="3">
         <v>369719000</v>
@@ -2555,25 +2555,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3530600</v>
+        <v>3406200</v>
       </c>
       <c r="E70" s="3">
-        <v>3267100</v>
+        <v>3152000</v>
       </c>
       <c r="F70" s="3">
-        <v>3191800</v>
+        <v>3079400</v>
       </c>
       <c r="G70" s="3">
-        <v>2890700</v>
+        <v>2788900</v>
       </c>
       <c r="H70" s="3">
-        <v>2439000</v>
+        <v>2353100</v>
       </c>
       <c r="I70" s="3">
-        <v>2288500</v>
+        <v>2207900</v>
       </c>
       <c r="J70" s="3">
-        <v>1705100</v>
+        <v>1645000</v>
       </c>
       <c r="K70" s="3">
         <v>1834500</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21623900</v>
+        <v>20862100</v>
       </c>
       <c r="E72" s="3">
-        <v>19459600</v>
+        <v>18774100</v>
       </c>
       <c r="F72" s="3">
-        <v>17847900</v>
+        <v>17219100</v>
       </c>
       <c r="G72" s="3">
-        <v>15962900</v>
+        <v>15400600</v>
       </c>
       <c r="H72" s="3">
-        <v>14250300</v>
+        <v>13748300</v>
       </c>
       <c r="I72" s="3">
-        <v>12975800</v>
+        <v>12518700</v>
       </c>
       <c r="J72" s="3">
-        <v>11357300</v>
+        <v>10957200</v>
       </c>
       <c r="K72" s="3">
         <v>10076600</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>34918900</v>
+        <v>33688800</v>
       </c>
       <c r="E76" s="3">
-        <v>31151200</v>
+        <v>30053800</v>
       </c>
       <c r="F76" s="3">
-        <v>30197400</v>
+        <v>29133600</v>
       </c>
       <c r="G76" s="3">
-        <v>28955300</v>
+        <v>27935200</v>
       </c>
       <c r="H76" s="3">
-        <v>27237500</v>
+        <v>26277900</v>
       </c>
       <c r="I76" s="3">
-        <v>23542000</v>
+        <v>22712600</v>
       </c>
       <c r="J76" s="3">
-        <v>20959100</v>
+        <v>20220800</v>
       </c>
       <c r="K76" s="3">
         <v>19490800</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4175700</v>
+        <v>4030900</v>
       </c>
       <c r="E81" s="3">
-        <v>3966500</v>
+        <v>3828900</v>
       </c>
       <c r="F81" s="3">
-        <v>3879100</v>
+        <v>3744600</v>
       </c>
       <c r="G81" s="3">
-        <v>3366500</v>
+        <v>3249800</v>
       </c>
       <c r="H81" s="3">
-        <v>3201600</v>
+        <v>3090600</v>
       </c>
       <c r="I81" s="3">
-        <v>3129300</v>
+        <v>3020900</v>
       </c>
       <c r="J81" s="3">
-        <v>3018700</v>
+        <v>2914000</v>
       </c>
       <c r="K81" s="3">
         <v>2936700</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>744500</v>
+        <v>718700</v>
       </c>
       <c r="E83" s="3">
-        <v>679800</v>
+        <v>656200</v>
       </c>
       <c r="F83" s="3">
-        <v>659400</v>
+        <v>636600</v>
       </c>
       <c r="G83" s="3">
-        <v>623300</v>
+        <v>601700</v>
       </c>
       <c r="H83" s="3">
-        <v>594000</v>
+        <v>573400</v>
       </c>
       <c r="I83" s="3">
-        <v>562300</v>
+        <v>542800</v>
       </c>
       <c r="J83" s="3">
-        <v>522400</v>
+        <v>504300</v>
       </c>
       <c r="K83" s="3">
         <v>507600</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>22059000</v>
+        <v>21294200</v>
       </c>
       <c r="E89" s="3">
-        <v>13484000</v>
+        <v>13016500</v>
       </c>
       <c r="F89" s="3">
-        <v>2189100</v>
+        <v>2113200</v>
       </c>
       <c r="G89" s="3">
-        <v>-2053600</v>
+        <v>-1982400</v>
       </c>
       <c r="H89" s="3">
-        <v>1756300</v>
+        <v>1695400</v>
       </c>
       <c r="I89" s="3">
-        <v>-2203400</v>
+        <v>-2127000</v>
       </c>
       <c r="J89" s="3">
-        <v>8614900</v>
+        <v>8316200</v>
       </c>
       <c r="K89" s="3">
         <v>7636300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-359800</v>
+        <v>-347400</v>
       </c>
       <c r="E91" s="3">
-        <v>-248400</v>
+        <v>-239800</v>
       </c>
       <c r="F91" s="3">
-        <v>-226600</v>
+        <v>-218700</v>
       </c>
       <c r="G91" s="3">
-        <v>-168600</v>
+        <v>-162800</v>
       </c>
       <c r="H91" s="3">
-        <v>-134700</v>
+        <v>-130100</v>
       </c>
       <c r="I91" s="3">
-        <v>-267200</v>
+        <v>-258000</v>
       </c>
       <c r="J91" s="3">
-        <v>-271800</v>
+        <v>-262300</v>
       </c>
       <c r="K91" s="3">
         <v>-272400</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-14739600</v>
+        <v>-14228600</v>
       </c>
       <c r="E94" s="3">
-        <v>-8531400</v>
+        <v>-8235600</v>
       </c>
       <c r="F94" s="3">
-        <v>-2375100</v>
+        <v>-2292700</v>
       </c>
       <c r="G94" s="3">
-        <v>-11541800</v>
+        <v>-11141600</v>
       </c>
       <c r="H94" s="3">
-        <v>3030700</v>
+        <v>2925700</v>
       </c>
       <c r="I94" s="3">
-        <v>2478900</v>
+        <v>2393000</v>
       </c>
       <c r="J94" s="3">
-        <v>-1443900</v>
+        <v>-1393800</v>
       </c>
       <c r="K94" s="3">
         <v>-5545900</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2071700</v>
+        <v>-1999900</v>
       </c>
       <c r="E96" s="3">
-        <v>-1943700</v>
+        <v>-1876300</v>
       </c>
       <c r="F96" s="3">
-        <v>-1513100</v>
+        <v>-1460600</v>
       </c>
       <c r="G96" s="3">
-        <v>-1670400</v>
+        <v>-1612500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1607200</v>
+        <v>-1551500</v>
       </c>
       <c r="I96" s="3">
-        <v>-1393400</v>
+        <v>-1345100</v>
       </c>
       <c r="J96" s="3">
-        <v>-1427300</v>
+        <v>-1377800</v>
       </c>
       <c r="K96" s="3">
         <v>-1056000</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1966300</v>
+        <v>-1898100</v>
       </c>
       <c r="E100" s="3">
-        <v>2060400</v>
+        <v>1989000</v>
       </c>
       <c r="F100" s="3">
-        <v>1502600</v>
+        <v>1450500</v>
       </c>
       <c r="G100" s="3">
-        <v>6056900</v>
+        <v>5846900</v>
       </c>
       <c r="H100" s="3">
-        <v>49700</v>
+        <v>48000</v>
       </c>
       <c r="I100" s="3">
-        <v>-350000</v>
+        <v>-337900</v>
       </c>
       <c r="J100" s="3">
-        <v>-3637500</v>
+        <v>-3511400</v>
       </c>
       <c r="K100" s="3">
         <v>-1513700</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-338800</v>
+        <v>-327000</v>
       </c>
       <c r="E101" s="3">
-        <v>170900</v>
+        <v>165000</v>
       </c>
       <c r="F101" s="3">
-        <v>-604500</v>
+        <v>-583500</v>
       </c>
       <c r="G101" s="3">
-        <v>1032800</v>
+        <v>997000</v>
       </c>
       <c r="H101" s="3">
-        <v>4128300</v>
+        <v>3985200</v>
       </c>
       <c r="I101" s="3">
-        <v>1803700</v>
+        <v>1741100</v>
       </c>
       <c r="J101" s="3">
-        <v>1114100</v>
+        <v>1075500</v>
       </c>
       <c r="K101" s="3">
         <v>-363900</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5014300</v>
+        <v>4840500</v>
       </c>
       <c r="E102" s="3">
-        <v>7183900</v>
+        <v>6934800</v>
       </c>
       <c r="F102" s="3">
-        <v>712100</v>
+        <v>687400</v>
       </c>
       <c r="G102" s="3">
-        <v>-6505600</v>
+        <v>-6280100</v>
       </c>
       <c r="H102" s="3">
-        <v>8965000</v>
+        <v>8654200</v>
       </c>
       <c r="I102" s="3">
-        <v>1729200</v>
+        <v>1669200</v>
       </c>
       <c r="J102" s="3">
-        <v>4647700</v>
+        <v>4486600</v>
       </c>
       <c r="K102" s="3">
         <v>212800</v>

--- a/AAII_Financials/Yearly/BMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BMO_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19004400</v>
+        <v>19904000</v>
       </c>
       <c r="E8" s="3">
-        <v>15285900</v>
+        <v>16009500</v>
       </c>
       <c r="F8" s="3">
-        <v>12653900</v>
+        <v>13252900</v>
       </c>
       <c r="G8" s="3">
-        <v>10455600</v>
+        <v>10950600</v>
       </c>
       <c r="H8" s="3">
-        <v>9561800</v>
+        <v>10014400</v>
       </c>
       <c r="I8" s="3">
-        <v>9354000</v>
+        <v>9796800</v>
       </c>
       <c r="J8" s="3">
-        <v>9639500</v>
+        <v>10095900</v>
       </c>
       <c r="K8" s="3">
         <v>10252200</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-402600</v>
+        <v>-421600</v>
       </c>
       <c r="E15" s="3">
-        <v>-365500</v>
+        <v>-382800</v>
       </c>
       <c r="F15" s="3">
-        <v>-704900</v>
+        <v>-738300</v>
       </c>
       <c r="G15" s="3">
-        <v>-645300</v>
+        <v>-675800</v>
       </c>
       <c r="H15" s="3">
-        <v>-298700</v>
+        <v>-312800</v>
       </c>
       <c r="I15" s="3">
-        <v>-555200</v>
+        <v>-581500</v>
       </c>
       <c r="J15" s="3">
-        <v>-251400</v>
+        <v>-263300</v>
       </c>
       <c r="K15" s="3">
         <v>-246300</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10272500</v>
+        <v>10758800</v>
       </c>
       <c r="E17" s="3">
-        <v>7455100</v>
+        <v>7808000</v>
       </c>
       <c r="F17" s="3">
-        <v>5002500</v>
+        <v>5239300</v>
       </c>
       <c r="G17" s="3">
-        <v>3842000</v>
+        <v>4023900</v>
       </c>
       <c r="H17" s="3">
-        <v>3638500</v>
+        <v>3810800</v>
       </c>
       <c r="I17" s="3">
-        <v>3735900</v>
+        <v>3912800</v>
       </c>
       <c r="J17" s="3">
-        <v>3760600</v>
+        <v>3938600</v>
       </c>
       <c r="K17" s="3">
         <v>4169800</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8731900</v>
+        <v>9145300</v>
       </c>
       <c r="E18" s="3">
-        <v>7830800</v>
+        <v>8201500</v>
       </c>
       <c r="F18" s="3">
-        <v>7651300</v>
+        <v>8013500</v>
       </c>
       <c r="G18" s="3">
-        <v>6613600</v>
+        <v>6926700</v>
       </c>
       <c r="H18" s="3">
-        <v>5923300</v>
+        <v>6203600</v>
       </c>
       <c r="I18" s="3">
-        <v>5618000</v>
+        <v>5884000</v>
       </c>
       <c r="J18" s="3">
-        <v>5878900</v>
+        <v>6157200</v>
       </c>
       <c r="K18" s="3">
         <v>6082400</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3447400</v>
+        <v>-3610600</v>
       </c>
       <c r="E20" s="3">
-        <v>-2443100</v>
+        <v>-2558800</v>
       </c>
       <c r="F20" s="3">
-        <v>-2832600</v>
+        <v>-2966700</v>
       </c>
       <c r="G20" s="3">
-        <v>-2448200</v>
+        <v>-2564100</v>
       </c>
       <c r="H20" s="3">
-        <v>-2042000</v>
+        <v>-2138700</v>
       </c>
       <c r="I20" s="3">
-        <v>-1813100</v>
+        <v>-1898900</v>
       </c>
       <c r="J20" s="3">
-        <v>-2063800</v>
+        <v>-2161500</v>
       </c>
       <c r="K20" s="3">
         <v>-2339100</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6003800</v>
+        <v>6285700</v>
       </c>
       <c r="E21" s="3">
-        <v>6044400</v>
+        <v>6328500</v>
       </c>
       <c r="F21" s="3">
-        <v>5455800</v>
+        <v>5712000</v>
       </c>
       <c r="G21" s="3">
-        <v>4767600</v>
+        <v>4991400</v>
       </c>
       <c r="H21" s="3">
-        <v>4455100</v>
+        <v>4664200</v>
       </c>
       <c r="I21" s="3">
-        <v>4348200</v>
+        <v>4552400</v>
       </c>
       <c r="J21" s="3">
-        <v>4319800</v>
+        <v>4522800</v>
       </c>
       <c r="K21" s="3">
         <v>4252000</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5284500</v>
+        <v>5534600</v>
       </c>
       <c r="E23" s="3">
-        <v>5387700</v>
+        <v>5642700</v>
       </c>
       <c r="F23" s="3">
-        <v>4818700</v>
+        <v>5046800</v>
       </c>
       <c r="G23" s="3">
-        <v>4165400</v>
+        <v>4362600</v>
       </c>
       <c r="H23" s="3">
-        <v>3881300</v>
+        <v>4065000</v>
       </c>
       <c r="I23" s="3">
-        <v>3804900</v>
+        <v>3985100</v>
       </c>
       <c r="J23" s="3">
-        <v>3815100</v>
+        <v>3995700</v>
       </c>
       <c r="K23" s="3">
         <v>3743400</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1100200</v>
+        <v>1152300</v>
       </c>
       <c r="E24" s="3">
-        <v>1116200</v>
+        <v>1169000</v>
       </c>
       <c r="F24" s="3">
-        <v>938900</v>
+        <v>983300</v>
       </c>
       <c r="G24" s="3">
-        <v>800100</v>
+        <v>838000</v>
       </c>
       <c r="H24" s="3">
-        <v>680200</v>
+        <v>712400</v>
       </c>
       <c r="I24" s="3">
-        <v>656200</v>
+        <v>687300</v>
       </c>
       <c r="J24" s="3">
-        <v>766700</v>
+        <v>802900</v>
       </c>
       <c r="K24" s="3">
         <v>650400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4184300</v>
+        <v>4382400</v>
       </c>
       <c r="E26" s="3">
-        <v>4271500</v>
+        <v>4473700</v>
       </c>
       <c r="F26" s="3">
-        <v>3879800</v>
+        <v>4063500</v>
       </c>
       <c r="G26" s="3">
-        <v>3365300</v>
+        <v>3524600</v>
       </c>
       <c r="H26" s="3">
-        <v>3201100</v>
+        <v>3352600</v>
       </c>
       <c r="I26" s="3">
-        <v>3148700</v>
+        <v>3297800</v>
       </c>
       <c r="J26" s="3">
-        <v>3048500</v>
+        <v>3192800</v>
       </c>
       <c r="K26" s="3">
         <v>3092900</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4030900</v>
+        <v>4221800</v>
       </c>
       <c r="E27" s="3">
-        <v>4137800</v>
+        <v>4333600</v>
       </c>
       <c r="F27" s="3">
-        <v>3744600</v>
+        <v>3921900</v>
       </c>
       <c r="G27" s="3">
-        <v>3249800</v>
+        <v>3403600</v>
       </c>
       <c r="H27" s="3">
-        <v>3090600</v>
+        <v>3236900</v>
       </c>
       <c r="I27" s="3">
-        <v>3020900</v>
+        <v>3163900</v>
       </c>
       <c r="J27" s="3">
-        <v>2914000</v>
+        <v>3052000</v>
       </c>
       <c r="K27" s="3">
         <v>2936700</v>
@@ -1356,7 +1356,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="3">
-        <v>-308800</v>
+        <v>-323500</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3447400</v>
+        <v>3610600</v>
       </c>
       <c r="E32" s="3">
-        <v>2443100</v>
+        <v>2558800</v>
       </c>
       <c r="F32" s="3">
-        <v>2832600</v>
+        <v>2966700</v>
       </c>
       <c r="G32" s="3">
-        <v>2448200</v>
+        <v>2564100</v>
       </c>
       <c r="H32" s="3">
-        <v>2042000</v>
+        <v>2138700</v>
       </c>
       <c r="I32" s="3">
-        <v>1813100</v>
+        <v>1898900</v>
       </c>
       <c r="J32" s="3">
-        <v>2063800</v>
+        <v>2161500</v>
       </c>
       <c r="K32" s="3">
         <v>2339100</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4030900</v>
+        <v>4221800</v>
       </c>
       <c r="E33" s="3">
-        <v>3828900</v>
+        <v>4010200</v>
       </c>
       <c r="F33" s="3">
-        <v>3744600</v>
+        <v>3921900</v>
       </c>
       <c r="G33" s="3">
-        <v>3249800</v>
+        <v>3403600</v>
       </c>
       <c r="H33" s="3">
-        <v>3090600</v>
+        <v>3236900</v>
       </c>
       <c r="I33" s="3">
-        <v>3020900</v>
+        <v>3163900</v>
       </c>
       <c r="J33" s="3">
-        <v>2914000</v>
+        <v>3052000</v>
       </c>
       <c r="K33" s="3">
         <v>2936700</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4030900</v>
+        <v>4221800</v>
       </c>
       <c r="E35" s="3">
-        <v>3828900</v>
+        <v>4010200</v>
       </c>
       <c r="F35" s="3">
-        <v>3744600</v>
+        <v>3921900</v>
       </c>
       <c r="G35" s="3">
-        <v>3249800</v>
+        <v>3403600</v>
       </c>
       <c r="H35" s="3">
-        <v>3090600</v>
+        <v>3236900</v>
       </c>
       <c r="I35" s="3">
-        <v>3020900</v>
+        <v>3163900</v>
       </c>
       <c r="J35" s="3">
-        <v>2914000</v>
+        <v>3052000</v>
       </c>
       <c r="K35" s="3">
         <v>2936700</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>35444200</v>
+        <v>37143500</v>
       </c>
       <c r="E41" s="3">
-        <v>61212900</v>
+        <v>64147700</v>
       </c>
       <c r="F41" s="3">
-        <v>47351400</v>
+        <v>49621500</v>
       </c>
       <c r="G41" s="3">
-        <v>45977200</v>
+        <v>48181600</v>
       </c>
       <c r="H41" s="3">
-        <v>29265000</v>
+        <v>30668100</v>
       </c>
       <c r="I41" s="3">
-        <v>20615900</v>
+        <v>21604300</v>
       </c>
       <c r="J41" s="3">
-        <v>37895300</v>
+        <v>39712200</v>
       </c>
       <c r="K41" s="3">
         <v>14840300</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>172927000</v>
+        <v>181218000</v>
       </c>
       <c r="E42" s="3">
-        <v>169081000</v>
+        <v>177187000</v>
       </c>
       <c r="F42" s="3">
-        <v>176217000</v>
+        <v>184666000</v>
       </c>
       <c r="G42" s="3">
-        <v>113626000</v>
+        <v>119074000</v>
       </c>
       <c r="H42" s="3">
-        <v>135933000</v>
+        <v>142450000</v>
       </c>
       <c r="I42" s="3">
-        <v>129515000</v>
+        <v>135724000</v>
       </c>
       <c r="J42" s="3">
-        <v>110854000</v>
+        <v>116168000</v>
       </c>
       <c r="K42" s="3">
         <v>56894900</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1492500</v>
+        <v>1564000</v>
       </c>
       <c r="E48" s="3">
-        <v>2884700</v>
+        <v>3023000</v>
       </c>
       <c r="F48" s="3">
-        <v>2953000</v>
+        <v>3094600</v>
       </c>
       <c r="G48" s="3">
-        <v>3118600</v>
+        <v>3268100</v>
       </c>
       <c r="H48" s="3">
-        <v>1659500</v>
+        <v>1739100</v>
       </c>
       <c r="I48" s="3">
-        <v>1653000</v>
+        <v>1732200</v>
       </c>
       <c r="J48" s="3">
-        <v>3149100</v>
+        <v>3300100</v>
       </c>
       <c r="K48" s="3">
         <v>1577700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6365000</v>
+        <v>6670200</v>
       </c>
       <c r="E49" s="3">
-        <v>7928700</v>
+        <v>8308800</v>
       </c>
       <c r="F49" s="3">
-        <v>8453800</v>
+        <v>8859100</v>
       </c>
       <c r="G49" s="3">
-        <v>7798000</v>
+        <v>8171800</v>
       </c>
       <c r="H49" s="3">
-        <v>6011300</v>
+        <v>6299500</v>
       </c>
       <c r="I49" s="3">
-        <v>5378000</v>
+        <v>5635900</v>
       </c>
       <c r="J49" s="3">
-        <v>4968400</v>
+        <v>5206600</v>
       </c>
       <c r="K49" s="3">
         <v>3921200</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1307300</v>
+        <v>1370000</v>
       </c>
       <c r="E52" s="3">
-        <v>1963100</v>
+        <v>2057200</v>
       </c>
       <c r="F52" s="3">
-        <v>2449700</v>
+        <v>2567200</v>
       </c>
       <c r="G52" s="3">
-        <v>2337900</v>
+        <v>2449900</v>
       </c>
       <c r="H52" s="3">
-        <v>2661100</v>
+        <v>2788600</v>
       </c>
       <c r="I52" s="3">
-        <v>2382200</v>
+        <v>2496400</v>
       </c>
       <c r="J52" s="3">
-        <v>2337900</v>
+        <v>2449900</v>
       </c>
       <c r="K52" s="3">
         <v>3503000</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>618924000</v>
+        <v>648597000</v>
       </c>
       <c r="E54" s="3">
-        <v>561620000</v>
+        <v>588546000</v>
       </c>
       <c r="F54" s="3">
-        <v>515347000</v>
+        <v>540054000</v>
       </c>
       <c r="G54" s="3">
-        <v>499627000</v>
+        <v>523580000</v>
       </c>
       <c r="H54" s="3">
-        <v>466179000</v>
+        <v>488529000</v>
       </c>
       <c r="I54" s="3">
-        <v>427525000</v>
+        <v>448023000</v>
       </c>
       <c r="J54" s="3">
-        <v>390039000</v>
+        <v>408739000</v>
       </c>
       <c r="K54" s="3">
         <v>391044000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7856100</v>
+        <v>8232700</v>
       </c>
       <c r="E57" s="3">
-        <v>7299000</v>
+        <v>7649000</v>
       </c>
       <c r="F57" s="3">
-        <v>7314300</v>
+        <v>7664900</v>
       </c>
       <c r="G57" s="3">
-        <v>7284500</v>
+        <v>7633700</v>
       </c>
       <c r="H57" s="3">
-        <v>6352700</v>
+        <v>6657300</v>
       </c>
       <c r="I57" s="3">
-        <v>5601700</v>
+        <v>5870300</v>
       </c>
       <c r="J57" s="3">
-        <v>5510200</v>
+        <v>5774400</v>
       </c>
       <c r="K57" s="3">
         <v>6660700</v>
@@ -2177,16 +2177,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>85460200</v>
+        <v>89557500</v>
       </c>
       <c r="E58" s="3">
-        <v>72039400</v>
+        <v>75493300</v>
       </c>
       <c r="F58" s="3">
-        <v>60952200</v>
+        <v>63874500</v>
       </c>
       <c r="G58" s="3">
-        <v>50711800</v>
+        <v>53143100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>5</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1269500</v>
+        <v>1330400</v>
       </c>
       <c r="E59" s="3">
-        <v>1042200</v>
+        <v>1092200</v>
       </c>
       <c r="F59" s="3">
-        <v>843900</v>
+        <v>884400</v>
       </c>
       <c r="G59" s="3">
-        <v>812000</v>
+        <v>850900</v>
       </c>
       <c r="H59" s="3">
-        <v>777800</v>
+        <v>815100</v>
       </c>
       <c r="I59" s="3">
-        <v>933300</v>
+        <v>978000</v>
       </c>
       <c r="J59" s="3">
-        <v>955000</v>
+        <v>1000800</v>
       </c>
       <c r="K59" s="3">
         <v>727100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>21347300</v>
+        <v>22370700</v>
       </c>
       <c r="E61" s="3">
-        <v>20430000</v>
+        <v>21409500</v>
       </c>
       <c r="F61" s="3">
-        <v>17750000</v>
+        <v>18601000</v>
       </c>
       <c r="G61" s="3">
-        <v>16569900</v>
+        <v>17364300</v>
       </c>
       <c r="H61" s="3">
-        <v>18947700</v>
+        <v>19856100</v>
       </c>
       <c r="I61" s="3">
-        <v>19883800</v>
+        <v>20837100</v>
       </c>
       <c r="J61" s="3">
-        <v>19142300</v>
+        <v>20060000</v>
       </c>
       <c r="K61" s="3">
         <v>3046100</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1099600</v>
+        <v>1152300</v>
       </c>
       <c r="E62" s="3">
-        <v>936900</v>
+        <v>981800</v>
       </c>
       <c r="F62" s="3">
-        <v>1379900</v>
+        <v>1446100</v>
       </c>
       <c r="G62" s="3">
-        <v>1481600</v>
+        <v>1552600</v>
       </c>
       <c r="H62" s="3">
-        <v>1322500</v>
+        <v>1385900</v>
       </c>
       <c r="I62" s="3">
-        <v>1170000</v>
+        <v>1226100</v>
       </c>
       <c r="J62" s="3">
-        <v>938300</v>
+        <v>983300</v>
       </c>
       <c r="K62" s="3">
         <v>1239100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>581829000</v>
+        <v>609724000</v>
       </c>
       <c r="E66" s="3">
-        <v>528414000</v>
+        <v>553748000</v>
       </c>
       <c r="F66" s="3">
-        <v>483134000</v>
+        <v>506297000</v>
       </c>
       <c r="G66" s="3">
-        <v>468902000</v>
+        <v>491383000</v>
       </c>
       <c r="H66" s="3">
-        <v>437548000</v>
+        <v>458526000</v>
       </c>
       <c r="I66" s="3">
-        <v>402605000</v>
+        <v>421907000</v>
       </c>
       <c r="J66" s="3">
-        <v>368173000</v>
+        <v>385825000</v>
       </c>
       <c r="K66" s="3">
         <v>369719000</v>
@@ -2555,25 +2555,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3406200</v>
+        <v>3569500</v>
       </c>
       <c r="E70" s="3">
-        <v>3152000</v>
+        <v>3303100</v>
       </c>
       <c r="F70" s="3">
-        <v>3079400</v>
+        <v>3227000</v>
       </c>
       <c r="G70" s="3">
-        <v>2788900</v>
+        <v>2922600</v>
       </c>
       <c r="H70" s="3">
-        <v>2353100</v>
+        <v>2465900</v>
       </c>
       <c r="I70" s="3">
-        <v>2207900</v>
+        <v>2313700</v>
       </c>
       <c r="J70" s="3">
-        <v>1645000</v>
+        <v>1723900</v>
       </c>
       <c r="K70" s="3">
         <v>1834500</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20862100</v>
+        <v>21862300</v>
       </c>
       <c r="E72" s="3">
-        <v>18774100</v>
+        <v>19674200</v>
       </c>
       <c r="F72" s="3">
-        <v>17219100</v>
+        <v>18044700</v>
       </c>
       <c r="G72" s="3">
-        <v>15400600</v>
+        <v>16138900</v>
       </c>
       <c r="H72" s="3">
-        <v>13748300</v>
+        <v>14407400</v>
       </c>
       <c r="I72" s="3">
-        <v>12518700</v>
+        <v>13118900</v>
       </c>
       <c r="J72" s="3">
-        <v>10957200</v>
+        <v>11482600</v>
       </c>
       <c r="K72" s="3">
         <v>10076600</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>33688800</v>
+        <v>35303900</v>
       </c>
       <c r="E76" s="3">
-        <v>30053800</v>
+        <v>31494700</v>
       </c>
       <c r="F76" s="3">
-        <v>29133600</v>
+        <v>30530400</v>
       </c>
       <c r="G76" s="3">
-        <v>27935200</v>
+        <v>29274600</v>
       </c>
       <c r="H76" s="3">
-        <v>26277900</v>
+        <v>27537800</v>
       </c>
       <c r="I76" s="3">
-        <v>22712600</v>
+        <v>23801600</v>
       </c>
       <c r="J76" s="3">
-        <v>20220800</v>
+        <v>21190200</v>
       </c>
       <c r="K76" s="3">
         <v>19490800</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4030900</v>
+        <v>4221800</v>
       </c>
       <c r="E81" s="3">
-        <v>3828900</v>
+        <v>4010200</v>
       </c>
       <c r="F81" s="3">
-        <v>3744600</v>
+        <v>3921900</v>
       </c>
       <c r="G81" s="3">
-        <v>3249800</v>
+        <v>3403600</v>
       </c>
       <c r="H81" s="3">
-        <v>3090600</v>
+        <v>3236900</v>
       </c>
       <c r="I81" s="3">
-        <v>3020900</v>
+        <v>3163900</v>
       </c>
       <c r="J81" s="3">
-        <v>2914000</v>
+        <v>3052000</v>
       </c>
       <c r="K81" s="3">
         <v>2936700</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>718700</v>
+        <v>752700</v>
       </c>
       <c r="E83" s="3">
-        <v>656200</v>
+        <v>687300</v>
       </c>
       <c r="F83" s="3">
-        <v>636600</v>
+        <v>666700</v>
       </c>
       <c r="G83" s="3">
-        <v>601700</v>
+        <v>630200</v>
       </c>
       <c r="H83" s="3">
-        <v>573400</v>
+        <v>600500</v>
       </c>
       <c r="I83" s="3">
-        <v>542800</v>
+        <v>568500</v>
       </c>
       <c r="J83" s="3">
-        <v>504300</v>
+        <v>528200</v>
       </c>
       <c r="K83" s="3">
         <v>507600</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>21294200</v>
+        <v>22302200</v>
       </c>
       <c r="E89" s="3">
-        <v>13016500</v>
+        <v>13632600</v>
       </c>
       <c r="F89" s="3">
-        <v>2113200</v>
+        <v>2213200</v>
       </c>
       <c r="G89" s="3">
-        <v>-1982400</v>
+        <v>-2076300</v>
       </c>
       <c r="H89" s="3">
-        <v>1695400</v>
+        <v>1775600</v>
       </c>
       <c r="I89" s="3">
-        <v>-2127000</v>
+        <v>-2227700</v>
       </c>
       <c r="J89" s="3">
-        <v>8316200</v>
+        <v>8709900</v>
       </c>
       <c r="K89" s="3">
         <v>7636300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-347400</v>
+        <v>-363800</v>
       </c>
       <c r="E91" s="3">
-        <v>-239800</v>
+        <v>-251200</v>
       </c>
       <c r="F91" s="3">
-        <v>-218700</v>
+        <v>-229100</v>
       </c>
       <c r="G91" s="3">
-        <v>-162800</v>
+        <v>-170500</v>
       </c>
       <c r="H91" s="3">
-        <v>-130100</v>
+        <v>-136200</v>
       </c>
       <c r="I91" s="3">
-        <v>-258000</v>
+        <v>-270200</v>
       </c>
       <c r="J91" s="3">
-        <v>-262300</v>
+        <v>-274800</v>
       </c>
       <c r="K91" s="3">
         <v>-272400</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-14228600</v>
+        <v>-14902100</v>
       </c>
       <c r="E94" s="3">
-        <v>-8235600</v>
+        <v>-8625400</v>
       </c>
       <c r="F94" s="3">
-        <v>-2292700</v>
+        <v>-2401200</v>
       </c>
       <c r="G94" s="3">
-        <v>-11141600</v>
+        <v>-11669000</v>
       </c>
       <c r="H94" s="3">
-        <v>2925700</v>
+        <v>3064100</v>
       </c>
       <c r="I94" s="3">
-        <v>2393000</v>
+        <v>2506300</v>
       </c>
       <c r="J94" s="3">
-        <v>-1393800</v>
+        <v>-1459800</v>
       </c>
       <c r="K94" s="3">
         <v>-5545900</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1999900</v>
+        <v>-2094500</v>
       </c>
       <c r="E96" s="3">
-        <v>-1876300</v>
+        <v>-1965100</v>
       </c>
       <c r="F96" s="3">
-        <v>-1460600</v>
+        <v>-1529800</v>
       </c>
       <c r="G96" s="3">
-        <v>-1612500</v>
+        <v>-1688900</v>
       </c>
       <c r="H96" s="3">
-        <v>-1551500</v>
+        <v>-1624900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1345100</v>
+        <v>-1408800</v>
       </c>
       <c r="J96" s="3">
-        <v>-1377800</v>
+        <v>-1443000</v>
       </c>
       <c r="K96" s="3">
         <v>-1056000</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1898100</v>
+        <v>-1988000</v>
       </c>
       <c r="E100" s="3">
-        <v>1989000</v>
+        <v>2083100</v>
       </c>
       <c r="F100" s="3">
-        <v>1450500</v>
+        <v>1519100</v>
       </c>
       <c r="G100" s="3">
-        <v>5846900</v>
+        <v>6123700</v>
       </c>
       <c r="H100" s="3">
-        <v>48000</v>
+        <v>50200</v>
       </c>
       <c r="I100" s="3">
-        <v>-337900</v>
+        <v>-353900</v>
       </c>
       <c r="J100" s="3">
-        <v>-3511400</v>
+        <v>-3677600</v>
       </c>
       <c r="K100" s="3">
         <v>-1513700</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-327000</v>
+        <v>-342500</v>
       </c>
       <c r="E101" s="3">
-        <v>165000</v>
+        <v>172800</v>
       </c>
       <c r="F101" s="3">
-        <v>-583500</v>
+        <v>-611200</v>
       </c>
       <c r="G101" s="3">
-        <v>997000</v>
+        <v>1044200</v>
       </c>
       <c r="H101" s="3">
-        <v>3985200</v>
+        <v>4173800</v>
       </c>
       <c r="I101" s="3">
-        <v>1741100</v>
+        <v>1823600</v>
       </c>
       <c r="J101" s="3">
-        <v>1075500</v>
+        <v>1126400</v>
       </c>
       <c r="K101" s="3">
         <v>-363900</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4840500</v>
+        <v>5069600</v>
       </c>
       <c r="E102" s="3">
-        <v>6934800</v>
+        <v>7263100</v>
       </c>
       <c r="F102" s="3">
-        <v>687400</v>
+        <v>720000</v>
       </c>
       <c r="G102" s="3">
-        <v>-6280100</v>
+        <v>-6577300</v>
       </c>
       <c r="H102" s="3">
-        <v>8654200</v>
+        <v>9063800</v>
       </c>
       <c r="I102" s="3">
-        <v>1669200</v>
+        <v>1748200</v>
       </c>
       <c r="J102" s="3">
-        <v>4486600</v>
+        <v>4699000</v>
       </c>
       <c r="K102" s="3">
         <v>212800</v>

--- a/AAII_Financials/Yearly/BMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BMO_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19904000</v>
+        <v>20132300</v>
       </c>
       <c r="E8" s="3">
-        <v>16009500</v>
+        <v>16193200</v>
       </c>
       <c r="F8" s="3">
-        <v>13252900</v>
+        <v>13404900</v>
       </c>
       <c r="G8" s="3">
-        <v>10950600</v>
+        <v>11076200</v>
       </c>
       <c r="H8" s="3">
-        <v>10014400</v>
+        <v>10129300</v>
       </c>
       <c r="I8" s="3">
-        <v>9796800</v>
+        <v>9909100</v>
       </c>
       <c r="J8" s="3">
-        <v>10095900</v>
+        <v>10211700</v>
       </c>
       <c r="K8" s="3">
         <v>10252200</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-421600</v>
+        <v>-426500</v>
       </c>
       <c r="E15" s="3">
-        <v>-382800</v>
+        <v>-387200</v>
       </c>
       <c r="F15" s="3">
-        <v>-738300</v>
+        <v>-746700</v>
       </c>
       <c r="G15" s="3">
-        <v>-675800</v>
+        <v>-683600</v>
       </c>
       <c r="H15" s="3">
-        <v>-312800</v>
+        <v>-316400</v>
       </c>
       <c r="I15" s="3">
-        <v>-581500</v>
+        <v>-588100</v>
       </c>
       <c r="J15" s="3">
-        <v>-263300</v>
+        <v>-266400</v>
       </c>
       <c r="K15" s="3">
         <v>-246300</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10758800</v>
+        <v>10882200</v>
       </c>
       <c r="E17" s="3">
-        <v>7808000</v>
+        <v>7897600</v>
       </c>
       <c r="F17" s="3">
-        <v>5239300</v>
+        <v>5299400</v>
       </c>
       <c r="G17" s="3">
-        <v>4023900</v>
+        <v>4070000</v>
       </c>
       <c r="H17" s="3">
-        <v>3810800</v>
+        <v>3854500</v>
       </c>
       <c r="I17" s="3">
-        <v>3912800</v>
+        <v>3957600</v>
       </c>
       <c r="J17" s="3">
-        <v>3938600</v>
+        <v>3983800</v>
       </c>
       <c r="K17" s="3">
         <v>4169800</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9145300</v>
+        <v>9250200</v>
       </c>
       <c r="E18" s="3">
-        <v>8201500</v>
+        <v>8295600</v>
       </c>
       <c r="F18" s="3">
-        <v>8013500</v>
+        <v>8105400</v>
       </c>
       <c r="G18" s="3">
-        <v>6926700</v>
+        <v>7006100</v>
       </c>
       <c r="H18" s="3">
-        <v>6203600</v>
+        <v>6274800</v>
       </c>
       <c r="I18" s="3">
-        <v>5884000</v>
+        <v>5951500</v>
       </c>
       <c r="J18" s="3">
-        <v>6157200</v>
+        <v>6227800</v>
       </c>
       <c r="K18" s="3">
         <v>6082400</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3610600</v>
+        <v>-3652000</v>
       </c>
       <c r="E20" s="3">
-        <v>-2558800</v>
+        <v>-2588100</v>
       </c>
       <c r="F20" s="3">
-        <v>-2966700</v>
+        <v>-3000800</v>
       </c>
       <c r="G20" s="3">
-        <v>-2564100</v>
+        <v>-2593500</v>
       </c>
       <c r="H20" s="3">
-        <v>-2138700</v>
+        <v>-2163200</v>
       </c>
       <c r="I20" s="3">
-        <v>-1898900</v>
+        <v>-1920700</v>
       </c>
       <c r="J20" s="3">
-        <v>-2161500</v>
+        <v>-2186300</v>
       </c>
       <c r="K20" s="3">
         <v>-2339100</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6285700</v>
+        <v>6358100</v>
       </c>
       <c r="E21" s="3">
-        <v>6328500</v>
+        <v>6401400</v>
       </c>
       <c r="F21" s="3">
-        <v>5712000</v>
+        <v>5777800</v>
       </c>
       <c r="G21" s="3">
-        <v>4991400</v>
+        <v>5048900</v>
       </c>
       <c r="H21" s="3">
-        <v>4664200</v>
+        <v>4717900</v>
       </c>
       <c r="I21" s="3">
-        <v>4552400</v>
+        <v>4604800</v>
       </c>
       <c r="J21" s="3">
-        <v>4522800</v>
+        <v>4574900</v>
       </c>
       <c r="K21" s="3">
         <v>4252000</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5534600</v>
+        <v>5598100</v>
       </c>
       <c r="E23" s="3">
-        <v>5642700</v>
+        <v>5707400</v>
       </c>
       <c r="F23" s="3">
-        <v>5046800</v>
+        <v>5104700</v>
       </c>
       <c r="G23" s="3">
-        <v>4362600</v>
+        <v>4412600</v>
       </c>
       <c r="H23" s="3">
-        <v>4065000</v>
+        <v>4111600</v>
       </c>
       <c r="I23" s="3">
-        <v>3985100</v>
+        <v>4030800</v>
       </c>
       <c r="J23" s="3">
-        <v>3995700</v>
+        <v>4041600</v>
       </c>
       <c r="K23" s="3">
         <v>3743400</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1152300</v>
+        <v>1165500</v>
       </c>
       <c r="E24" s="3">
-        <v>1169000</v>
+        <v>1182400</v>
       </c>
       <c r="F24" s="3">
-        <v>983300</v>
+        <v>994600</v>
       </c>
       <c r="G24" s="3">
-        <v>838000</v>
+        <v>847600</v>
       </c>
       <c r="H24" s="3">
-        <v>712400</v>
+        <v>720600</v>
       </c>
       <c r="I24" s="3">
-        <v>687300</v>
+        <v>695100</v>
       </c>
       <c r="J24" s="3">
-        <v>802900</v>
+        <v>812200</v>
       </c>
       <c r="K24" s="3">
         <v>650400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4382400</v>
+        <v>4432600</v>
       </c>
       <c r="E26" s="3">
-        <v>4473700</v>
+        <v>4525000</v>
       </c>
       <c r="F26" s="3">
-        <v>4063500</v>
+        <v>4110100</v>
       </c>
       <c r="G26" s="3">
-        <v>3524600</v>
+        <v>3565000</v>
       </c>
       <c r="H26" s="3">
-        <v>3352600</v>
+        <v>3391100</v>
       </c>
       <c r="I26" s="3">
-        <v>3297800</v>
+        <v>3335600</v>
       </c>
       <c r="J26" s="3">
-        <v>3192800</v>
+        <v>3229400</v>
       </c>
       <c r="K26" s="3">
         <v>3092900</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4221800</v>
+        <v>4270200</v>
       </c>
       <c r="E27" s="3">
-        <v>4333600</v>
+        <v>4383400</v>
       </c>
       <c r="F27" s="3">
-        <v>3921900</v>
+        <v>3966900</v>
       </c>
       <c r="G27" s="3">
-        <v>3403600</v>
+        <v>3442600</v>
       </c>
       <c r="H27" s="3">
-        <v>3236900</v>
+        <v>3274000</v>
       </c>
       <c r="I27" s="3">
-        <v>3163900</v>
+        <v>3200100</v>
       </c>
       <c r="J27" s="3">
-        <v>3052000</v>
+        <v>3087000</v>
       </c>
       <c r="K27" s="3">
         <v>2936700</v>
@@ -1356,7 +1356,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="3">
-        <v>-323500</v>
+        <v>-327200</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3610600</v>
+        <v>3652000</v>
       </c>
       <c r="E32" s="3">
-        <v>2558800</v>
+        <v>2588100</v>
       </c>
       <c r="F32" s="3">
-        <v>2966700</v>
+        <v>3000800</v>
       </c>
       <c r="G32" s="3">
-        <v>2564100</v>
+        <v>2593500</v>
       </c>
       <c r="H32" s="3">
-        <v>2138700</v>
+        <v>2163200</v>
       </c>
       <c r="I32" s="3">
-        <v>1898900</v>
+        <v>1920700</v>
       </c>
       <c r="J32" s="3">
-        <v>2161500</v>
+        <v>2186300</v>
       </c>
       <c r="K32" s="3">
         <v>2339100</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4221800</v>
+        <v>4270200</v>
       </c>
       <c r="E33" s="3">
-        <v>4010200</v>
+        <v>4056200</v>
       </c>
       <c r="F33" s="3">
-        <v>3921900</v>
+        <v>3966900</v>
       </c>
       <c r="G33" s="3">
-        <v>3403600</v>
+        <v>3442600</v>
       </c>
       <c r="H33" s="3">
-        <v>3236900</v>
+        <v>3274000</v>
       </c>
       <c r="I33" s="3">
-        <v>3163900</v>
+        <v>3200100</v>
       </c>
       <c r="J33" s="3">
-        <v>3052000</v>
+        <v>3087000</v>
       </c>
       <c r="K33" s="3">
         <v>2936700</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4221800</v>
+        <v>4270200</v>
       </c>
       <c r="E35" s="3">
-        <v>4010200</v>
+        <v>4056200</v>
       </c>
       <c r="F35" s="3">
-        <v>3921900</v>
+        <v>3966900</v>
       </c>
       <c r="G35" s="3">
-        <v>3403600</v>
+        <v>3442600</v>
       </c>
       <c r="H35" s="3">
-        <v>3236900</v>
+        <v>3274000</v>
       </c>
       <c r="I35" s="3">
-        <v>3163900</v>
+        <v>3200100</v>
       </c>
       <c r="J35" s="3">
-        <v>3052000</v>
+        <v>3087000</v>
       </c>
       <c r="K35" s="3">
         <v>2936700</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>37143500</v>
+        <v>37569500</v>
       </c>
       <c r="E41" s="3">
-        <v>64147700</v>
+        <v>64883500</v>
       </c>
       <c r="F41" s="3">
-        <v>49621500</v>
+        <v>50190700</v>
       </c>
       <c r="G41" s="3">
-        <v>48181600</v>
+        <v>48734200</v>
       </c>
       <c r="H41" s="3">
-        <v>30668100</v>
+        <v>31019900</v>
       </c>
       <c r="I41" s="3">
-        <v>21604300</v>
+        <v>21852100</v>
       </c>
       <c r="J41" s="3">
-        <v>39712200</v>
+        <v>40167700</v>
       </c>
       <c r="K41" s="3">
         <v>14840300</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>181218000</v>
+        <v>183297000</v>
       </c>
       <c r="E42" s="3">
-        <v>177187000</v>
+        <v>179220000</v>
       </c>
       <c r="F42" s="3">
-        <v>184666000</v>
+        <v>186784000</v>
       </c>
       <c r="G42" s="3">
-        <v>119074000</v>
+        <v>120440000</v>
       </c>
       <c r="H42" s="3">
-        <v>142450000</v>
+        <v>144084000</v>
       </c>
       <c r="I42" s="3">
-        <v>135724000</v>
+        <v>137281000</v>
       </c>
       <c r="J42" s="3">
-        <v>116168000</v>
+        <v>117501000</v>
       </c>
       <c r="K42" s="3">
         <v>56894900</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1564000</v>
+        <v>1582000</v>
       </c>
       <c r="E48" s="3">
-        <v>3023000</v>
+        <v>3057700</v>
       </c>
       <c r="F48" s="3">
-        <v>3094600</v>
+        <v>3130100</v>
       </c>
       <c r="G48" s="3">
-        <v>3268100</v>
+        <v>3305600</v>
       </c>
       <c r="H48" s="3">
-        <v>1739100</v>
+        <v>1759000</v>
       </c>
       <c r="I48" s="3">
-        <v>1732200</v>
+        <v>1752100</v>
       </c>
       <c r="J48" s="3">
-        <v>3300100</v>
+        <v>3337900</v>
       </c>
       <c r="K48" s="3">
         <v>1577700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6670200</v>
+        <v>6746700</v>
       </c>
       <c r="E49" s="3">
-        <v>8308800</v>
+        <v>8404100</v>
       </c>
       <c r="F49" s="3">
-        <v>8859100</v>
+        <v>8960700</v>
       </c>
       <c r="G49" s="3">
-        <v>8171800</v>
+        <v>8265600</v>
       </c>
       <c r="H49" s="3">
-        <v>6299500</v>
+        <v>6371800</v>
       </c>
       <c r="I49" s="3">
-        <v>5635900</v>
+        <v>5700500</v>
       </c>
       <c r="J49" s="3">
-        <v>5206600</v>
+        <v>5266300</v>
       </c>
       <c r="K49" s="3">
         <v>3921200</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1370000</v>
+        <v>1385700</v>
       </c>
       <c r="E52" s="3">
-        <v>2057200</v>
+        <v>2080800</v>
       </c>
       <c r="F52" s="3">
-        <v>2567200</v>
+        <v>2596600</v>
       </c>
       <c r="G52" s="3">
-        <v>2449900</v>
+        <v>2478100</v>
       </c>
       <c r="H52" s="3">
-        <v>2788600</v>
+        <v>2820600</v>
       </c>
       <c r="I52" s="3">
-        <v>2496400</v>
+        <v>2525000</v>
       </c>
       <c r="J52" s="3">
-        <v>2449900</v>
+        <v>2478100</v>
       </c>
       <c r="K52" s="3">
         <v>3503000</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>648597000</v>
+        <v>656037000</v>
       </c>
       <c r="E54" s="3">
-        <v>588546000</v>
+        <v>595296000</v>
       </c>
       <c r="F54" s="3">
-        <v>540054000</v>
+        <v>546249000</v>
       </c>
       <c r="G54" s="3">
-        <v>523580000</v>
+        <v>529586000</v>
       </c>
       <c r="H54" s="3">
-        <v>488529000</v>
+        <v>494133000</v>
       </c>
       <c r="I54" s="3">
-        <v>448023000</v>
+        <v>453162000</v>
       </c>
       <c r="J54" s="3">
-        <v>408739000</v>
+        <v>413427000</v>
       </c>
       <c r="K54" s="3">
         <v>391044000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8232700</v>
+        <v>8327100</v>
       </c>
       <c r="E57" s="3">
-        <v>7649000</v>
+        <v>7736700</v>
       </c>
       <c r="F57" s="3">
-        <v>7664900</v>
+        <v>7752900</v>
       </c>
       <c r="G57" s="3">
-        <v>7633700</v>
+        <v>7721300</v>
       </c>
       <c r="H57" s="3">
-        <v>6657300</v>
+        <v>6733600</v>
       </c>
       <c r="I57" s="3">
-        <v>5870300</v>
+        <v>5937600</v>
       </c>
       <c r="J57" s="3">
-        <v>5774400</v>
+        <v>5840600</v>
       </c>
       <c r="K57" s="3">
         <v>6660700</v>
@@ -2177,16 +2177,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>89557500</v>
+        <v>90584700</v>
       </c>
       <c r="E58" s="3">
-        <v>75493300</v>
+        <v>76359200</v>
       </c>
       <c r="F58" s="3">
-        <v>63874500</v>
+        <v>64607100</v>
       </c>
       <c r="G58" s="3">
-        <v>53143100</v>
+        <v>53752700</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>5</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1330400</v>
+        <v>1345600</v>
       </c>
       <c r="E59" s="3">
-        <v>1092200</v>
+        <v>1104700</v>
       </c>
       <c r="F59" s="3">
-        <v>884400</v>
+        <v>894500</v>
       </c>
       <c r="G59" s="3">
-        <v>850900</v>
+        <v>860700</v>
       </c>
       <c r="H59" s="3">
-        <v>815100</v>
+        <v>824500</v>
       </c>
       <c r="I59" s="3">
-        <v>978000</v>
+        <v>989200</v>
       </c>
       <c r="J59" s="3">
-        <v>1000800</v>
+        <v>1012300</v>
       </c>
       <c r="K59" s="3">
         <v>727100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>22370700</v>
+        <v>22627300</v>
       </c>
       <c r="E61" s="3">
-        <v>21409500</v>
+        <v>21655000</v>
       </c>
       <c r="F61" s="3">
-        <v>18601000</v>
+        <v>18814400</v>
       </c>
       <c r="G61" s="3">
-        <v>17364300</v>
+        <v>17563400</v>
       </c>
       <c r="H61" s="3">
-        <v>19856100</v>
+        <v>20083800</v>
       </c>
       <c r="I61" s="3">
-        <v>20837100</v>
+        <v>21076100</v>
       </c>
       <c r="J61" s="3">
-        <v>20060000</v>
+        <v>20290100</v>
       </c>
       <c r="K61" s="3">
         <v>3046100</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1152300</v>
+        <v>1165500</v>
       </c>
       <c r="E62" s="3">
-        <v>981800</v>
+        <v>993100</v>
       </c>
       <c r="F62" s="3">
-        <v>1446100</v>
+        <v>1462700</v>
       </c>
       <c r="G62" s="3">
-        <v>1552600</v>
+        <v>1570400</v>
       </c>
       <c r="H62" s="3">
-        <v>1385900</v>
+        <v>1401800</v>
       </c>
       <c r="I62" s="3">
-        <v>1226100</v>
+        <v>1240200</v>
       </c>
       <c r="J62" s="3">
-        <v>983300</v>
+        <v>994600</v>
       </c>
       <c r="K62" s="3">
         <v>1239100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>609724000</v>
+        <v>616717000</v>
       </c>
       <c r="E66" s="3">
-        <v>553748000</v>
+        <v>560100000</v>
       </c>
       <c r="F66" s="3">
-        <v>506297000</v>
+        <v>512104000</v>
       </c>
       <c r="G66" s="3">
-        <v>491383000</v>
+        <v>497020000</v>
       </c>
       <c r="H66" s="3">
-        <v>458526000</v>
+        <v>463785000</v>
       </c>
       <c r="I66" s="3">
-        <v>421907000</v>
+        <v>426747000</v>
       </c>
       <c r="J66" s="3">
-        <v>385825000</v>
+        <v>390250000</v>
       </c>
       <c r="K66" s="3">
         <v>369719000</v>
@@ -2555,25 +2555,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3569500</v>
+        <v>3610500</v>
       </c>
       <c r="E70" s="3">
-        <v>3303100</v>
+        <v>3341000</v>
       </c>
       <c r="F70" s="3">
-        <v>3227000</v>
+        <v>3264000</v>
       </c>
       <c r="G70" s="3">
-        <v>2922600</v>
+        <v>2956100</v>
       </c>
       <c r="H70" s="3">
-        <v>2465900</v>
+        <v>2494200</v>
       </c>
       <c r="I70" s="3">
-        <v>2313700</v>
+        <v>2340300</v>
       </c>
       <c r="J70" s="3">
-        <v>1723900</v>
+        <v>1743600</v>
       </c>
       <c r="K70" s="3">
         <v>1834500</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21862300</v>
+        <v>22113100</v>
       </c>
       <c r="E72" s="3">
-        <v>19674200</v>
+        <v>19899800</v>
       </c>
       <c r="F72" s="3">
-        <v>18044700</v>
+        <v>18251700</v>
       </c>
       <c r="G72" s="3">
-        <v>16138900</v>
+        <v>16324000</v>
       </c>
       <c r="H72" s="3">
-        <v>14407400</v>
+        <v>14572700</v>
       </c>
       <c r="I72" s="3">
-        <v>13118900</v>
+        <v>13269400</v>
       </c>
       <c r="J72" s="3">
-        <v>11482600</v>
+        <v>11614300</v>
       </c>
       <c r="K72" s="3">
         <v>10076600</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>35303900</v>
+        <v>35708800</v>
       </c>
       <c r="E76" s="3">
-        <v>31494700</v>
+        <v>31855900</v>
       </c>
       <c r="F76" s="3">
-        <v>30530400</v>
+        <v>30880600</v>
       </c>
       <c r="G76" s="3">
-        <v>29274600</v>
+        <v>29610400</v>
       </c>
       <c r="H76" s="3">
-        <v>27537800</v>
+        <v>27853600</v>
       </c>
       <c r="I76" s="3">
-        <v>23801600</v>
+        <v>24074500</v>
       </c>
       <c r="J76" s="3">
-        <v>21190200</v>
+        <v>21433400</v>
       </c>
       <c r="K76" s="3">
         <v>19490800</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4221800</v>
+        <v>4270200</v>
       </c>
       <c r="E81" s="3">
-        <v>4010200</v>
+        <v>4056200</v>
       </c>
       <c r="F81" s="3">
-        <v>3921900</v>
+        <v>3966900</v>
       </c>
       <c r="G81" s="3">
-        <v>3403600</v>
+        <v>3442600</v>
       </c>
       <c r="H81" s="3">
-        <v>3236900</v>
+        <v>3274000</v>
       </c>
       <c r="I81" s="3">
-        <v>3163900</v>
+        <v>3200100</v>
       </c>
       <c r="J81" s="3">
-        <v>3052000</v>
+        <v>3087000</v>
       </c>
       <c r="K81" s="3">
         <v>2936700</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>752700</v>
+        <v>761400</v>
       </c>
       <c r="E83" s="3">
-        <v>687300</v>
+        <v>695100</v>
       </c>
       <c r="F83" s="3">
-        <v>666700</v>
+        <v>674400</v>
       </c>
       <c r="G83" s="3">
-        <v>630200</v>
+        <v>637400</v>
       </c>
       <c r="H83" s="3">
-        <v>600500</v>
+        <v>607400</v>
       </c>
       <c r="I83" s="3">
-        <v>568500</v>
+        <v>575100</v>
       </c>
       <c r="J83" s="3">
-        <v>528200</v>
+        <v>534300</v>
       </c>
       <c r="K83" s="3">
         <v>507600</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>22302200</v>
+        <v>22558000</v>
       </c>
       <c r="E89" s="3">
-        <v>13632600</v>
+        <v>13789000</v>
       </c>
       <c r="F89" s="3">
-        <v>2213200</v>
+        <v>2238600</v>
       </c>
       <c r="G89" s="3">
-        <v>-2076300</v>
+        <v>-2100100</v>
       </c>
       <c r="H89" s="3">
-        <v>1775600</v>
+        <v>1796000</v>
       </c>
       <c r="I89" s="3">
-        <v>-2227700</v>
+        <v>-2253300</v>
       </c>
       <c r="J89" s="3">
-        <v>8709900</v>
+        <v>8809800</v>
       </c>
       <c r="K89" s="3">
         <v>7636300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-363800</v>
+        <v>-368000</v>
       </c>
       <c r="E91" s="3">
-        <v>-251200</v>
+        <v>-254000</v>
       </c>
       <c r="F91" s="3">
-        <v>-229100</v>
+        <v>-231700</v>
       </c>
       <c r="G91" s="3">
-        <v>-170500</v>
+        <v>-172400</v>
       </c>
       <c r="H91" s="3">
-        <v>-136200</v>
+        <v>-137800</v>
       </c>
       <c r="I91" s="3">
-        <v>-270200</v>
+        <v>-273300</v>
       </c>
       <c r="J91" s="3">
-        <v>-274800</v>
+        <v>-277900</v>
       </c>
       <c r="K91" s="3">
         <v>-272400</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-14902100</v>
+        <v>-15073100</v>
       </c>
       <c r="E94" s="3">
-        <v>-8625400</v>
+        <v>-8724400</v>
       </c>
       <c r="F94" s="3">
-        <v>-2401200</v>
+        <v>-2428800</v>
       </c>
       <c r="G94" s="3">
-        <v>-11669000</v>
+        <v>-11802900</v>
       </c>
       <c r="H94" s="3">
-        <v>3064100</v>
+        <v>3099300</v>
       </c>
       <c r="I94" s="3">
-        <v>2506300</v>
+        <v>2535000</v>
       </c>
       <c r="J94" s="3">
-        <v>-1459800</v>
+        <v>-1476500</v>
       </c>
       <c r="K94" s="3">
         <v>-5545900</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2094500</v>
+        <v>-2118500</v>
       </c>
       <c r="E96" s="3">
-        <v>-1965100</v>
+        <v>-1987700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1529800</v>
+        <v>-1547300</v>
       </c>
       <c r="G96" s="3">
-        <v>-1688900</v>
+        <v>-1708200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1624900</v>
+        <v>-1643600</v>
       </c>
       <c r="I96" s="3">
-        <v>-1408800</v>
+        <v>-1424900</v>
       </c>
       <c r="J96" s="3">
-        <v>-1443000</v>
+        <v>-1459600</v>
       </c>
       <c r="K96" s="3">
         <v>-1056000</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1988000</v>
+        <v>-2010800</v>
       </c>
       <c r="E100" s="3">
-        <v>2083100</v>
+        <v>2107000</v>
       </c>
       <c r="F100" s="3">
-        <v>1519100</v>
+        <v>1536600</v>
       </c>
       <c r="G100" s="3">
-        <v>6123700</v>
+        <v>6194000</v>
       </c>
       <c r="H100" s="3">
-        <v>50200</v>
+        <v>50800</v>
       </c>
       <c r="I100" s="3">
-        <v>-353900</v>
+        <v>-358000</v>
       </c>
       <c r="J100" s="3">
-        <v>-3677600</v>
+        <v>-3719800</v>
       </c>
       <c r="K100" s="3">
         <v>-1513700</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-342500</v>
+        <v>-346400</v>
       </c>
       <c r="E101" s="3">
-        <v>172800</v>
+        <v>174700</v>
       </c>
       <c r="F101" s="3">
-        <v>-611200</v>
+        <v>-618200</v>
       </c>
       <c r="G101" s="3">
-        <v>1044200</v>
+        <v>1056200</v>
       </c>
       <c r="H101" s="3">
-        <v>4173800</v>
+        <v>4221700</v>
       </c>
       <c r="I101" s="3">
-        <v>1823600</v>
+        <v>1844500</v>
       </c>
       <c r="J101" s="3">
-        <v>1126400</v>
+        <v>1139300</v>
       </c>
       <c r="K101" s="3">
         <v>-363900</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5069600</v>
+        <v>5127800</v>
       </c>
       <c r="E102" s="3">
-        <v>7263100</v>
+        <v>7346400</v>
       </c>
       <c r="F102" s="3">
-        <v>720000</v>
+        <v>728200</v>
       </c>
       <c r="G102" s="3">
-        <v>-6577300</v>
+        <v>-6652800</v>
       </c>
       <c r="H102" s="3">
-        <v>9063800</v>
+        <v>9167800</v>
       </c>
       <c r="I102" s="3">
-        <v>1748200</v>
+        <v>1768300</v>
       </c>
       <c r="J102" s="3">
-        <v>4699000</v>
+        <v>4752900</v>
       </c>
       <c r="K102" s="3">
         <v>212800</v>

--- a/AAII_Financials/Yearly/BMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BMO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>BMO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,93 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43404</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43039</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42674</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42308</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41943</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41578</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41213</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40847</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20132300</v>
+        <v>18489300</v>
       </c>
       <c r="E8" s="3">
-        <v>16193200</v>
+        <v>20739100</v>
       </c>
       <c r="F8" s="3">
-        <v>13404900</v>
+        <v>16681200</v>
       </c>
       <c r="G8" s="3">
-        <v>11076200</v>
+        <v>13808900</v>
       </c>
       <c r="H8" s="3">
-        <v>10129300</v>
+        <v>11410000</v>
       </c>
       <c r="I8" s="3">
-        <v>9909100</v>
+        <v>10434600</v>
       </c>
       <c r="J8" s="3">
+        <v>10207800</v>
+      </c>
+      <c r="K8" s="3">
         <v>10211700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10252200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9621300</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -776,9 +782,12 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,9 +818,12 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,9 +906,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,42 +942,48 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-426500</v>
+        <v>-491700</v>
       </c>
       <c r="E15" s="3">
-        <v>-387200</v>
+        <v>-439300</v>
       </c>
       <c r="F15" s="3">
-        <v>-746700</v>
+        <v>-398900</v>
       </c>
       <c r="G15" s="3">
-        <v>-683600</v>
+        <v>-769200</v>
       </c>
       <c r="H15" s="3">
-        <v>-316400</v>
+        <v>-704200</v>
       </c>
       <c r="I15" s="3">
-        <v>-588100</v>
+        <v>-325900</v>
       </c>
       <c r="J15" s="3">
+        <v>-605900</v>
+      </c>
+      <c r="K15" s="3">
         <v>-266400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-246300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-177500</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10882200</v>
+        <v>8544800</v>
       </c>
       <c r="E17" s="3">
-        <v>7897600</v>
+        <v>11210100</v>
       </c>
       <c r="F17" s="3">
-        <v>5299400</v>
+        <v>8135600</v>
       </c>
       <c r="G17" s="3">
-        <v>4070000</v>
+        <v>5459100</v>
       </c>
       <c r="H17" s="3">
-        <v>3854500</v>
+        <v>4192700</v>
       </c>
       <c r="I17" s="3">
-        <v>3957600</v>
+        <v>3970700</v>
       </c>
       <c r="J17" s="3">
+        <v>4076900</v>
+      </c>
+      <c r="K17" s="3">
         <v>3983800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4169800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4810700</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9250200</v>
+        <v>9944500</v>
       </c>
       <c r="E18" s="3">
-        <v>8295600</v>
+        <v>9528900</v>
       </c>
       <c r="F18" s="3">
-        <v>8105400</v>
+        <v>8545600</v>
       </c>
       <c r="G18" s="3">
-        <v>7006100</v>
+        <v>8349700</v>
       </c>
       <c r="H18" s="3">
-        <v>6274800</v>
+        <v>7217300</v>
       </c>
       <c r="I18" s="3">
-        <v>5951500</v>
+        <v>6463900</v>
       </c>
       <c r="J18" s="3">
+        <v>6130800</v>
+      </c>
+      <c r="K18" s="3">
         <v>6227800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6082400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4810700</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,74 +1082,81 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3652000</v>
+        <v>-4910400</v>
       </c>
       <c r="E20" s="3">
-        <v>-2588100</v>
+        <v>-3762100</v>
       </c>
       <c r="F20" s="3">
-        <v>-3000800</v>
+        <v>-2666100</v>
       </c>
       <c r="G20" s="3">
-        <v>-2593500</v>
+        <v>-3091200</v>
       </c>
       <c r="H20" s="3">
-        <v>-2163200</v>
+        <v>-2671700</v>
       </c>
       <c r="I20" s="3">
-        <v>-1920700</v>
+        <v>-2228400</v>
       </c>
       <c r="J20" s="3">
+        <v>-1978600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2186300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2339100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1745400</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6358100</v>
+        <v>6164100</v>
       </c>
       <c r="E21" s="3">
-        <v>6401400</v>
+        <v>6553300</v>
       </c>
       <c r="F21" s="3">
-        <v>5777800</v>
+        <v>6597500</v>
       </c>
       <c r="G21" s="3">
-        <v>5048900</v>
+        <v>5955100</v>
       </c>
       <c r="H21" s="3">
-        <v>4717900</v>
+        <v>5204000</v>
       </c>
       <c r="I21" s="3">
-        <v>4604800</v>
+        <v>4863000</v>
       </c>
       <c r="J21" s="3">
+        <v>4746300</v>
+      </c>
+      <c r="K21" s="3">
         <v>4574900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4252000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3480500</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1148,75 +1187,84 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5598100</v>
+        <v>5034100</v>
       </c>
       <c r="E23" s="3">
-        <v>5707400</v>
+        <v>5766800</v>
       </c>
       <c r="F23" s="3">
-        <v>5104700</v>
+        <v>5879500</v>
       </c>
       <c r="G23" s="3">
-        <v>4412600</v>
+        <v>5258500</v>
       </c>
       <c r="H23" s="3">
-        <v>4111600</v>
+        <v>4545600</v>
       </c>
       <c r="I23" s="3">
-        <v>4030800</v>
+        <v>4235500</v>
       </c>
       <c r="J23" s="3">
+        <v>4152300</v>
+      </c>
+      <c r="K23" s="3">
         <v>4041600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3743400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3065200</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1165500</v>
+        <v>992100</v>
       </c>
       <c r="E24" s="3">
-        <v>1182400</v>
+        <v>1200600</v>
       </c>
       <c r="F24" s="3">
-        <v>994600</v>
+        <v>1218100</v>
       </c>
       <c r="G24" s="3">
-        <v>847600</v>
+        <v>1024600</v>
       </c>
       <c r="H24" s="3">
-        <v>720600</v>
+        <v>873100</v>
       </c>
       <c r="I24" s="3">
-        <v>695100</v>
+        <v>742300</v>
       </c>
       <c r="J24" s="3">
+        <v>716100</v>
+      </c>
+      <c r="K24" s="3">
         <v>812200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>650400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>673000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4432600</v>
+        <v>4042000</v>
       </c>
       <c r="E26" s="3">
-        <v>4525000</v>
+        <v>4566200</v>
       </c>
       <c r="F26" s="3">
-        <v>4110100</v>
+        <v>4661400</v>
       </c>
       <c r="G26" s="3">
-        <v>3565000</v>
+        <v>4233900</v>
       </c>
       <c r="H26" s="3">
-        <v>3391100</v>
+        <v>3672500</v>
       </c>
       <c r="I26" s="3">
-        <v>3335600</v>
+        <v>3493300</v>
       </c>
       <c r="J26" s="3">
+        <v>3436200</v>
+      </c>
+      <c r="K26" s="3">
         <v>3229400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3092900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2392300</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4270200</v>
+        <v>3846100</v>
       </c>
       <c r="E27" s="3">
-        <v>4383400</v>
+        <v>4398900</v>
       </c>
       <c r="F27" s="3">
-        <v>3966900</v>
+        <v>4515500</v>
       </c>
       <c r="G27" s="3">
-        <v>3442600</v>
+        <v>4086400</v>
       </c>
       <c r="H27" s="3">
-        <v>3274000</v>
+        <v>3546400</v>
       </c>
       <c r="I27" s="3">
-        <v>3200100</v>
+        <v>3372700</v>
       </c>
       <c r="J27" s="3">
+        <v>3296600</v>
+      </c>
+      <c r="K27" s="3">
         <v>3087000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2936700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2209400</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,20 +1403,23 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3">
-        <v>-327200</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-337000</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
@@ -1376,12 +1436,15 @@
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3652000</v>
+        <v>4910400</v>
       </c>
       <c r="E32" s="3">
-        <v>2588100</v>
+        <v>3762100</v>
       </c>
       <c r="F32" s="3">
-        <v>3000800</v>
+        <v>2666100</v>
       </c>
       <c r="G32" s="3">
-        <v>2593500</v>
+        <v>3091200</v>
       </c>
       <c r="H32" s="3">
-        <v>2163200</v>
+        <v>2671700</v>
       </c>
       <c r="I32" s="3">
-        <v>1920700</v>
+        <v>2228400</v>
       </c>
       <c r="J32" s="3">
+        <v>1978600</v>
+      </c>
+      <c r="K32" s="3">
         <v>2186300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2339100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1745400</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4270200</v>
+        <v>3846100</v>
       </c>
       <c r="E33" s="3">
-        <v>4056200</v>
+        <v>4398900</v>
       </c>
       <c r="F33" s="3">
-        <v>3966900</v>
+        <v>4178400</v>
       </c>
       <c r="G33" s="3">
-        <v>3442600</v>
+        <v>4086400</v>
       </c>
       <c r="H33" s="3">
-        <v>3274000</v>
+        <v>3546400</v>
       </c>
       <c r="I33" s="3">
-        <v>3200100</v>
+        <v>3372700</v>
       </c>
       <c r="J33" s="3">
+        <v>3296600</v>
+      </c>
+      <c r="K33" s="3">
         <v>3087000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2936700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2209400</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4270200</v>
+        <v>3846100</v>
       </c>
       <c r="E35" s="3">
-        <v>4056200</v>
+        <v>4398900</v>
       </c>
       <c r="F35" s="3">
-        <v>3966900</v>
+        <v>4178400</v>
       </c>
       <c r="G35" s="3">
-        <v>3442600</v>
+        <v>4086400</v>
       </c>
       <c r="H35" s="3">
-        <v>3274000</v>
+        <v>3546400</v>
       </c>
       <c r="I35" s="3">
-        <v>3200100</v>
+        <v>3372700</v>
       </c>
       <c r="J35" s="3">
+        <v>3296600</v>
+      </c>
+      <c r="K35" s="3">
         <v>3087000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2936700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2209400</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43404</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43039</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42674</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42308</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41943</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41578</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41213</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40847</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,74 +1731,81 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>37569500</v>
+        <v>45525700</v>
       </c>
       <c r="E41" s="3">
-        <v>64883500</v>
+        <v>38701800</v>
       </c>
       <c r="F41" s="3">
-        <v>50190700</v>
+        <v>66838900</v>
       </c>
       <c r="G41" s="3">
-        <v>48734200</v>
+        <v>51703300</v>
       </c>
       <c r="H41" s="3">
-        <v>31019900</v>
+        <v>50202900</v>
       </c>
       <c r="I41" s="3">
-        <v>21852100</v>
+        <v>31954700</v>
       </c>
       <c r="J41" s="3">
+        <v>22510700</v>
+      </c>
+      <c r="K41" s="3">
         <v>40167700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14840300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15115700</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>183297000</v>
+        <v>219238000</v>
       </c>
       <c r="E42" s="3">
-        <v>179220000</v>
+        <v>188820000</v>
       </c>
       <c r="F42" s="3">
-        <v>186784000</v>
+        <v>184621000</v>
       </c>
       <c r="G42" s="3">
-        <v>120440000</v>
+        <v>192413000</v>
       </c>
       <c r="H42" s="3">
-        <v>144084000</v>
+        <v>124070000</v>
       </c>
       <c r="I42" s="3">
-        <v>137281000</v>
+        <v>118103000</v>
       </c>
       <c r="J42" s="3">
+        <v>141419000</v>
+      </c>
+      <c r="K42" s="3">
         <v>117501000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>56894900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>58312500</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1744,9 +1836,12 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1777,9 +1872,12 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1810,9 +1908,12 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1843,9 +1944,12 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1876,75 +1980,84 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1582000</v>
+        <v>3317200</v>
       </c>
       <c r="E48" s="3">
-        <v>3057700</v>
+        <v>1629700</v>
       </c>
       <c r="F48" s="3">
-        <v>3130100</v>
+        <v>3149900</v>
       </c>
       <c r="G48" s="3">
-        <v>3305600</v>
+        <v>3224400</v>
       </c>
       <c r="H48" s="3">
-        <v>1759000</v>
+        <v>3405200</v>
       </c>
       <c r="I48" s="3">
-        <v>1752100</v>
+        <v>1812100</v>
       </c>
       <c r="J48" s="3">
+        <v>1804900</v>
+      </c>
+      <c r="K48" s="3">
         <v>3337900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1577700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1583300</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6746700</v>
+        <v>7118900</v>
       </c>
       <c r="E49" s="3">
-        <v>8404100</v>
+        <v>6950000</v>
       </c>
       <c r="F49" s="3">
-        <v>8960700</v>
+        <v>8657400</v>
       </c>
       <c r="G49" s="3">
-        <v>8265600</v>
+        <v>9230800</v>
       </c>
       <c r="H49" s="3">
-        <v>6371800</v>
+        <v>8514700</v>
       </c>
       <c r="I49" s="3">
-        <v>5700500</v>
+        <v>6563800</v>
       </c>
       <c r="J49" s="3">
+        <v>5872300</v>
+      </c>
+      <c r="K49" s="3">
         <v>5266300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3921200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4003200</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1385700</v>
+        <v>1296600</v>
       </c>
       <c r="E52" s="3">
-        <v>2080800</v>
+        <v>1427400</v>
       </c>
       <c r="F52" s="3">
-        <v>2596600</v>
+        <v>2143500</v>
       </c>
       <c r="G52" s="3">
+        <v>2674900</v>
+      </c>
+      <c r="H52" s="3">
+        <v>2552700</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2905600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2601100</v>
+      </c>
+      <c r="K52" s="3">
         <v>2478100</v>
       </c>
-      <c r="H52" s="3">
-        <v>2820600</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2525000</v>
-      </c>
-      <c r="J52" s="3">
-        <v>2478100</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3503000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3906400</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>656037000</v>
+        <v>752783000</v>
       </c>
       <c r="E54" s="3">
-        <v>595296000</v>
+        <v>675808000</v>
       </c>
       <c r="F54" s="3">
-        <v>546249000</v>
+        <v>613237000</v>
       </c>
       <c r="G54" s="3">
-        <v>529586000</v>
+        <v>562711000</v>
       </c>
       <c r="H54" s="3">
-        <v>494133000</v>
+        <v>545546000</v>
       </c>
       <c r="I54" s="3">
-        <v>453162000</v>
+        <v>509025000</v>
       </c>
       <c r="J54" s="3">
+        <v>466818000</v>
+      </c>
+      <c r="K54" s="3">
         <v>413427000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>391044000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>384557000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,58 +2267,62 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8327100</v>
+        <v>9268800</v>
       </c>
       <c r="E57" s="3">
-        <v>7736700</v>
+        <v>8578100</v>
       </c>
       <c r="F57" s="3">
-        <v>7752900</v>
+        <v>7969900</v>
       </c>
       <c r="G57" s="3">
-        <v>7721300</v>
+        <v>7986500</v>
       </c>
       <c r="H57" s="3">
-        <v>6733600</v>
+        <v>7954000</v>
       </c>
       <c r="I57" s="3">
-        <v>5937600</v>
+        <v>6936500</v>
       </c>
       <c r="J57" s="3">
+        <v>6116600</v>
+      </c>
+      <c r="K57" s="3">
         <v>5840600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6660700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5440600</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>90584700</v>
+        <v>98002200</v>
       </c>
       <c r="E58" s="3">
-        <v>76359200</v>
+        <v>93314700</v>
       </c>
       <c r="F58" s="3">
-        <v>64607100</v>
+        <v>78660400</v>
       </c>
       <c r="G58" s="3">
-        <v>53752700</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
+        <v>66554200</v>
+      </c>
+      <c r="H58" s="3">
+        <v>55372600</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
@@ -2200,45 +2333,51 @@
       <c r="K58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1345600</v>
+        <v>1177600</v>
       </c>
       <c r="E59" s="3">
-        <v>1104700</v>
+        <v>1386200</v>
       </c>
       <c r="F59" s="3">
-        <v>894500</v>
+        <v>1138000</v>
       </c>
       <c r="G59" s="3">
-        <v>860700</v>
+        <v>921500</v>
       </c>
       <c r="H59" s="3">
-        <v>824500</v>
+        <v>886600</v>
       </c>
       <c r="I59" s="3">
-        <v>989200</v>
+        <v>849300</v>
       </c>
       <c r="J59" s="3">
+        <v>1019000</v>
+      </c>
+      <c r="K59" s="3">
         <v>1012300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>727100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1519600</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2269,75 +2408,84 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>22627300</v>
+        <v>25509100</v>
       </c>
       <c r="E61" s="3">
-        <v>21655000</v>
+        <v>23309200</v>
       </c>
       <c r="F61" s="3">
-        <v>18814400</v>
+        <v>22307700</v>
       </c>
       <c r="G61" s="3">
-        <v>17563400</v>
+        <v>19381400</v>
       </c>
       <c r="H61" s="3">
-        <v>20083800</v>
+        <v>18092800</v>
       </c>
       <c r="I61" s="3">
-        <v>21076100</v>
+        <v>20689100</v>
       </c>
       <c r="J61" s="3">
+        <v>21711300</v>
+      </c>
+      <c r="K61" s="3">
         <v>20290100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3046100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4108500</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1165500</v>
+        <v>1433800</v>
       </c>
       <c r="E62" s="3">
-        <v>993100</v>
+        <v>1200600</v>
       </c>
       <c r="F62" s="3">
-        <v>1462700</v>
+        <v>1023000</v>
       </c>
       <c r="G62" s="3">
-        <v>1570400</v>
+        <v>1506700</v>
       </c>
       <c r="H62" s="3">
-        <v>1401800</v>
+        <v>1617800</v>
       </c>
       <c r="I62" s="3">
-        <v>1240200</v>
+        <v>1444100</v>
       </c>
       <c r="J62" s="3">
+        <v>1277600</v>
+      </c>
+      <c r="K62" s="3">
         <v>994600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1239100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1634000</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>616717000</v>
+        <v>707904000</v>
       </c>
       <c r="E66" s="3">
-        <v>560100000</v>
+        <v>635303000</v>
       </c>
       <c r="F66" s="3">
-        <v>512104000</v>
+        <v>576979000</v>
       </c>
       <c r="G66" s="3">
-        <v>497020000</v>
+        <v>527538000</v>
       </c>
       <c r="H66" s="3">
-        <v>463785000</v>
+        <v>511998000</v>
       </c>
       <c r="I66" s="3">
-        <v>426747000</v>
+        <v>477762000</v>
       </c>
       <c r="J66" s="3">
+        <v>439608000</v>
+      </c>
+      <c r="K66" s="3">
         <v>390250000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>369719000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>364312000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,42 +2712,48 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3610500</v>
+        <v>3719300</v>
       </c>
       <c r="E70" s="3">
-        <v>3341000</v>
+        <v>3719300</v>
       </c>
       <c r="F70" s="3">
-        <v>3264000</v>
+        <v>3441700</v>
       </c>
       <c r="G70" s="3">
-        <v>2956100</v>
+        <v>3362400</v>
       </c>
       <c r="H70" s="3">
-        <v>2494200</v>
+        <v>3045200</v>
       </c>
       <c r="I70" s="3">
-        <v>2340300</v>
+        <v>2569400</v>
       </c>
       <c r="J70" s="3">
+        <v>2410800</v>
+      </c>
+      <c r="K70" s="3">
         <v>1743600</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1834500</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>2197900</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>22113100</v>
+        <v>24381400</v>
       </c>
       <c r="E72" s="3">
-        <v>19899800</v>
+        <v>22779500</v>
       </c>
       <c r="F72" s="3">
-        <v>18251700</v>
+        <v>20499600</v>
       </c>
       <c r="G72" s="3">
-        <v>16324000</v>
+        <v>18801700</v>
       </c>
       <c r="H72" s="3">
-        <v>14572700</v>
+        <v>16816000</v>
       </c>
       <c r="I72" s="3">
-        <v>13269400</v>
+        <v>15011900</v>
       </c>
       <c r="J72" s="3">
+        <v>13669300</v>
+      </c>
+      <c r="K72" s="3">
         <v>11614300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10076600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8743200</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>35708800</v>
+        <v>41160100</v>
       </c>
       <c r="E76" s="3">
-        <v>31855900</v>
+        <v>36785000</v>
       </c>
       <c r="F76" s="3">
-        <v>30880600</v>
+        <v>32816000</v>
       </c>
       <c r="G76" s="3">
-        <v>29610400</v>
+        <v>31811200</v>
       </c>
       <c r="H76" s="3">
-        <v>27853600</v>
+        <v>30502700</v>
       </c>
       <c r="I76" s="3">
-        <v>24074500</v>
+        <v>28693000</v>
       </c>
       <c r="J76" s="3">
+        <v>24800100</v>
+      </c>
+      <c r="K76" s="3">
         <v>21433400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19490800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18047300</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43404</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43039</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42674</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42308</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41943</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41578</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41213</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40847</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4270200</v>
+        <v>3846100</v>
       </c>
       <c r="E81" s="3">
-        <v>4056200</v>
+        <v>4398900</v>
       </c>
       <c r="F81" s="3">
-        <v>3966900</v>
+        <v>4178400</v>
       </c>
       <c r="G81" s="3">
-        <v>3442600</v>
+        <v>4086400</v>
       </c>
       <c r="H81" s="3">
-        <v>3274000</v>
+        <v>3546400</v>
       </c>
       <c r="I81" s="3">
-        <v>3200100</v>
+        <v>3372700</v>
       </c>
       <c r="J81" s="3">
+        <v>3296600</v>
+      </c>
+      <c r="K81" s="3">
         <v>3087000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2936700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2209400</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>761400</v>
+        <v>1126900</v>
       </c>
       <c r="E83" s="3">
-        <v>695100</v>
+        <v>784300</v>
       </c>
       <c r="F83" s="3">
-        <v>674400</v>
+        <v>716100</v>
       </c>
       <c r="G83" s="3">
-        <v>637400</v>
+        <v>694700</v>
       </c>
       <c r="H83" s="3">
-        <v>607400</v>
+        <v>656600</v>
       </c>
       <c r="I83" s="3">
-        <v>575100</v>
+        <v>625700</v>
       </c>
       <c r="J83" s="3">
+        <v>592400</v>
+      </c>
+      <c r="K83" s="3">
         <v>534300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>507600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>413300</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>22558000</v>
+        <v>40314000</v>
       </c>
       <c r="E89" s="3">
-        <v>13789000</v>
+        <v>23237900</v>
       </c>
       <c r="F89" s="3">
-        <v>2238600</v>
+        <v>14204600</v>
       </c>
       <c r="G89" s="3">
-        <v>-2100100</v>
+        <v>2306100</v>
       </c>
       <c r="H89" s="3">
-        <v>1796000</v>
+        <v>-2163400</v>
       </c>
       <c r="I89" s="3">
-        <v>-2253300</v>
+        <v>1850100</v>
       </c>
       <c r="J89" s="3">
+        <v>-2321200</v>
+      </c>
+      <c r="K89" s="3">
         <v>8809800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7636300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1241500</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-368000</v>
+        <v>-316400</v>
       </c>
       <c r="E91" s="3">
-        <v>-254000</v>
+        <v>-379100</v>
       </c>
       <c r="F91" s="3">
-        <v>-231700</v>
+        <v>-261700</v>
       </c>
       <c r="G91" s="3">
-        <v>-172400</v>
+        <v>-238700</v>
       </c>
       <c r="H91" s="3">
-        <v>-137800</v>
+        <v>-177600</v>
       </c>
       <c r="I91" s="3">
-        <v>-273300</v>
+        <v>-142000</v>
       </c>
       <c r="J91" s="3">
+        <v>-281500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-277900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-272400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-490900</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-15073100</v>
+        <v>-25356000</v>
       </c>
       <c r="E94" s="3">
-        <v>-8724400</v>
+        <v>-15527300</v>
       </c>
       <c r="F94" s="3">
-        <v>-2428800</v>
+        <v>-8987300</v>
       </c>
       <c r="G94" s="3">
-        <v>-11802900</v>
+        <v>-2502000</v>
       </c>
       <c r="H94" s="3">
-        <v>3099300</v>
+        <v>-12158600</v>
       </c>
       <c r="I94" s="3">
-        <v>2535000</v>
+        <v>3192700</v>
       </c>
       <c r="J94" s="3">
+        <v>2611400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1476500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5545900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>74500</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2118500</v>
+        <v>-1962700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1987700</v>
+        <v>-2182400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1547300</v>
+        <v>-2047600</v>
       </c>
       <c r="G96" s="3">
-        <v>-1708200</v>
+        <v>-1594000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1643600</v>
+        <v>-1759700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1424900</v>
+        <v>-1693100</v>
       </c>
       <c r="J96" s="3">
+        <v>-1467900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1459600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1056000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1277600</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2010800</v>
+        <v>-8171300</v>
       </c>
       <c r="E100" s="3">
-        <v>2107000</v>
+        <v>-2071400</v>
       </c>
       <c r="F100" s="3">
-        <v>1536600</v>
+        <v>2170500</v>
       </c>
       <c r="G100" s="3">
-        <v>6194000</v>
+        <v>1582900</v>
       </c>
       <c r="H100" s="3">
-        <v>50800</v>
+        <v>6380600</v>
       </c>
       <c r="I100" s="3">
-        <v>-358000</v>
+        <v>52300</v>
       </c>
       <c r="J100" s="3">
+        <v>-368800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3719800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1513700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-146700</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-346400</v>
+        <v>37300</v>
       </c>
       <c r="E101" s="3">
-        <v>174700</v>
+        <v>-356900</v>
       </c>
       <c r="F101" s="3">
-        <v>-618200</v>
+        <v>180000</v>
       </c>
       <c r="G101" s="3">
-        <v>1056200</v>
+        <v>-636800</v>
       </c>
       <c r="H101" s="3">
-        <v>4221700</v>
+        <v>1088000</v>
       </c>
       <c r="I101" s="3">
-        <v>1844500</v>
+        <v>4348900</v>
       </c>
       <c r="J101" s="3">
+        <v>1900100</v>
+      </c>
+      <c r="K101" s="3">
         <v>1139300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-363900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>533200</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5127800</v>
+        <v>6823900</v>
       </c>
       <c r="E102" s="3">
-        <v>7346400</v>
+        <v>5282300</v>
       </c>
       <c r="F102" s="3">
-        <v>728200</v>
+        <v>7567800</v>
       </c>
       <c r="G102" s="3">
-        <v>-6652800</v>
+        <v>750200</v>
       </c>
       <c r="H102" s="3">
-        <v>9167800</v>
+        <v>-6853300</v>
       </c>
       <c r="I102" s="3">
-        <v>1768300</v>
+        <v>9444100</v>
       </c>
       <c r="J102" s="3">
+        <v>1821600</v>
+      </c>
+      <c r="K102" s="3">
         <v>4752900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>212800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1702400</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BMO_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18489300</v>
+        <v>19329300</v>
       </c>
       <c r="E8" s="3">
-        <v>20739100</v>
+        <v>21681300</v>
       </c>
       <c r="F8" s="3">
-        <v>16681200</v>
+        <v>17439100</v>
       </c>
       <c r="G8" s="3">
-        <v>13808900</v>
+        <v>14436200</v>
       </c>
       <c r="H8" s="3">
-        <v>11410000</v>
+        <v>11928400</v>
       </c>
       <c r="I8" s="3">
-        <v>10434600</v>
+        <v>10908600</v>
       </c>
       <c r="J8" s="3">
-        <v>10207800</v>
+        <v>10671500</v>
       </c>
       <c r="K8" s="3">
         <v>10211700</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-491700</v>
+        <v>-514000</v>
       </c>
       <c r="E15" s="3">
-        <v>-439300</v>
+        <v>-459300</v>
       </c>
       <c r="F15" s="3">
-        <v>-398900</v>
+        <v>-417000</v>
       </c>
       <c r="G15" s="3">
-        <v>-769200</v>
+        <v>-804200</v>
       </c>
       <c r="H15" s="3">
-        <v>-704200</v>
+        <v>-736200</v>
       </c>
       <c r="I15" s="3">
-        <v>-325900</v>
+        <v>-340700</v>
       </c>
       <c r="J15" s="3">
-        <v>-605900</v>
+        <v>-633400</v>
       </c>
       <c r="K15" s="3">
         <v>-266400</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8544800</v>
+        <v>8933000</v>
       </c>
       <c r="E17" s="3">
-        <v>11210100</v>
+        <v>11719500</v>
       </c>
       <c r="F17" s="3">
-        <v>8135600</v>
+        <v>8505200</v>
       </c>
       <c r="G17" s="3">
-        <v>5459100</v>
+        <v>5707200</v>
       </c>
       <c r="H17" s="3">
-        <v>4192700</v>
+        <v>4383200</v>
       </c>
       <c r="I17" s="3">
-        <v>3970700</v>
+        <v>4151100</v>
       </c>
       <c r="J17" s="3">
-        <v>4076900</v>
+        <v>4262100</v>
       </c>
       <c r="K17" s="3">
         <v>3983800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9944500</v>
+        <v>10396300</v>
       </c>
       <c r="E18" s="3">
-        <v>9528900</v>
+        <v>9961900</v>
       </c>
       <c r="F18" s="3">
-        <v>8545600</v>
+        <v>8933800</v>
       </c>
       <c r="G18" s="3">
-        <v>8349700</v>
+        <v>8729100</v>
       </c>
       <c r="H18" s="3">
-        <v>7217300</v>
+        <v>7545200</v>
       </c>
       <c r="I18" s="3">
-        <v>6463900</v>
+        <v>6757600</v>
       </c>
       <c r="J18" s="3">
-        <v>6130800</v>
+        <v>6409400</v>
       </c>
       <c r="K18" s="3">
         <v>6227800</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4910400</v>
+        <v>-5133500</v>
       </c>
       <c r="E20" s="3">
-        <v>-3762100</v>
+        <v>-3933000</v>
       </c>
       <c r="F20" s="3">
-        <v>-2666100</v>
+        <v>-2787300</v>
       </c>
       <c r="G20" s="3">
-        <v>-3091200</v>
+        <v>-3231600</v>
       </c>
       <c r="H20" s="3">
-        <v>-2671700</v>
+        <v>-2793100</v>
       </c>
       <c r="I20" s="3">
-        <v>-2228400</v>
+        <v>-2329600</v>
       </c>
       <c r="J20" s="3">
-        <v>-1978600</v>
+        <v>-2068500</v>
       </c>
       <c r="K20" s="3">
         <v>-2186300</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6164100</v>
+        <v>6443100</v>
       </c>
       <c r="E21" s="3">
-        <v>6553300</v>
+        <v>6850300</v>
       </c>
       <c r="F21" s="3">
-        <v>6597500</v>
+        <v>6896600</v>
       </c>
       <c r="G21" s="3">
-        <v>5955100</v>
+        <v>6225100</v>
       </c>
       <c r="H21" s="3">
-        <v>5204000</v>
+        <v>5439900</v>
       </c>
       <c r="I21" s="3">
-        <v>4863000</v>
+        <v>5083300</v>
       </c>
       <c r="J21" s="3">
-        <v>4746300</v>
+        <v>4961400</v>
       </c>
       <c r="K21" s="3">
         <v>4574900</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5034100</v>
+        <v>5262800</v>
       </c>
       <c r="E23" s="3">
-        <v>5766800</v>
+        <v>6028900</v>
       </c>
       <c r="F23" s="3">
-        <v>5879500</v>
+        <v>6146600</v>
       </c>
       <c r="G23" s="3">
-        <v>5258500</v>
+        <v>5497400</v>
       </c>
       <c r="H23" s="3">
-        <v>4545600</v>
+        <v>4752100</v>
       </c>
       <c r="I23" s="3">
-        <v>4235500</v>
+        <v>4428000</v>
       </c>
       <c r="J23" s="3">
-        <v>4152300</v>
+        <v>4340900</v>
       </c>
       <c r="K23" s="3">
         <v>4041600</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>992100</v>
+        <v>1037100</v>
       </c>
       <c r="E24" s="3">
-        <v>1200600</v>
+        <v>1255200</v>
       </c>
       <c r="F24" s="3">
-        <v>1218100</v>
+        <v>1273400</v>
       </c>
       <c r="G24" s="3">
-        <v>1024600</v>
+        <v>1071100</v>
       </c>
       <c r="H24" s="3">
-        <v>873100</v>
+        <v>912800</v>
       </c>
       <c r="I24" s="3">
-        <v>742300</v>
+        <v>776000</v>
       </c>
       <c r="J24" s="3">
-        <v>716100</v>
+        <v>748600</v>
       </c>
       <c r="K24" s="3">
         <v>812200</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4042000</v>
+        <v>4225700</v>
       </c>
       <c r="E26" s="3">
-        <v>4566200</v>
+        <v>4773700</v>
       </c>
       <c r="F26" s="3">
-        <v>4661400</v>
+        <v>4873200</v>
       </c>
       <c r="G26" s="3">
-        <v>4233900</v>
+        <v>4426300</v>
       </c>
       <c r="H26" s="3">
-        <v>3672500</v>
+        <v>3839300</v>
       </c>
       <c r="I26" s="3">
-        <v>3493300</v>
+        <v>3652000</v>
       </c>
       <c r="J26" s="3">
-        <v>3436200</v>
+        <v>3592300</v>
       </c>
       <c r="K26" s="3">
         <v>3229400</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3846100</v>
+        <v>4020900</v>
       </c>
       <c r="E27" s="3">
-        <v>4398900</v>
+        <v>4598700</v>
       </c>
       <c r="F27" s="3">
-        <v>4515500</v>
+        <v>4720600</v>
       </c>
       <c r="G27" s="3">
-        <v>4086400</v>
+        <v>4272100</v>
       </c>
       <c r="H27" s="3">
-        <v>3546400</v>
+        <v>3707500</v>
       </c>
       <c r="I27" s="3">
-        <v>3372700</v>
+        <v>3525900</v>
       </c>
       <c r="J27" s="3">
-        <v>3296600</v>
+        <v>3446400</v>
       </c>
       <c r="K27" s="3">
         <v>3087000</v>
@@ -1419,7 +1419,7 @@
         <v>5</v>
       </c>
       <c r="F29" s="3">
-        <v>-337000</v>
+        <v>-352300</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4910400</v>
+        <v>5133500</v>
       </c>
       <c r="E32" s="3">
-        <v>3762100</v>
+        <v>3933000</v>
       </c>
       <c r="F32" s="3">
-        <v>2666100</v>
+        <v>2787300</v>
       </c>
       <c r="G32" s="3">
-        <v>3091200</v>
+        <v>3231600</v>
       </c>
       <c r="H32" s="3">
-        <v>2671700</v>
+        <v>2793100</v>
       </c>
       <c r="I32" s="3">
-        <v>2228400</v>
+        <v>2329600</v>
       </c>
       <c r="J32" s="3">
-        <v>1978600</v>
+        <v>2068500</v>
       </c>
       <c r="K32" s="3">
         <v>2186300</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3846100</v>
+        <v>4020900</v>
       </c>
       <c r="E33" s="3">
-        <v>4398900</v>
+        <v>4598700</v>
       </c>
       <c r="F33" s="3">
-        <v>4178400</v>
+        <v>4368300</v>
       </c>
       <c r="G33" s="3">
-        <v>4086400</v>
+        <v>4272100</v>
       </c>
       <c r="H33" s="3">
-        <v>3546400</v>
+        <v>3707500</v>
       </c>
       <c r="I33" s="3">
-        <v>3372700</v>
+        <v>3525900</v>
       </c>
       <c r="J33" s="3">
-        <v>3296600</v>
+        <v>3446400</v>
       </c>
       <c r="K33" s="3">
         <v>3087000</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3846100</v>
+        <v>4020900</v>
       </c>
       <c r="E35" s="3">
-        <v>4398900</v>
+        <v>4598700</v>
       </c>
       <c r="F35" s="3">
-        <v>4178400</v>
+        <v>4368300</v>
       </c>
       <c r="G35" s="3">
-        <v>4086400</v>
+        <v>4272100</v>
       </c>
       <c r="H35" s="3">
-        <v>3546400</v>
+        <v>3707500</v>
       </c>
       <c r="I35" s="3">
-        <v>3372700</v>
+        <v>3525900</v>
       </c>
       <c r="J35" s="3">
-        <v>3296600</v>
+        <v>3446400</v>
       </c>
       <c r="K35" s="3">
         <v>3087000</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>45525700</v>
+        <v>47594100</v>
       </c>
       <c r="E41" s="3">
-        <v>38701800</v>
+        <v>40460100</v>
       </c>
       <c r="F41" s="3">
-        <v>66838900</v>
+        <v>69875700</v>
       </c>
       <c r="G41" s="3">
-        <v>51703300</v>
+        <v>54052400</v>
       </c>
       <c r="H41" s="3">
-        <v>50202900</v>
+        <v>52483800</v>
       </c>
       <c r="I41" s="3">
-        <v>31954700</v>
+        <v>33406600</v>
       </c>
       <c r="J41" s="3">
-        <v>22510700</v>
+        <v>23533400</v>
       </c>
       <c r="K41" s="3">
         <v>40167700</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>219238000</v>
+        <v>229198000</v>
       </c>
       <c r="E42" s="3">
-        <v>188820000</v>
+        <v>197399000</v>
       </c>
       <c r="F42" s="3">
-        <v>184621000</v>
+        <v>193009000</v>
       </c>
       <c r="G42" s="3">
-        <v>192413000</v>
+        <v>201155000</v>
       </c>
       <c r="H42" s="3">
-        <v>124070000</v>
+        <v>129707000</v>
       </c>
       <c r="I42" s="3">
-        <v>118103000</v>
+        <v>123469000</v>
       </c>
       <c r="J42" s="3">
-        <v>141419000</v>
+        <v>147844000</v>
       </c>
       <c r="K42" s="3">
         <v>117501000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3317200</v>
+        <v>3467900</v>
       </c>
       <c r="E48" s="3">
-        <v>1629700</v>
+        <v>1703700</v>
       </c>
       <c r="F48" s="3">
-        <v>3149900</v>
+        <v>3293000</v>
       </c>
       <c r="G48" s="3">
-        <v>3224400</v>
+        <v>3370900</v>
       </c>
       <c r="H48" s="3">
-        <v>3405200</v>
+        <v>3559900</v>
       </c>
       <c r="I48" s="3">
-        <v>1812100</v>
+        <v>1894400</v>
       </c>
       <c r="J48" s="3">
-        <v>1804900</v>
+        <v>1886900</v>
       </c>
       <c r="K48" s="3">
         <v>3337900</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7118900</v>
+        <v>7442400</v>
       </c>
       <c r="E49" s="3">
-        <v>6950000</v>
+        <v>7265800</v>
       </c>
       <c r="F49" s="3">
-        <v>8657400</v>
+        <v>9050700</v>
       </c>
       <c r="G49" s="3">
-        <v>9230800</v>
+        <v>9650100</v>
       </c>
       <c r="H49" s="3">
-        <v>8514700</v>
+        <v>8901500</v>
       </c>
       <c r="I49" s="3">
-        <v>6563800</v>
+        <v>6862000</v>
       </c>
       <c r="J49" s="3">
-        <v>5872300</v>
+        <v>6139100</v>
       </c>
       <c r="K49" s="3">
         <v>5266300</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1296600</v>
+        <v>1355500</v>
       </c>
       <c r="E52" s="3">
-        <v>1427400</v>
+        <v>1492300</v>
       </c>
       <c r="F52" s="3">
-        <v>2143500</v>
+        <v>2240900</v>
       </c>
       <c r="G52" s="3">
-        <v>2674900</v>
+        <v>2796400</v>
       </c>
       <c r="H52" s="3">
-        <v>2552700</v>
+        <v>2668700</v>
       </c>
       <c r="I52" s="3">
-        <v>2905600</v>
+        <v>3037600</v>
       </c>
       <c r="J52" s="3">
-        <v>2601100</v>
+        <v>2719300</v>
       </c>
       <c r="K52" s="3">
         <v>2478100</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>752783000</v>
+        <v>786985000</v>
       </c>
       <c r="E54" s="3">
-        <v>675808000</v>
+        <v>706512000</v>
       </c>
       <c r="F54" s="3">
-        <v>613237000</v>
+        <v>641099000</v>
       </c>
       <c r="G54" s="3">
-        <v>562711000</v>
+        <v>588277000</v>
       </c>
       <c r="H54" s="3">
-        <v>545546000</v>
+        <v>570333000</v>
       </c>
       <c r="I54" s="3">
-        <v>509025000</v>
+        <v>532151000</v>
       </c>
       <c r="J54" s="3">
-        <v>466818000</v>
+        <v>488028000</v>
       </c>
       <c r="K54" s="3">
         <v>413427000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9268800</v>
+        <v>9689900</v>
       </c>
       <c r="E57" s="3">
-        <v>8578100</v>
+        <v>8967800</v>
       </c>
       <c r="F57" s="3">
-        <v>7969900</v>
+        <v>8332000</v>
       </c>
       <c r="G57" s="3">
-        <v>7986500</v>
+        <v>8349400</v>
       </c>
       <c r="H57" s="3">
-        <v>7954000</v>
+        <v>8315400</v>
       </c>
       <c r="I57" s="3">
-        <v>6936500</v>
+        <v>7251700</v>
       </c>
       <c r="J57" s="3">
-        <v>6116600</v>
+        <v>6394500</v>
       </c>
       <c r="K57" s="3">
         <v>5840600</v>
@@ -2310,19 +2310,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>98002200</v>
+        <v>102455000</v>
       </c>
       <c r="E58" s="3">
-        <v>93314700</v>
+        <v>97554300</v>
       </c>
       <c r="F58" s="3">
-        <v>78660400</v>
+        <v>82234300</v>
       </c>
       <c r="G58" s="3">
-        <v>66554200</v>
+        <v>69578000</v>
       </c>
       <c r="H58" s="3">
-        <v>55372600</v>
+        <v>57888400</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1177600</v>
+        <v>1231100</v>
       </c>
       <c r="E59" s="3">
-        <v>1386200</v>
+        <v>1449200</v>
       </c>
       <c r="F59" s="3">
-        <v>1138000</v>
+        <v>1189700</v>
       </c>
       <c r="G59" s="3">
-        <v>921500</v>
+        <v>963400</v>
       </c>
       <c r="H59" s="3">
-        <v>886600</v>
+        <v>926900</v>
       </c>
       <c r="I59" s="3">
-        <v>849300</v>
+        <v>887900</v>
       </c>
       <c r="J59" s="3">
-        <v>1019000</v>
+        <v>1065300</v>
       </c>
       <c r="K59" s="3">
         <v>1012300</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>25509100</v>
+        <v>26668100</v>
       </c>
       <c r="E61" s="3">
-        <v>23309200</v>
+        <v>24368300</v>
       </c>
       <c r="F61" s="3">
-        <v>22307700</v>
+        <v>23321200</v>
       </c>
       <c r="G61" s="3">
-        <v>19381400</v>
+        <v>20262000</v>
       </c>
       <c r="H61" s="3">
-        <v>18092800</v>
+        <v>18914800</v>
       </c>
       <c r="I61" s="3">
-        <v>20689100</v>
+        <v>21629100</v>
       </c>
       <c r="J61" s="3">
-        <v>21711300</v>
+        <v>22697700</v>
       </c>
       <c r="K61" s="3">
         <v>20290100</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1433800</v>
+        <v>1498900</v>
       </c>
       <c r="E62" s="3">
-        <v>1200600</v>
+        <v>1255200</v>
       </c>
       <c r="F62" s="3">
-        <v>1023000</v>
+        <v>1069500</v>
       </c>
       <c r="G62" s="3">
-        <v>1506700</v>
+        <v>1575200</v>
       </c>
       <c r="H62" s="3">
-        <v>1617800</v>
+        <v>1691300</v>
       </c>
       <c r="I62" s="3">
-        <v>1444100</v>
+        <v>1509700</v>
       </c>
       <c r="J62" s="3">
-        <v>1277600</v>
+        <v>1335600</v>
       </c>
       <c r="K62" s="3">
         <v>994600</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>707904000</v>
+        <v>740066000</v>
       </c>
       <c r="E66" s="3">
-        <v>635303000</v>
+        <v>664168000</v>
       </c>
       <c r="F66" s="3">
-        <v>576979000</v>
+        <v>603194000</v>
       </c>
       <c r="G66" s="3">
-        <v>527538000</v>
+        <v>551506000</v>
       </c>
       <c r="H66" s="3">
-        <v>511998000</v>
+        <v>535260000</v>
       </c>
       <c r="I66" s="3">
-        <v>477762000</v>
+        <v>499469000</v>
       </c>
       <c r="J66" s="3">
-        <v>439608000</v>
+        <v>459581000</v>
       </c>
       <c r="K66" s="3">
         <v>390250000</v>
@@ -2722,25 +2722,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3719300</v>
+        <v>3888200</v>
       </c>
       <c r="E70" s="3">
-        <v>3719300</v>
+        <v>3888200</v>
       </c>
       <c r="F70" s="3">
-        <v>3441700</v>
+        <v>3598100</v>
       </c>
       <c r="G70" s="3">
-        <v>3362400</v>
+        <v>3515200</v>
       </c>
       <c r="H70" s="3">
-        <v>3045200</v>
+        <v>3183600</v>
       </c>
       <c r="I70" s="3">
-        <v>2569400</v>
+        <v>2686100</v>
       </c>
       <c r="J70" s="3">
-        <v>2410800</v>
+        <v>2520300</v>
       </c>
       <c r="K70" s="3">
         <v>1743600</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>24381400</v>
+        <v>25489100</v>
       </c>
       <c r="E72" s="3">
-        <v>22779500</v>
+        <v>23814500</v>
       </c>
       <c r="F72" s="3">
-        <v>20499600</v>
+        <v>21430900</v>
       </c>
       <c r="G72" s="3">
-        <v>18801700</v>
+        <v>19655900</v>
       </c>
       <c r="H72" s="3">
-        <v>16816000</v>
+        <v>17580000</v>
       </c>
       <c r="I72" s="3">
-        <v>15011900</v>
+        <v>15693900</v>
       </c>
       <c r="J72" s="3">
-        <v>13669300</v>
+        <v>14290300</v>
       </c>
       <c r="K72" s="3">
         <v>11614300</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>41160100</v>
+        <v>43030200</v>
       </c>
       <c r="E76" s="3">
-        <v>36785000</v>
+        <v>38456400</v>
       </c>
       <c r="F76" s="3">
-        <v>32816000</v>
+        <v>34306900</v>
       </c>
       <c r="G76" s="3">
-        <v>31811200</v>
+        <v>33256500</v>
       </c>
       <c r="H76" s="3">
-        <v>30502700</v>
+        <v>31888500</v>
       </c>
       <c r="I76" s="3">
-        <v>28693000</v>
+        <v>29996700</v>
       </c>
       <c r="J76" s="3">
-        <v>24800100</v>
+        <v>25926900</v>
       </c>
       <c r="K76" s="3">
         <v>21433400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3846100</v>
+        <v>4020900</v>
       </c>
       <c r="E81" s="3">
-        <v>4398900</v>
+        <v>4598700</v>
       </c>
       <c r="F81" s="3">
-        <v>4178400</v>
+        <v>4368300</v>
       </c>
       <c r="G81" s="3">
-        <v>4086400</v>
+        <v>4272100</v>
       </c>
       <c r="H81" s="3">
-        <v>3546400</v>
+        <v>3707500</v>
       </c>
       <c r="I81" s="3">
-        <v>3372700</v>
+        <v>3525900</v>
       </c>
       <c r="J81" s="3">
-        <v>3296600</v>
+        <v>3446400</v>
       </c>
       <c r="K81" s="3">
         <v>3087000</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1126900</v>
+        <v>1178100</v>
       </c>
       <c r="E83" s="3">
-        <v>784300</v>
+        <v>819900</v>
       </c>
       <c r="F83" s="3">
-        <v>716100</v>
+        <v>748600</v>
       </c>
       <c r="G83" s="3">
-        <v>694700</v>
+        <v>726200</v>
       </c>
       <c r="H83" s="3">
-        <v>656600</v>
+        <v>686500</v>
       </c>
       <c r="I83" s="3">
-        <v>625700</v>
+        <v>654100</v>
       </c>
       <c r="J83" s="3">
-        <v>592400</v>
+        <v>619300</v>
       </c>
       <c r="K83" s="3">
         <v>534300</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>40314000</v>
+        <v>42145600</v>
       </c>
       <c r="E89" s="3">
-        <v>23237900</v>
+        <v>24293700</v>
       </c>
       <c r="F89" s="3">
-        <v>14204600</v>
+        <v>14849900</v>
       </c>
       <c r="G89" s="3">
-        <v>2306100</v>
+        <v>2410900</v>
       </c>
       <c r="H89" s="3">
-        <v>-2163400</v>
+        <v>-2261600</v>
       </c>
       <c r="I89" s="3">
-        <v>1850100</v>
+        <v>1934200</v>
       </c>
       <c r="J89" s="3">
-        <v>-2321200</v>
+        <v>-2426600</v>
       </c>
       <c r="K89" s="3">
         <v>8809800</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-316400</v>
+        <v>-330800</v>
       </c>
       <c r="E91" s="3">
-        <v>-379100</v>
+        <v>-396300</v>
       </c>
       <c r="F91" s="3">
-        <v>-261700</v>
+        <v>-273600</v>
       </c>
       <c r="G91" s="3">
-        <v>-238700</v>
+        <v>-249500</v>
       </c>
       <c r="H91" s="3">
-        <v>-177600</v>
+        <v>-185700</v>
       </c>
       <c r="I91" s="3">
-        <v>-142000</v>
+        <v>-148400</v>
       </c>
       <c r="J91" s="3">
-        <v>-281500</v>
+        <v>-294300</v>
       </c>
       <c r="K91" s="3">
         <v>-277900</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-25356000</v>
+        <v>-26508000</v>
       </c>
       <c r="E94" s="3">
-        <v>-15527300</v>
+        <v>-16232800</v>
       </c>
       <c r="F94" s="3">
-        <v>-8987300</v>
+        <v>-9395600</v>
       </c>
       <c r="G94" s="3">
-        <v>-2502000</v>
+        <v>-2615700</v>
       </c>
       <c r="H94" s="3">
-        <v>-12158600</v>
+        <v>-12711000</v>
       </c>
       <c r="I94" s="3">
-        <v>3192700</v>
+        <v>3337800</v>
       </c>
       <c r="J94" s="3">
-        <v>2611400</v>
+        <v>2730100</v>
       </c>
       <c r="K94" s="3">
         <v>-1476500</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1962700</v>
+        <v>-2051900</v>
       </c>
       <c r="E96" s="3">
-        <v>-2182400</v>
+        <v>-2281500</v>
       </c>
       <c r="F96" s="3">
-        <v>-2047600</v>
+        <v>-2140600</v>
       </c>
       <c r="G96" s="3">
-        <v>-1594000</v>
+        <v>-1666400</v>
       </c>
       <c r="H96" s="3">
-        <v>-1759700</v>
+        <v>-1839700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1693100</v>
+        <v>-1770000</v>
       </c>
       <c r="J96" s="3">
-        <v>-1467900</v>
+        <v>-1534600</v>
       </c>
       <c r="K96" s="3">
         <v>-1459600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8171300</v>
+        <v>-8542500</v>
       </c>
       <c r="E100" s="3">
-        <v>-2071400</v>
+        <v>-2165500</v>
       </c>
       <c r="F100" s="3">
-        <v>2170500</v>
+        <v>2269100</v>
       </c>
       <c r="G100" s="3">
-        <v>1582900</v>
+        <v>1654800</v>
       </c>
       <c r="H100" s="3">
-        <v>6380600</v>
+        <v>6670500</v>
       </c>
       <c r="I100" s="3">
-        <v>52300</v>
+        <v>54700</v>
       </c>
       <c r="J100" s="3">
-        <v>-368800</v>
+        <v>-385500</v>
       </c>
       <c r="K100" s="3">
         <v>-3719800</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>37300</v>
+        <v>39000</v>
       </c>
       <c r="E101" s="3">
-        <v>-356900</v>
+        <v>-373100</v>
       </c>
       <c r="F101" s="3">
-        <v>180000</v>
+        <v>188200</v>
       </c>
       <c r="G101" s="3">
-        <v>-636800</v>
+        <v>-665700</v>
       </c>
       <c r="H101" s="3">
-        <v>1088000</v>
+        <v>1137500</v>
       </c>
       <c r="I101" s="3">
-        <v>4348900</v>
+        <v>4546500</v>
       </c>
       <c r="J101" s="3">
-        <v>1900100</v>
+        <v>1986400</v>
       </c>
       <c r="K101" s="3">
         <v>1139300</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6823900</v>
+        <v>7134000</v>
       </c>
       <c r="E102" s="3">
-        <v>5282300</v>
+        <v>5522300</v>
       </c>
       <c r="F102" s="3">
-        <v>7567800</v>
+        <v>7911600</v>
       </c>
       <c r="G102" s="3">
-        <v>750200</v>
+        <v>784300</v>
       </c>
       <c r="H102" s="3">
-        <v>-6853300</v>
+        <v>-7164700</v>
       </c>
       <c r="I102" s="3">
-        <v>9444100</v>
+        <v>9873200</v>
       </c>
       <c r="J102" s="3">
-        <v>1821600</v>
+        <v>1904300</v>
       </c>
       <c r="K102" s="3">
         <v>4752900</v>

--- a/AAII_Financials/Yearly/BMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BMO_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19329300</v>
+        <v>18178000</v>
       </c>
       <c r="E8" s="3">
-        <v>21681300</v>
+        <v>20389900</v>
       </c>
       <c r="F8" s="3">
-        <v>17439100</v>
+        <v>16400400</v>
       </c>
       <c r="G8" s="3">
-        <v>14436200</v>
+        <v>13576400</v>
       </c>
       <c r="H8" s="3">
-        <v>11928400</v>
+        <v>11217900</v>
       </c>
       <c r="I8" s="3">
-        <v>10908600</v>
+        <v>10258900</v>
       </c>
       <c r="J8" s="3">
-        <v>10671500</v>
+        <v>10035900</v>
       </c>
       <c r="K8" s="3">
         <v>10211700</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-514000</v>
+        <v>-483400</v>
       </c>
       <c r="E15" s="3">
-        <v>-459300</v>
+        <v>-431900</v>
       </c>
       <c r="F15" s="3">
-        <v>-417000</v>
+        <v>-392200</v>
       </c>
       <c r="G15" s="3">
-        <v>-804200</v>
+        <v>-756300</v>
       </c>
       <c r="H15" s="3">
-        <v>-736200</v>
+        <v>-692300</v>
       </c>
       <c r="I15" s="3">
-        <v>-340700</v>
+        <v>-320400</v>
       </c>
       <c r="J15" s="3">
-        <v>-633400</v>
+        <v>-595700</v>
       </c>
       <c r="K15" s="3">
         <v>-266400</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8933000</v>
+        <v>8400900</v>
       </c>
       <c r="E17" s="3">
-        <v>11719500</v>
+        <v>11021400</v>
       </c>
       <c r="F17" s="3">
-        <v>8505200</v>
+        <v>7998600</v>
       </c>
       <c r="G17" s="3">
-        <v>5707200</v>
+        <v>5367200</v>
       </c>
       <c r="H17" s="3">
-        <v>4383200</v>
+        <v>4122100</v>
       </c>
       <c r="I17" s="3">
-        <v>4151100</v>
+        <v>3903800</v>
       </c>
       <c r="J17" s="3">
-        <v>4262100</v>
+        <v>4008300</v>
       </c>
       <c r="K17" s="3">
         <v>3983800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10396300</v>
+        <v>9777100</v>
       </c>
       <c r="E18" s="3">
-        <v>9961900</v>
+        <v>9368500</v>
       </c>
       <c r="F18" s="3">
-        <v>8933800</v>
+        <v>8401700</v>
       </c>
       <c r="G18" s="3">
-        <v>8729100</v>
+        <v>8209100</v>
       </c>
       <c r="H18" s="3">
-        <v>7545200</v>
+        <v>7095800</v>
       </c>
       <c r="I18" s="3">
-        <v>6757600</v>
+        <v>6355100</v>
       </c>
       <c r="J18" s="3">
-        <v>6409400</v>
+        <v>6027600</v>
       </c>
       <c r="K18" s="3">
         <v>6227800</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5133500</v>
+        <v>-4827700</v>
       </c>
       <c r="E20" s="3">
-        <v>-3933000</v>
+        <v>-3698800</v>
       </c>
       <c r="F20" s="3">
-        <v>-2787300</v>
+        <v>-2621300</v>
       </c>
       <c r="G20" s="3">
-        <v>-3231600</v>
+        <v>-3039200</v>
       </c>
       <c r="H20" s="3">
-        <v>-2793100</v>
+        <v>-2626700</v>
       </c>
       <c r="I20" s="3">
-        <v>-2329600</v>
+        <v>-2190900</v>
       </c>
       <c r="J20" s="3">
-        <v>-2068500</v>
+        <v>-1945300</v>
       </c>
       <c r="K20" s="3">
         <v>-2186300</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6443100</v>
+        <v>6072200</v>
       </c>
       <c r="E21" s="3">
-        <v>6850300</v>
+        <v>6451300</v>
       </c>
       <c r="F21" s="3">
-        <v>6896600</v>
+        <v>6494000</v>
       </c>
       <c r="G21" s="3">
-        <v>6225100</v>
+        <v>5862200</v>
       </c>
       <c r="H21" s="3">
-        <v>5439900</v>
+        <v>5123400</v>
       </c>
       <c r="I21" s="3">
-        <v>5083300</v>
+        <v>4787700</v>
       </c>
       <c r="J21" s="3">
-        <v>4961400</v>
+        <v>4672600</v>
       </c>
       <c r="K21" s="3">
         <v>4574900</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5262800</v>
+        <v>4949300</v>
       </c>
       <c r="E23" s="3">
-        <v>6028900</v>
+        <v>5669800</v>
       </c>
       <c r="F23" s="3">
-        <v>6146600</v>
+        <v>5780500</v>
       </c>
       <c r="G23" s="3">
-        <v>5497400</v>
+        <v>5170000</v>
       </c>
       <c r="H23" s="3">
-        <v>4752100</v>
+        <v>4469100</v>
       </c>
       <c r="I23" s="3">
-        <v>4428000</v>
+        <v>4164200</v>
       </c>
       <c r="J23" s="3">
-        <v>4340900</v>
+        <v>4082400</v>
       </c>
       <c r="K23" s="3">
         <v>4041600</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1037100</v>
+        <v>975400</v>
       </c>
       <c r="E24" s="3">
-        <v>1255200</v>
+        <v>1180400</v>
       </c>
       <c r="F24" s="3">
-        <v>1273400</v>
+        <v>1197600</v>
       </c>
       <c r="G24" s="3">
-        <v>1071100</v>
+        <v>1007300</v>
       </c>
       <c r="H24" s="3">
-        <v>912800</v>
+        <v>858400</v>
       </c>
       <c r="I24" s="3">
-        <v>776000</v>
+        <v>729800</v>
       </c>
       <c r="J24" s="3">
-        <v>748600</v>
+        <v>704000</v>
       </c>
       <c r="K24" s="3">
         <v>812200</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4225700</v>
+        <v>3974000</v>
       </c>
       <c r="E26" s="3">
-        <v>4773700</v>
+        <v>4489300</v>
       </c>
       <c r="F26" s="3">
-        <v>4873200</v>
+        <v>4582900</v>
       </c>
       <c r="G26" s="3">
-        <v>4426300</v>
+        <v>4162700</v>
       </c>
       <c r="H26" s="3">
-        <v>3839300</v>
+        <v>3610700</v>
       </c>
       <c r="I26" s="3">
-        <v>3652000</v>
+        <v>3434400</v>
       </c>
       <c r="J26" s="3">
-        <v>3592300</v>
+        <v>3378300</v>
       </c>
       <c r="K26" s="3">
         <v>3229400</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4020900</v>
+        <v>3781400</v>
       </c>
       <c r="E27" s="3">
-        <v>4598700</v>
+        <v>4324800</v>
       </c>
       <c r="F27" s="3">
-        <v>4720600</v>
+        <v>4439400</v>
       </c>
       <c r="G27" s="3">
-        <v>4272100</v>
+        <v>4017600</v>
       </c>
       <c r="H27" s="3">
-        <v>3707500</v>
+        <v>3486700</v>
       </c>
       <c r="I27" s="3">
-        <v>3525900</v>
+        <v>3315900</v>
       </c>
       <c r="J27" s="3">
-        <v>3446400</v>
+        <v>3241100</v>
       </c>
       <c r="K27" s="3">
         <v>3087000</v>
@@ -1419,7 +1419,7 @@
         <v>5</v>
       </c>
       <c r="F29" s="3">
-        <v>-352300</v>
+        <v>-331400</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5133500</v>
+        <v>4827700</v>
       </c>
       <c r="E32" s="3">
-        <v>3933000</v>
+        <v>3698800</v>
       </c>
       <c r="F32" s="3">
-        <v>2787300</v>
+        <v>2621300</v>
       </c>
       <c r="G32" s="3">
-        <v>3231600</v>
+        <v>3039200</v>
       </c>
       <c r="H32" s="3">
-        <v>2793100</v>
+        <v>2626700</v>
       </c>
       <c r="I32" s="3">
-        <v>2329600</v>
+        <v>2190900</v>
       </c>
       <c r="J32" s="3">
-        <v>2068500</v>
+        <v>1945300</v>
       </c>
       <c r="K32" s="3">
         <v>2186300</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4020900</v>
+        <v>3781400</v>
       </c>
       <c r="E33" s="3">
-        <v>4598700</v>
+        <v>4324800</v>
       </c>
       <c r="F33" s="3">
-        <v>4368300</v>
+        <v>4108100</v>
       </c>
       <c r="G33" s="3">
-        <v>4272100</v>
+        <v>4017600</v>
       </c>
       <c r="H33" s="3">
-        <v>3707500</v>
+        <v>3486700</v>
       </c>
       <c r="I33" s="3">
-        <v>3525900</v>
+        <v>3315900</v>
       </c>
       <c r="J33" s="3">
-        <v>3446400</v>
+        <v>3241100</v>
       </c>
       <c r="K33" s="3">
         <v>3087000</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4020900</v>
+        <v>3781400</v>
       </c>
       <c r="E35" s="3">
-        <v>4598700</v>
+        <v>4324800</v>
       </c>
       <c r="F35" s="3">
-        <v>4368300</v>
+        <v>4108100</v>
       </c>
       <c r="G35" s="3">
-        <v>4272100</v>
+        <v>4017600</v>
       </c>
       <c r="H35" s="3">
-        <v>3707500</v>
+        <v>3486700</v>
       </c>
       <c r="I35" s="3">
-        <v>3525900</v>
+        <v>3315900</v>
       </c>
       <c r="J35" s="3">
-        <v>3446400</v>
+        <v>3241100</v>
       </c>
       <c r="K35" s="3">
         <v>3087000</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>47594100</v>
+        <v>44759300</v>
       </c>
       <c r="E41" s="3">
-        <v>40460100</v>
+        <v>38050200</v>
       </c>
       <c r="F41" s="3">
-        <v>69875700</v>
+        <v>65713700</v>
       </c>
       <c r="G41" s="3">
-        <v>54052400</v>
+        <v>50832900</v>
       </c>
       <c r="H41" s="3">
-        <v>52483800</v>
+        <v>49357800</v>
       </c>
       <c r="I41" s="3">
-        <v>33406600</v>
+        <v>31416800</v>
       </c>
       <c r="J41" s="3">
-        <v>23533400</v>
+        <v>22131700</v>
       </c>
       <c r="K41" s="3">
         <v>40167700</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>229198000</v>
+        <v>215547000</v>
       </c>
       <c r="E42" s="3">
-        <v>197399000</v>
+        <v>185642000</v>
       </c>
       <c r="F42" s="3">
-        <v>193009000</v>
+        <v>181513000</v>
       </c>
       <c r="G42" s="3">
-        <v>201155000</v>
+        <v>189174000</v>
       </c>
       <c r="H42" s="3">
-        <v>129707000</v>
+        <v>121981000</v>
       </c>
       <c r="I42" s="3">
-        <v>123469000</v>
+        <v>116115000</v>
       </c>
       <c r="J42" s="3">
-        <v>147844000</v>
+        <v>139038000</v>
       </c>
       <c r="K42" s="3">
         <v>117501000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3467900</v>
+        <v>3261400</v>
       </c>
       <c r="E48" s="3">
-        <v>1703700</v>
+        <v>1602200</v>
       </c>
       <c r="F48" s="3">
-        <v>3293000</v>
+        <v>3096800</v>
       </c>
       <c r="G48" s="3">
-        <v>3370900</v>
+        <v>3170100</v>
       </c>
       <c r="H48" s="3">
-        <v>3559900</v>
+        <v>3347900</v>
       </c>
       <c r="I48" s="3">
-        <v>1894400</v>
+        <v>1781500</v>
       </c>
       <c r="J48" s="3">
-        <v>1886900</v>
+        <v>1774500</v>
       </c>
       <c r="K48" s="3">
         <v>3337900</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7442400</v>
+        <v>6999100</v>
       </c>
       <c r="E49" s="3">
-        <v>7265800</v>
+        <v>6833000</v>
       </c>
       <c r="F49" s="3">
-        <v>9050700</v>
+        <v>8511700</v>
       </c>
       <c r="G49" s="3">
-        <v>9650100</v>
+        <v>9075400</v>
       </c>
       <c r="H49" s="3">
-        <v>8901500</v>
+        <v>8371300</v>
       </c>
       <c r="I49" s="3">
-        <v>6862000</v>
+        <v>6453300</v>
       </c>
       <c r="J49" s="3">
-        <v>6139100</v>
+        <v>5773500</v>
       </c>
       <c r="K49" s="3">
         <v>5266300</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1355500</v>
+        <v>1274800</v>
       </c>
       <c r="E52" s="3">
-        <v>1492300</v>
+        <v>1403400</v>
       </c>
       <c r="F52" s="3">
-        <v>2240900</v>
+        <v>2107400</v>
       </c>
       <c r="G52" s="3">
-        <v>2796400</v>
+        <v>2629800</v>
       </c>
       <c r="H52" s="3">
-        <v>2668700</v>
+        <v>2509800</v>
       </c>
       <c r="I52" s="3">
-        <v>3037600</v>
+        <v>2856700</v>
       </c>
       <c r="J52" s="3">
-        <v>2719300</v>
+        <v>2557300</v>
       </c>
       <c r="K52" s="3">
         <v>2478100</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>786985000</v>
+        <v>740110000</v>
       </c>
       <c r="E54" s="3">
-        <v>706512000</v>
+        <v>664431000</v>
       </c>
       <c r="F54" s="3">
-        <v>641099000</v>
+        <v>602913000</v>
       </c>
       <c r="G54" s="3">
-        <v>588277000</v>
+        <v>553238000</v>
       </c>
       <c r="H54" s="3">
-        <v>570333000</v>
+        <v>536362000</v>
       </c>
       <c r="I54" s="3">
-        <v>532151000</v>
+        <v>500455000</v>
       </c>
       <c r="J54" s="3">
-        <v>488028000</v>
+        <v>458960000</v>
       </c>
       <c r="K54" s="3">
         <v>413427000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9689900</v>
+        <v>9112800</v>
       </c>
       <c r="E57" s="3">
-        <v>8967800</v>
+        <v>8433700</v>
       </c>
       <c r="F57" s="3">
-        <v>8332000</v>
+        <v>7835700</v>
       </c>
       <c r="G57" s="3">
-        <v>8349400</v>
+        <v>7852100</v>
       </c>
       <c r="H57" s="3">
-        <v>8315400</v>
+        <v>7820100</v>
       </c>
       <c r="I57" s="3">
-        <v>7251700</v>
+        <v>6819800</v>
       </c>
       <c r="J57" s="3">
-        <v>6394500</v>
+        <v>6013600</v>
       </c>
       <c r="K57" s="3">
         <v>5840600</v>
@@ -2310,19 +2310,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>102455000</v>
+        <v>96352400</v>
       </c>
       <c r="E58" s="3">
-        <v>97554300</v>
+        <v>91743800</v>
       </c>
       <c r="F58" s="3">
-        <v>82234300</v>
+        <v>77336200</v>
       </c>
       <c r="G58" s="3">
-        <v>69578000</v>
+        <v>65433800</v>
       </c>
       <c r="H58" s="3">
-        <v>57888400</v>
+        <v>54440500</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1231100</v>
+        <v>1157800</v>
       </c>
       <c r="E59" s="3">
-        <v>1449200</v>
+        <v>1362900</v>
       </c>
       <c r="F59" s="3">
-        <v>1189700</v>
+        <v>1118800</v>
       </c>
       <c r="G59" s="3">
-        <v>963400</v>
+        <v>906000</v>
       </c>
       <c r="H59" s="3">
-        <v>926900</v>
+        <v>871700</v>
       </c>
       <c r="I59" s="3">
-        <v>887900</v>
+        <v>835000</v>
       </c>
       <c r="J59" s="3">
-        <v>1065300</v>
+        <v>1001900</v>
       </c>
       <c r="K59" s="3">
         <v>1012300</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>26668100</v>
+        <v>25079600</v>
       </c>
       <c r="E61" s="3">
-        <v>24368300</v>
+        <v>22916800</v>
       </c>
       <c r="F61" s="3">
-        <v>23321200</v>
+        <v>21932100</v>
       </c>
       <c r="G61" s="3">
-        <v>20262000</v>
+        <v>19055100</v>
       </c>
       <c r="H61" s="3">
-        <v>18914800</v>
+        <v>17788200</v>
       </c>
       <c r="I61" s="3">
-        <v>21629100</v>
+        <v>20340800</v>
       </c>
       <c r="J61" s="3">
-        <v>22697700</v>
+        <v>21345800</v>
       </c>
       <c r="K61" s="3">
         <v>20290100</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1498900</v>
+        <v>1409600</v>
       </c>
       <c r="E62" s="3">
-        <v>1255200</v>
+        <v>1180400</v>
       </c>
       <c r="F62" s="3">
-        <v>1069500</v>
+        <v>1005800</v>
       </c>
       <c r="G62" s="3">
-        <v>1575200</v>
+        <v>1481400</v>
       </c>
       <c r="H62" s="3">
-        <v>1691300</v>
+        <v>1590500</v>
       </c>
       <c r="I62" s="3">
-        <v>1509700</v>
+        <v>1419800</v>
       </c>
       <c r="J62" s="3">
-        <v>1335600</v>
+        <v>1256000</v>
       </c>
       <c r="K62" s="3">
         <v>994600</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>740066000</v>
+        <v>695987000</v>
       </c>
       <c r="E66" s="3">
-        <v>664168000</v>
+        <v>624609000</v>
       </c>
       <c r="F66" s="3">
-        <v>603194000</v>
+        <v>567266000</v>
       </c>
       <c r="G66" s="3">
-        <v>551506000</v>
+        <v>518657000</v>
       </c>
       <c r="H66" s="3">
-        <v>535260000</v>
+        <v>503379000</v>
       </c>
       <c r="I66" s="3">
-        <v>499469000</v>
+        <v>469719000</v>
       </c>
       <c r="J66" s="3">
-        <v>459581000</v>
+        <v>432207000</v>
       </c>
       <c r="K66" s="3">
         <v>390250000</v>
@@ -2722,25 +2722,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3888200</v>
+        <v>3656700</v>
       </c>
       <c r="E70" s="3">
-        <v>3888200</v>
+        <v>3656700</v>
       </c>
       <c r="F70" s="3">
-        <v>3598100</v>
+        <v>3383800</v>
       </c>
       <c r="G70" s="3">
-        <v>3515200</v>
+        <v>3305800</v>
       </c>
       <c r="H70" s="3">
-        <v>3183600</v>
+        <v>2993900</v>
       </c>
       <c r="I70" s="3">
-        <v>2686100</v>
+        <v>2526100</v>
       </c>
       <c r="J70" s="3">
-        <v>2520300</v>
+        <v>2370200</v>
       </c>
       <c r="K70" s="3">
         <v>1743600</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25489100</v>
+        <v>23971000</v>
       </c>
       <c r="E72" s="3">
-        <v>23814500</v>
+        <v>22396000</v>
       </c>
       <c r="F72" s="3">
-        <v>21430900</v>
+        <v>20154500</v>
       </c>
       <c r="G72" s="3">
-        <v>19655900</v>
+        <v>18485200</v>
       </c>
       <c r="H72" s="3">
-        <v>17580000</v>
+        <v>16532900</v>
       </c>
       <c r="I72" s="3">
-        <v>15693900</v>
+        <v>14759200</v>
       </c>
       <c r="J72" s="3">
-        <v>14290300</v>
+        <v>13439200</v>
       </c>
       <c r="K72" s="3">
         <v>11614300</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>43030200</v>
+        <v>40467200</v>
       </c>
       <c r="E76" s="3">
-        <v>38456400</v>
+        <v>36165700</v>
       </c>
       <c r="F76" s="3">
-        <v>34306900</v>
+        <v>32263500</v>
       </c>
       <c r="G76" s="3">
-        <v>33256500</v>
+        <v>31275700</v>
       </c>
       <c r="H76" s="3">
-        <v>31888500</v>
+        <v>29989300</v>
       </c>
       <c r="I76" s="3">
-        <v>29996700</v>
+        <v>28210100</v>
       </c>
       <c r="J76" s="3">
-        <v>25926900</v>
+        <v>24382600</v>
       </c>
       <c r="K76" s="3">
         <v>21433400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4020900</v>
+        <v>3781400</v>
       </c>
       <c r="E81" s="3">
-        <v>4598700</v>
+        <v>4324800</v>
       </c>
       <c r="F81" s="3">
-        <v>4368300</v>
+        <v>4108100</v>
       </c>
       <c r="G81" s="3">
-        <v>4272100</v>
+        <v>4017600</v>
       </c>
       <c r="H81" s="3">
-        <v>3707500</v>
+        <v>3486700</v>
       </c>
       <c r="I81" s="3">
-        <v>3525900</v>
+        <v>3315900</v>
       </c>
       <c r="J81" s="3">
-        <v>3446400</v>
+        <v>3241100</v>
       </c>
       <c r="K81" s="3">
         <v>3087000</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1178100</v>
+        <v>1107900</v>
       </c>
       <c r="E83" s="3">
-        <v>819900</v>
+        <v>771100</v>
       </c>
       <c r="F83" s="3">
-        <v>748600</v>
+        <v>704000</v>
       </c>
       <c r="G83" s="3">
-        <v>726200</v>
+        <v>683000</v>
       </c>
       <c r="H83" s="3">
-        <v>686500</v>
+        <v>645600</v>
       </c>
       <c r="I83" s="3">
-        <v>654100</v>
+        <v>615200</v>
       </c>
       <c r="J83" s="3">
-        <v>619300</v>
+        <v>582400</v>
       </c>
       <c r="K83" s="3">
         <v>534300</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>42145600</v>
+        <v>39635300</v>
       </c>
       <c r="E89" s="3">
-        <v>24293700</v>
+        <v>22846700</v>
       </c>
       <c r="F89" s="3">
-        <v>14849900</v>
+        <v>13965400</v>
       </c>
       <c r="G89" s="3">
-        <v>2410900</v>
+        <v>2267300</v>
       </c>
       <c r="H89" s="3">
-        <v>-2261600</v>
+        <v>-2126900</v>
       </c>
       <c r="I89" s="3">
-        <v>1934200</v>
+        <v>1819000</v>
       </c>
       <c r="J89" s="3">
-        <v>-2426600</v>
+        <v>-2282100</v>
       </c>
       <c r="K89" s="3">
         <v>8809800</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-330800</v>
+        <v>-311100</v>
       </c>
       <c r="E91" s="3">
-        <v>-396300</v>
+        <v>-372700</v>
       </c>
       <c r="F91" s="3">
-        <v>-273600</v>
+        <v>-257300</v>
       </c>
       <c r="G91" s="3">
-        <v>-249500</v>
+        <v>-234700</v>
       </c>
       <c r="H91" s="3">
-        <v>-185700</v>
+        <v>-174600</v>
       </c>
       <c r="I91" s="3">
-        <v>-148400</v>
+        <v>-139600</v>
       </c>
       <c r="J91" s="3">
-        <v>-294300</v>
+        <v>-276800</v>
       </c>
       <c r="K91" s="3">
         <v>-277900</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-26508000</v>
+        <v>-24929200</v>
       </c>
       <c r="E94" s="3">
-        <v>-16232800</v>
+        <v>-15265900</v>
       </c>
       <c r="F94" s="3">
-        <v>-9395600</v>
+        <v>-8836000</v>
       </c>
       <c r="G94" s="3">
-        <v>-2615700</v>
+        <v>-2459900</v>
       </c>
       <c r="H94" s="3">
-        <v>-12711000</v>
+        <v>-11953900</v>
       </c>
       <c r="I94" s="3">
-        <v>3337800</v>
+        <v>3139000</v>
       </c>
       <c r="J94" s="3">
-        <v>2730100</v>
+        <v>2567500</v>
       </c>
       <c r="K94" s="3">
         <v>-1476500</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2051900</v>
+        <v>-1929700</v>
       </c>
       <c r="E96" s="3">
-        <v>-2281500</v>
+        <v>-2145700</v>
       </c>
       <c r="F96" s="3">
-        <v>-2140600</v>
+        <v>-2013100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1666400</v>
+        <v>-1567100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1839700</v>
+        <v>-1730100</v>
       </c>
       <c r="I96" s="3">
-        <v>-1770000</v>
+        <v>-1664600</v>
       </c>
       <c r="J96" s="3">
-        <v>-1534600</v>
+        <v>-1443200</v>
       </c>
       <c r="K96" s="3">
         <v>-1459600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8542500</v>
+        <v>-8033700</v>
       </c>
       <c r="E100" s="3">
-        <v>-2165500</v>
+        <v>-2036500</v>
       </c>
       <c r="F100" s="3">
-        <v>2269100</v>
+        <v>2134000</v>
       </c>
       <c r="G100" s="3">
-        <v>1654800</v>
+        <v>1556200</v>
       </c>
       <c r="H100" s="3">
-        <v>6670500</v>
+        <v>6273200</v>
       </c>
       <c r="I100" s="3">
-        <v>54700</v>
+        <v>51500</v>
       </c>
       <c r="J100" s="3">
-        <v>-385500</v>
+        <v>-362500</v>
       </c>
       <c r="K100" s="3">
         <v>-3719800</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>39000</v>
+        <v>36600</v>
       </c>
       <c r="E101" s="3">
-        <v>-373100</v>
+        <v>-350900</v>
       </c>
       <c r="F101" s="3">
-        <v>188200</v>
+        <v>177000</v>
       </c>
       <c r="G101" s="3">
-        <v>-665700</v>
+        <v>-626100</v>
       </c>
       <c r="H101" s="3">
-        <v>1137500</v>
+        <v>1069700</v>
       </c>
       <c r="I101" s="3">
-        <v>4546500</v>
+        <v>4275700</v>
       </c>
       <c r="J101" s="3">
-        <v>1986400</v>
+        <v>1868100</v>
       </c>
       <c r="K101" s="3">
         <v>1139300</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7134000</v>
+        <v>6709100</v>
       </c>
       <c r="E102" s="3">
-        <v>5522300</v>
+        <v>5193400</v>
       </c>
       <c r="F102" s="3">
-        <v>7911600</v>
+        <v>7440400</v>
       </c>
       <c r="G102" s="3">
-        <v>784300</v>
+        <v>737600</v>
       </c>
       <c r="H102" s="3">
-        <v>-7164700</v>
+        <v>-6737900</v>
       </c>
       <c r="I102" s="3">
-        <v>9873200</v>
+        <v>9285100</v>
       </c>
       <c r="J102" s="3">
-        <v>1904300</v>
+        <v>1790900</v>
       </c>
       <c r="K102" s="3">
         <v>4752900</v>

--- a/AAII_Financials/Yearly/BMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BMO_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18178000</v>
+        <v>18303400</v>
       </c>
       <c r="E8" s="3">
-        <v>20389900</v>
+        <v>20530600</v>
       </c>
       <c r="F8" s="3">
-        <v>16400400</v>
+        <v>16513500</v>
       </c>
       <c r="G8" s="3">
-        <v>13576400</v>
+        <v>13670100</v>
       </c>
       <c r="H8" s="3">
-        <v>11217900</v>
+        <v>11295300</v>
       </c>
       <c r="I8" s="3">
-        <v>10258900</v>
+        <v>10329700</v>
       </c>
       <c r="J8" s="3">
-        <v>10035900</v>
+        <v>10105200</v>
       </c>
       <c r="K8" s="3">
         <v>10211700</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-483400</v>
+        <v>-486700</v>
       </c>
       <c r="E15" s="3">
-        <v>-431900</v>
+        <v>-434900</v>
       </c>
       <c r="F15" s="3">
-        <v>-392200</v>
+        <v>-394900</v>
       </c>
       <c r="G15" s="3">
-        <v>-756300</v>
+        <v>-761500</v>
       </c>
       <c r="H15" s="3">
-        <v>-692300</v>
+        <v>-697100</v>
       </c>
       <c r="I15" s="3">
-        <v>-320400</v>
+        <v>-322700</v>
       </c>
       <c r="J15" s="3">
-        <v>-595700</v>
+        <v>-599800</v>
       </c>
       <c r="K15" s="3">
         <v>-266400</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8400900</v>
+        <v>8458900</v>
       </c>
       <c r="E17" s="3">
-        <v>11021400</v>
+        <v>11097500</v>
       </c>
       <c r="F17" s="3">
-        <v>7998600</v>
+        <v>8053800</v>
       </c>
       <c r="G17" s="3">
-        <v>5367200</v>
+        <v>5404300</v>
       </c>
       <c r="H17" s="3">
-        <v>4122100</v>
+        <v>4150600</v>
       </c>
       <c r="I17" s="3">
-        <v>3903800</v>
+        <v>3930700</v>
       </c>
       <c r="J17" s="3">
-        <v>4008300</v>
+        <v>4035900</v>
       </c>
       <c r="K17" s="3">
         <v>3983800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9777100</v>
+        <v>9844500</v>
       </c>
       <c r="E18" s="3">
-        <v>9368500</v>
+        <v>9433200</v>
       </c>
       <c r="F18" s="3">
-        <v>8401700</v>
+        <v>8459700</v>
       </c>
       <c r="G18" s="3">
-        <v>8209100</v>
+        <v>8265800</v>
       </c>
       <c r="H18" s="3">
-        <v>7095800</v>
+        <v>7144700</v>
       </c>
       <c r="I18" s="3">
-        <v>6355100</v>
+        <v>6398900</v>
       </c>
       <c r="J18" s="3">
-        <v>6027600</v>
+        <v>6069200</v>
       </c>
       <c r="K18" s="3">
         <v>6227800</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4827700</v>
+        <v>-4861000</v>
       </c>
       <c r="E20" s="3">
-        <v>-3698800</v>
+        <v>-3724300</v>
       </c>
       <c r="F20" s="3">
-        <v>-2621300</v>
+        <v>-2639300</v>
       </c>
       <c r="G20" s="3">
-        <v>-3039200</v>
+        <v>-3060100</v>
       </c>
       <c r="H20" s="3">
-        <v>-2626700</v>
+        <v>-2644800</v>
       </c>
       <c r="I20" s="3">
-        <v>-2190900</v>
+        <v>-2206000</v>
       </c>
       <c r="J20" s="3">
-        <v>-1945300</v>
+        <v>-1958700</v>
       </c>
       <c r="K20" s="3">
         <v>-2186300</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6072200</v>
+        <v>6094900</v>
       </c>
       <c r="E21" s="3">
-        <v>6451300</v>
+        <v>6482400</v>
       </c>
       <c r="F21" s="3">
-        <v>6494000</v>
+        <v>6526600</v>
       </c>
       <c r="G21" s="3">
-        <v>5862200</v>
+        <v>5890800</v>
       </c>
       <c r="H21" s="3">
-        <v>5123400</v>
+        <v>5147500</v>
       </c>
       <c r="I21" s="3">
-        <v>4787700</v>
+        <v>4810000</v>
       </c>
       <c r="J21" s="3">
-        <v>4672600</v>
+        <v>4694800</v>
       </c>
       <c r="K21" s="3">
         <v>4574900</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4949300</v>
+        <v>4983500</v>
       </c>
       <c r="E23" s="3">
-        <v>5669800</v>
+        <v>5708900</v>
       </c>
       <c r="F23" s="3">
-        <v>5780500</v>
+        <v>5820400</v>
       </c>
       <c r="G23" s="3">
-        <v>5170000</v>
+        <v>5205700</v>
       </c>
       <c r="H23" s="3">
-        <v>4469100</v>
+        <v>4499900</v>
       </c>
       <c r="I23" s="3">
-        <v>4164200</v>
+        <v>4193000</v>
       </c>
       <c r="J23" s="3">
-        <v>4082400</v>
+        <v>4110500</v>
       </c>
       <c r="K23" s="3">
         <v>4041600</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>975400</v>
+        <v>982100</v>
       </c>
       <c r="E24" s="3">
-        <v>1180400</v>
+        <v>1188600</v>
       </c>
       <c r="F24" s="3">
-        <v>1197600</v>
+        <v>1205800</v>
       </c>
       <c r="G24" s="3">
-        <v>1007300</v>
+        <v>1014300</v>
       </c>
       <c r="H24" s="3">
-        <v>858400</v>
+        <v>864300</v>
       </c>
       <c r="I24" s="3">
-        <v>729800</v>
+        <v>734800</v>
       </c>
       <c r="J24" s="3">
-        <v>704000</v>
+        <v>708900</v>
       </c>
       <c r="K24" s="3">
         <v>812200</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3974000</v>
+        <v>4001400</v>
       </c>
       <c r="E26" s="3">
-        <v>4489300</v>
+        <v>4520300</v>
       </c>
       <c r="F26" s="3">
-        <v>4582900</v>
+        <v>4614500</v>
       </c>
       <c r="G26" s="3">
-        <v>4162700</v>
+        <v>4191400</v>
       </c>
       <c r="H26" s="3">
-        <v>3610700</v>
+        <v>3635600</v>
       </c>
       <c r="I26" s="3">
-        <v>3434400</v>
+        <v>3458100</v>
       </c>
       <c r="J26" s="3">
-        <v>3378300</v>
+        <v>3401600</v>
       </c>
       <c r="K26" s="3">
         <v>3229400</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3781400</v>
+        <v>3807500</v>
       </c>
       <c r="E27" s="3">
-        <v>4324800</v>
+        <v>4354700</v>
       </c>
       <c r="F27" s="3">
-        <v>4439400</v>
+        <v>4470100</v>
       </c>
       <c r="G27" s="3">
-        <v>4017600</v>
+        <v>4045400</v>
       </c>
       <c r="H27" s="3">
-        <v>3486700</v>
+        <v>3510700</v>
       </c>
       <c r="I27" s="3">
-        <v>3315900</v>
+        <v>3338800</v>
       </c>
       <c r="J27" s="3">
-        <v>3241100</v>
+        <v>3263500</v>
       </c>
       <c r="K27" s="3">
         <v>3087000</v>
@@ -1419,7 +1419,7 @@
         <v>5</v>
       </c>
       <c r="F29" s="3">
-        <v>-331400</v>
+        <v>-333600</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4827700</v>
+        <v>4861000</v>
       </c>
       <c r="E32" s="3">
-        <v>3698800</v>
+        <v>3724300</v>
       </c>
       <c r="F32" s="3">
-        <v>2621300</v>
+        <v>2639300</v>
       </c>
       <c r="G32" s="3">
-        <v>3039200</v>
+        <v>3060100</v>
       </c>
       <c r="H32" s="3">
-        <v>2626700</v>
+        <v>2644800</v>
       </c>
       <c r="I32" s="3">
-        <v>2190900</v>
+        <v>2206000</v>
       </c>
       <c r="J32" s="3">
-        <v>1945300</v>
+        <v>1958700</v>
       </c>
       <c r="K32" s="3">
         <v>2186300</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3781400</v>
+        <v>3807500</v>
       </c>
       <c r="E33" s="3">
-        <v>4324800</v>
+        <v>4354700</v>
       </c>
       <c r="F33" s="3">
-        <v>4108100</v>
+        <v>4136400</v>
       </c>
       <c r="G33" s="3">
-        <v>4017600</v>
+        <v>4045400</v>
       </c>
       <c r="H33" s="3">
-        <v>3486700</v>
+        <v>3510700</v>
       </c>
       <c r="I33" s="3">
-        <v>3315900</v>
+        <v>3338800</v>
       </c>
       <c r="J33" s="3">
-        <v>3241100</v>
+        <v>3263500</v>
       </c>
       <c r="K33" s="3">
         <v>3087000</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3781400</v>
+        <v>3807500</v>
       </c>
       <c r="E35" s="3">
-        <v>4324800</v>
+        <v>4354700</v>
       </c>
       <c r="F35" s="3">
-        <v>4108100</v>
+        <v>4136400</v>
       </c>
       <c r="G35" s="3">
-        <v>4017600</v>
+        <v>4045400</v>
       </c>
       <c r="H35" s="3">
-        <v>3486700</v>
+        <v>3510700</v>
       </c>
       <c r="I35" s="3">
-        <v>3315900</v>
+        <v>3338800</v>
       </c>
       <c r="J35" s="3">
-        <v>3241100</v>
+        <v>3263500</v>
       </c>
       <c r="K35" s="3">
         <v>3087000</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>44759300</v>
+        <v>45068200</v>
       </c>
       <c r="E41" s="3">
-        <v>38050200</v>
+        <v>38312800</v>
       </c>
       <c r="F41" s="3">
-        <v>65713700</v>
+        <v>66167200</v>
       </c>
       <c r="G41" s="3">
-        <v>50832900</v>
+        <v>51183700</v>
       </c>
       <c r="H41" s="3">
-        <v>49357800</v>
+        <v>49698400</v>
       </c>
       <c r="I41" s="3">
-        <v>31416800</v>
+        <v>31633600</v>
       </c>
       <c r="J41" s="3">
-        <v>22131700</v>
+        <v>22284400</v>
       </c>
       <c r="K41" s="3">
         <v>40167700</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>215547000</v>
+        <v>217034000</v>
       </c>
       <c r="E42" s="3">
-        <v>185642000</v>
+        <v>186923000</v>
       </c>
       <c r="F42" s="3">
-        <v>181513000</v>
+        <v>182765000</v>
       </c>
       <c r="G42" s="3">
-        <v>189174000</v>
+        <v>190479000</v>
       </c>
       <c r="H42" s="3">
-        <v>121981000</v>
+        <v>122823000</v>
       </c>
       <c r="I42" s="3">
-        <v>116115000</v>
+        <v>116916000</v>
       </c>
       <c r="J42" s="3">
-        <v>139038000</v>
+        <v>139997000</v>
       </c>
       <c r="K42" s="3">
         <v>117501000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3261400</v>
+        <v>3283900</v>
       </c>
       <c r="E48" s="3">
-        <v>1602200</v>
+        <v>1613300</v>
       </c>
       <c r="F48" s="3">
-        <v>3096800</v>
+        <v>3118200</v>
       </c>
       <c r="G48" s="3">
-        <v>3170100</v>
+        <v>3192000</v>
       </c>
       <c r="H48" s="3">
-        <v>3347900</v>
+        <v>3371000</v>
       </c>
       <c r="I48" s="3">
-        <v>1781500</v>
+        <v>1793800</v>
       </c>
       <c r="J48" s="3">
-        <v>1774500</v>
+        <v>1786800</v>
       </c>
       <c r="K48" s="3">
         <v>3337900</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6999100</v>
+        <v>7047400</v>
       </c>
       <c r="E49" s="3">
-        <v>6833000</v>
+        <v>6880200</v>
       </c>
       <c r="F49" s="3">
-        <v>8511700</v>
+        <v>8570400</v>
       </c>
       <c r="G49" s="3">
-        <v>9075400</v>
+        <v>9138000</v>
       </c>
       <c r="H49" s="3">
-        <v>8371300</v>
+        <v>8429100</v>
       </c>
       <c r="I49" s="3">
-        <v>6453300</v>
+        <v>6497900</v>
       </c>
       <c r="J49" s="3">
-        <v>5773500</v>
+        <v>5813300</v>
       </c>
       <c r="K49" s="3">
         <v>5266300</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1274800</v>
+        <v>1283600</v>
       </c>
       <c r="E52" s="3">
-        <v>1403400</v>
+        <v>1413100</v>
       </c>
       <c r="F52" s="3">
-        <v>2107400</v>
+        <v>2122000</v>
       </c>
       <c r="G52" s="3">
-        <v>2629800</v>
+        <v>2648000</v>
       </c>
       <c r="H52" s="3">
-        <v>2509800</v>
+        <v>2527100</v>
       </c>
       <c r="I52" s="3">
-        <v>2856700</v>
+        <v>2876400</v>
       </c>
       <c r="J52" s="3">
-        <v>2557300</v>
+        <v>2575000</v>
       </c>
       <c r="K52" s="3">
         <v>2478100</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>740110000</v>
+        <v>745217000</v>
       </c>
       <c r="E54" s="3">
-        <v>664431000</v>
+        <v>669016000</v>
       </c>
       <c r="F54" s="3">
-        <v>602913000</v>
+        <v>607074000</v>
       </c>
       <c r="G54" s="3">
-        <v>553238000</v>
+        <v>557056000</v>
       </c>
       <c r="H54" s="3">
-        <v>536362000</v>
+        <v>540063000</v>
       </c>
       <c r="I54" s="3">
-        <v>500455000</v>
+        <v>503909000</v>
       </c>
       <c r="J54" s="3">
-        <v>458960000</v>
+        <v>462127000</v>
       </c>
       <c r="K54" s="3">
         <v>413427000</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9112800</v>
+        <v>9175700</v>
       </c>
       <c r="E57" s="3">
-        <v>8433700</v>
+        <v>8491900</v>
       </c>
       <c r="F57" s="3">
-        <v>7835700</v>
+        <v>7889800</v>
       </c>
       <c r="G57" s="3">
-        <v>7852100</v>
+        <v>7906200</v>
       </c>
       <c r="H57" s="3">
-        <v>7820100</v>
+        <v>7874100</v>
       </c>
       <c r="I57" s="3">
-        <v>6819800</v>
+        <v>6866800</v>
       </c>
       <c r="J57" s="3">
-        <v>6013600</v>
+        <v>6055100</v>
       </c>
       <c r="K57" s="3">
         <v>5840600</v>
@@ -2310,19 +2310,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>96352400</v>
+        <v>97017300</v>
       </c>
       <c r="E58" s="3">
-        <v>91743800</v>
+        <v>92376800</v>
       </c>
       <c r="F58" s="3">
-        <v>77336200</v>
+        <v>77869900</v>
       </c>
       <c r="G58" s="3">
-        <v>65433800</v>
+        <v>65885300</v>
       </c>
       <c r="H58" s="3">
-        <v>54440500</v>
+        <v>54816100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1157800</v>
+        <v>1165800</v>
       </c>
       <c r="E59" s="3">
-        <v>1362900</v>
+        <v>1372300</v>
       </c>
       <c r="F59" s="3">
-        <v>1118800</v>
+        <v>1126500</v>
       </c>
       <c r="G59" s="3">
-        <v>906000</v>
+        <v>912200</v>
       </c>
       <c r="H59" s="3">
-        <v>871700</v>
+        <v>877700</v>
       </c>
       <c r="I59" s="3">
-        <v>835000</v>
+        <v>840800</v>
       </c>
       <c r="J59" s="3">
-        <v>1001900</v>
+        <v>1008800</v>
       </c>
       <c r="K59" s="3">
         <v>1012300</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>25079600</v>
+        <v>25252700</v>
       </c>
       <c r="E61" s="3">
-        <v>22916800</v>
+        <v>23075000</v>
       </c>
       <c r="F61" s="3">
-        <v>21932100</v>
+        <v>22083500</v>
       </c>
       <c r="G61" s="3">
-        <v>19055100</v>
+        <v>19186600</v>
       </c>
       <c r="H61" s="3">
-        <v>17788200</v>
+        <v>17910900</v>
       </c>
       <c r="I61" s="3">
-        <v>20340800</v>
+        <v>20481200</v>
       </c>
       <c r="J61" s="3">
-        <v>21345800</v>
+        <v>21493100</v>
       </c>
       <c r="K61" s="3">
         <v>20290100</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1409600</v>
+        <v>1419400</v>
       </c>
       <c r="E62" s="3">
-        <v>1180400</v>
+        <v>1188600</v>
       </c>
       <c r="F62" s="3">
-        <v>1005800</v>
+        <v>1012700</v>
       </c>
       <c r="G62" s="3">
-        <v>1481400</v>
+        <v>1491600</v>
       </c>
       <c r="H62" s="3">
-        <v>1590500</v>
+        <v>1601500</v>
       </c>
       <c r="I62" s="3">
-        <v>1419800</v>
+        <v>1429600</v>
       </c>
       <c r="J62" s="3">
-        <v>1256000</v>
+        <v>1264700</v>
       </c>
       <c r="K62" s="3">
         <v>994600</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>695987000</v>
+        <v>700789000</v>
       </c>
       <c r="E66" s="3">
-        <v>624609000</v>
+        <v>628919000</v>
       </c>
       <c r="F66" s="3">
-        <v>567266000</v>
+        <v>571180000</v>
       </c>
       <c r="G66" s="3">
-        <v>518657000</v>
+        <v>522236000</v>
       </c>
       <c r="H66" s="3">
-        <v>503379000</v>
+        <v>506853000</v>
       </c>
       <c r="I66" s="3">
-        <v>469719000</v>
+        <v>472960000</v>
       </c>
       <c r="J66" s="3">
-        <v>432207000</v>
+        <v>435189000</v>
       </c>
       <c r="K66" s="3">
         <v>390250000</v>
@@ -2722,25 +2722,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3656700</v>
+        <v>3681900</v>
       </c>
       <c r="E70" s="3">
-        <v>3656700</v>
+        <v>3681900</v>
       </c>
       <c r="F70" s="3">
-        <v>3383800</v>
+        <v>3407100</v>
       </c>
       <c r="G70" s="3">
-        <v>3305800</v>
+        <v>3328600</v>
       </c>
       <c r="H70" s="3">
-        <v>2993900</v>
+        <v>3014600</v>
       </c>
       <c r="I70" s="3">
-        <v>2526100</v>
+        <v>2543600</v>
       </c>
       <c r="J70" s="3">
-        <v>2370200</v>
+        <v>2386600</v>
       </c>
       <c r="K70" s="3">
         <v>1743600</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>23971000</v>
+        <v>24136400</v>
       </c>
       <c r="E72" s="3">
-        <v>22396000</v>
+        <v>22550600</v>
       </c>
       <c r="F72" s="3">
-        <v>20154500</v>
+        <v>20293500</v>
       </c>
       <c r="G72" s="3">
-        <v>18485200</v>
+        <v>18612800</v>
       </c>
       <c r="H72" s="3">
-        <v>16532900</v>
+        <v>16647000</v>
       </c>
       <c r="I72" s="3">
-        <v>14759200</v>
+        <v>14861000</v>
       </c>
       <c r="J72" s="3">
-        <v>13439200</v>
+        <v>13531900</v>
       </c>
       <c r="K72" s="3">
         <v>11614300</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>40467200</v>
+        <v>40746400</v>
       </c>
       <c r="E76" s="3">
-        <v>36165700</v>
+        <v>36415300</v>
       </c>
       <c r="F76" s="3">
-        <v>32263500</v>
+        <v>32486200</v>
       </c>
       <c r="G76" s="3">
-        <v>31275700</v>
+        <v>31491500</v>
       </c>
       <c r="H76" s="3">
-        <v>29989300</v>
+        <v>30196200</v>
       </c>
       <c r="I76" s="3">
-        <v>28210100</v>
+        <v>28404600</v>
       </c>
       <c r="J76" s="3">
-        <v>24382600</v>
+        <v>24550800</v>
       </c>
       <c r="K76" s="3">
         <v>21433400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3781400</v>
+        <v>3807500</v>
       </c>
       <c r="E81" s="3">
-        <v>4324800</v>
+        <v>4354700</v>
       </c>
       <c r="F81" s="3">
-        <v>4108100</v>
+        <v>4136400</v>
       </c>
       <c r="G81" s="3">
-        <v>4017600</v>
+        <v>4045400</v>
       </c>
       <c r="H81" s="3">
-        <v>3486700</v>
+        <v>3510700</v>
       </c>
       <c r="I81" s="3">
-        <v>3315900</v>
+        <v>3338800</v>
       </c>
       <c r="J81" s="3">
-        <v>3241100</v>
+        <v>3263500</v>
       </c>
       <c r="K81" s="3">
         <v>3087000</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1107900</v>
+        <v>1115600</v>
       </c>
       <c r="E83" s="3">
-        <v>771100</v>
+        <v>776400</v>
       </c>
       <c r="F83" s="3">
-        <v>704000</v>
+        <v>708900</v>
       </c>
       <c r="G83" s="3">
-        <v>683000</v>
+        <v>687700</v>
       </c>
       <c r="H83" s="3">
-        <v>645600</v>
+        <v>650000</v>
       </c>
       <c r="I83" s="3">
-        <v>615200</v>
+        <v>619400</v>
       </c>
       <c r="J83" s="3">
-        <v>582400</v>
+        <v>586400</v>
       </c>
       <c r="K83" s="3">
         <v>534300</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>39635300</v>
+        <v>39908800</v>
       </c>
       <c r="E89" s="3">
-        <v>22846700</v>
+        <v>23004300</v>
       </c>
       <c r="F89" s="3">
-        <v>13965400</v>
+        <v>14061800</v>
       </c>
       <c r="G89" s="3">
-        <v>2267300</v>
+        <v>2282900</v>
       </c>
       <c r="H89" s="3">
-        <v>-2126900</v>
+        <v>-2141600</v>
       </c>
       <c r="I89" s="3">
-        <v>1819000</v>
+        <v>1831500</v>
       </c>
       <c r="J89" s="3">
-        <v>-2282100</v>
+        <v>-2297800</v>
       </c>
       <c r="K89" s="3">
         <v>8809800</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-311100</v>
+        <v>-313200</v>
       </c>
       <c r="E91" s="3">
-        <v>-372700</v>
+        <v>-375300</v>
       </c>
       <c r="F91" s="3">
-        <v>-257300</v>
+        <v>-259100</v>
       </c>
       <c r="G91" s="3">
-        <v>-234700</v>
+        <v>-236300</v>
       </c>
       <c r="H91" s="3">
-        <v>-174600</v>
+        <v>-175900</v>
       </c>
       <c r="I91" s="3">
-        <v>-139600</v>
+        <v>-140500</v>
       </c>
       <c r="J91" s="3">
-        <v>-276800</v>
+        <v>-278700</v>
       </c>
       <c r="K91" s="3">
         <v>-277900</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-24929200</v>
+        <v>-25101200</v>
       </c>
       <c r="E94" s="3">
-        <v>-15265900</v>
+        <v>-15371300</v>
       </c>
       <c r="F94" s="3">
-        <v>-8836000</v>
+        <v>-8897000</v>
       </c>
       <c r="G94" s="3">
-        <v>-2459900</v>
+        <v>-2476800</v>
       </c>
       <c r="H94" s="3">
-        <v>-11953900</v>
+        <v>-12036400</v>
       </c>
       <c r="I94" s="3">
-        <v>3139000</v>
+        <v>3160600</v>
       </c>
       <c r="J94" s="3">
-        <v>2567500</v>
+        <v>2585200</v>
       </c>
       <c r="K94" s="3">
         <v>-1476500</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1929700</v>
+        <v>-1943000</v>
       </c>
       <c r="E96" s="3">
-        <v>-2145700</v>
+        <v>-2160500</v>
       </c>
       <c r="F96" s="3">
-        <v>-2013100</v>
+        <v>-2027000</v>
       </c>
       <c r="G96" s="3">
-        <v>-1567100</v>
+        <v>-1578000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1730100</v>
+        <v>-1742000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1664600</v>
+        <v>-1676100</v>
       </c>
       <c r="J96" s="3">
-        <v>-1443200</v>
+        <v>-1453100</v>
       </c>
       <c r="K96" s="3">
         <v>-1459600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8033700</v>
+        <v>-8089200</v>
       </c>
       <c r="E100" s="3">
-        <v>-2036500</v>
+        <v>-2050600</v>
       </c>
       <c r="F100" s="3">
-        <v>2134000</v>
+        <v>2148700</v>
       </c>
       <c r="G100" s="3">
-        <v>1556200</v>
+        <v>1567000</v>
       </c>
       <c r="H100" s="3">
-        <v>6273200</v>
+        <v>6316500</v>
       </c>
       <c r="I100" s="3">
-        <v>51500</v>
+        <v>51800</v>
       </c>
       <c r="J100" s="3">
-        <v>-362500</v>
+        <v>-365000</v>
       </c>
       <c r="K100" s="3">
         <v>-3719800</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>36600</v>
+        <v>36900</v>
       </c>
       <c r="E101" s="3">
-        <v>-350900</v>
+        <v>-353300</v>
       </c>
       <c r="F101" s="3">
-        <v>177000</v>
+        <v>178200</v>
       </c>
       <c r="G101" s="3">
-        <v>-626100</v>
+        <v>-630400</v>
       </c>
       <c r="H101" s="3">
-        <v>1069700</v>
+        <v>1077100</v>
       </c>
       <c r="I101" s="3">
-        <v>4275700</v>
+        <v>4305200</v>
       </c>
       <c r="J101" s="3">
-        <v>1868100</v>
+        <v>1881000</v>
       </c>
       <c r="K101" s="3">
         <v>1139300</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6709100</v>
+        <v>6755400</v>
       </c>
       <c r="E102" s="3">
-        <v>5193400</v>
+        <v>5229200</v>
       </c>
       <c r="F102" s="3">
-        <v>7440400</v>
+        <v>7491700</v>
       </c>
       <c r="G102" s="3">
-        <v>737600</v>
+        <v>742700</v>
       </c>
       <c r="H102" s="3">
-        <v>-6737900</v>
+        <v>-6784400</v>
       </c>
       <c r="I102" s="3">
-        <v>9285100</v>
+        <v>9349200</v>
       </c>
       <c r="J102" s="3">
-        <v>1790900</v>
+        <v>1803300</v>
       </c>
       <c r="K102" s="3">
         <v>4752900</v>

--- a/AAII_Financials/Yearly/BMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BMO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>BMO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,99 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44135</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43404</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43039</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42674</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42308</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41943</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41578</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41213</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40847</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18303400</v>
+        <v>15606100</v>
       </c>
       <c r="E8" s="3">
-        <v>20530600</v>
+        <v>18296200</v>
       </c>
       <c r="F8" s="3">
-        <v>16513500</v>
+        <v>20522500</v>
       </c>
       <c r="G8" s="3">
-        <v>13670100</v>
+        <v>16507000</v>
       </c>
       <c r="H8" s="3">
-        <v>11295300</v>
+        <v>13664700</v>
       </c>
       <c r="I8" s="3">
-        <v>10329700</v>
+        <v>11290800</v>
       </c>
       <c r="J8" s="3">
+        <v>10325600</v>
+      </c>
+      <c r="K8" s="3">
         <v>10105200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10211700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10252200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9621300</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -785,9 +791,12 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -821,9 +830,12 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,9 +925,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,45 +964,51 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-486700</v>
+        <v>-497500</v>
       </c>
       <c r="E15" s="3">
-        <v>-434900</v>
+        <v>-486500</v>
       </c>
       <c r="F15" s="3">
-        <v>-394900</v>
+        <v>-434700</v>
       </c>
       <c r="G15" s="3">
-        <v>-761500</v>
+        <v>-394700</v>
       </c>
       <c r="H15" s="3">
-        <v>-697100</v>
+        <v>-761200</v>
       </c>
       <c r="I15" s="3">
-        <v>-322700</v>
+        <v>-696800</v>
       </c>
       <c r="J15" s="3">
+        <v>-322500</v>
+      </c>
+      <c r="K15" s="3">
         <v>-599800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-266400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-246300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-177500</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8458900</v>
+        <v>4392200</v>
       </c>
       <c r="E17" s="3">
-        <v>11097500</v>
+        <v>8455600</v>
       </c>
       <c r="F17" s="3">
-        <v>8053800</v>
+        <v>11093100</v>
       </c>
       <c r="G17" s="3">
-        <v>5404300</v>
+        <v>8050600</v>
       </c>
       <c r="H17" s="3">
-        <v>4150600</v>
+        <v>5402200</v>
       </c>
       <c r="I17" s="3">
-        <v>3930700</v>
+        <v>4148900</v>
       </c>
       <c r="J17" s="3">
+        <v>3929200</v>
+      </c>
+      <c r="K17" s="3">
         <v>4035900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3983800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4169800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4810700</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9844500</v>
+        <v>11213900</v>
       </c>
       <c r="E18" s="3">
-        <v>9433200</v>
+        <v>9840600</v>
       </c>
       <c r="F18" s="3">
-        <v>8459700</v>
+        <v>9429400</v>
       </c>
       <c r="G18" s="3">
-        <v>8265800</v>
+        <v>8456400</v>
       </c>
       <c r="H18" s="3">
-        <v>7144700</v>
+        <v>8262500</v>
       </c>
       <c r="I18" s="3">
-        <v>6398900</v>
+        <v>7141900</v>
       </c>
       <c r="J18" s="3">
+        <v>6396400</v>
+      </c>
+      <c r="K18" s="3">
         <v>6069200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6227800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6082400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4810700</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,80 +1115,87 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4861000</v>
+        <v>-3164100</v>
       </c>
       <c r="E20" s="3">
-        <v>-3724300</v>
+        <v>-4859100</v>
       </c>
       <c r="F20" s="3">
-        <v>-2639300</v>
+        <v>-3722800</v>
       </c>
       <c r="G20" s="3">
-        <v>-3060100</v>
+        <v>-2638300</v>
       </c>
       <c r="H20" s="3">
-        <v>-2644800</v>
+        <v>-3058900</v>
       </c>
       <c r="I20" s="3">
-        <v>-2206000</v>
+        <v>-2643800</v>
       </c>
       <c r="J20" s="3">
+        <v>-2205100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1958700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2186300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2339100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1745400</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6094900</v>
+        <v>9162800</v>
       </c>
       <c r="E21" s="3">
-        <v>6482400</v>
+        <v>6091300</v>
       </c>
       <c r="F21" s="3">
-        <v>6526600</v>
+        <v>6479000</v>
       </c>
       <c r="G21" s="3">
-        <v>5890800</v>
+        <v>6523300</v>
       </c>
       <c r="H21" s="3">
-        <v>5147500</v>
+        <v>5887800</v>
       </c>
       <c r="I21" s="3">
-        <v>4810000</v>
+        <v>5144800</v>
       </c>
       <c r="J21" s="3">
+        <v>4807500</v>
+      </c>
+      <c r="K21" s="3">
         <v>4694800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4574900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4252000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3480500</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1190,81 +1229,90 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4983500</v>
+        <v>8049900</v>
       </c>
       <c r="E23" s="3">
-        <v>5708900</v>
+        <v>4981500</v>
       </c>
       <c r="F23" s="3">
-        <v>5820400</v>
+        <v>5706600</v>
       </c>
       <c r="G23" s="3">
-        <v>5205700</v>
+        <v>5818100</v>
       </c>
       <c r="H23" s="3">
-        <v>4499900</v>
+        <v>5203600</v>
       </c>
       <c r="I23" s="3">
-        <v>4193000</v>
+        <v>4498100</v>
       </c>
       <c r="J23" s="3">
+        <v>4191300</v>
+      </c>
+      <c r="K23" s="3">
         <v>4110500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4041600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3743400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3065200</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>982100</v>
+        <v>1965000</v>
       </c>
       <c r="E24" s="3">
-        <v>1188600</v>
+        <v>981700</v>
       </c>
       <c r="F24" s="3">
-        <v>1205800</v>
+        <v>1188100</v>
       </c>
       <c r="G24" s="3">
-        <v>1014300</v>
+        <v>1205400</v>
       </c>
       <c r="H24" s="3">
-        <v>864300</v>
+        <v>1013900</v>
       </c>
       <c r="I24" s="3">
-        <v>734800</v>
+        <v>864000</v>
       </c>
       <c r="J24" s="3">
+        <v>734500</v>
+      </c>
+      <c r="K24" s="3">
         <v>708900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>812200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>650400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>673000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4001400</v>
+        <v>6084900</v>
       </c>
       <c r="E26" s="3">
-        <v>4520300</v>
+        <v>3999800</v>
       </c>
       <c r="F26" s="3">
-        <v>4614500</v>
+        <v>4518500</v>
       </c>
       <c r="G26" s="3">
-        <v>4191400</v>
+        <v>4612700</v>
       </c>
       <c r="H26" s="3">
-        <v>3635600</v>
+        <v>4189700</v>
       </c>
       <c r="I26" s="3">
-        <v>3458100</v>
+        <v>3634100</v>
       </c>
       <c r="J26" s="3">
+        <v>3456800</v>
+      </c>
+      <c r="K26" s="3">
         <v>3401600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3229400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3092900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2392300</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3807500</v>
+        <v>5893400</v>
       </c>
       <c r="E27" s="3">
-        <v>4354700</v>
+        <v>3806000</v>
       </c>
       <c r="F27" s="3">
-        <v>4470100</v>
+        <v>4353000</v>
       </c>
       <c r="G27" s="3">
-        <v>4045400</v>
+        <v>4468300</v>
       </c>
       <c r="H27" s="3">
-        <v>3510700</v>
+        <v>4043800</v>
       </c>
       <c r="I27" s="3">
-        <v>3338800</v>
+        <v>3509400</v>
       </c>
       <c r="J27" s="3">
+        <v>3337500</v>
+      </c>
+      <c r="K27" s="3">
         <v>3263500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3087000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2936700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2209400</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1418,11 +1478,11 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
-        <v>-333600</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-333500</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
@@ -1439,12 +1499,15 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4861000</v>
+        <v>3164100</v>
       </c>
       <c r="E32" s="3">
-        <v>3724300</v>
+        <v>4859100</v>
       </c>
       <c r="F32" s="3">
-        <v>2639300</v>
+        <v>3722800</v>
       </c>
       <c r="G32" s="3">
-        <v>3060100</v>
+        <v>2638300</v>
       </c>
       <c r="H32" s="3">
-        <v>2644800</v>
+        <v>3058900</v>
       </c>
       <c r="I32" s="3">
-        <v>2206000</v>
+        <v>2643800</v>
       </c>
       <c r="J32" s="3">
+        <v>2205100</v>
+      </c>
+      <c r="K32" s="3">
         <v>1958700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2186300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2339100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1745400</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3807500</v>
+        <v>5893400</v>
       </c>
       <c r="E33" s="3">
-        <v>4354700</v>
+        <v>3806000</v>
       </c>
       <c r="F33" s="3">
-        <v>4136400</v>
+        <v>4353000</v>
       </c>
       <c r="G33" s="3">
-        <v>4045400</v>
+        <v>4134800</v>
       </c>
       <c r="H33" s="3">
-        <v>3510700</v>
+        <v>4043800</v>
       </c>
       <c r="I33" s="3">
-        <v>3338800</v>
+        <v>3509400</v>
       </c>
       <c r="J33" s="3">
+        <v>3337500</v>
+      </c>
+      <c r="K33" s="3">
         <v>3263500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3087000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2936700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2209400</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3807500</v>
+        <v>5893400</v>
       </c>
       <c r="E35" s="3">
-        <v>4354700</v>
+        <v>3806000</v>
       </c>
       <c r="F35" s="3">
-        <v>4136400</v>
+        <v>4353000</v>
       </c>
       <c r="G35" s="3">
-        <v>4045400</v>
+        <v>4134800</v>
       </c>
       <c r="H35" s="3">
-        <v>3510700</v>
+        <v>4043800</v>
       </c>
       <c r="I35" s="3">
-        <v>3338800</v>
+        <v>3509400</v>
       </c>
       <c r="J35" s="3">
+        <v>3337500</v>
+      </c>
+      <c r="K35" s="3">
         <v>3263500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3087000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2936700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2209400</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44135</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43404</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43039</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42674</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42308</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41943</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41578</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41213</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40847</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,80 +1817,87 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>45068200</v>
+        <v>73185600</v>
       </c>
       <c r="E41" s="3">
-        <v>38312800</v>
+        <v>45050400</v>
       </c>
       <c r="F41" s="3">
-        <v>66167200</v>
+        <v>38297700</v>
       </c>
       <c r="G41" s="3">
-        <v>51183700</v>
+        <v>66141000</v>
       </c>
       <c r="H41" s="3">
-        <v>49698400</v>
+        <v>51163500</v>
       </c>
       <c r="I41" s="3">
-        <v>31633600</v>
+        <v>49678800</v>
       </c>
       <c r="J41" s="3">
+        <v>31621100</v>
+      </c>
+      <c r="K41" s="3">
         <v>22284400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>40167700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14840300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15115700</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>217034000</v>
+        <v>218621000</v>
       </c>
       <c r="E42" s="3">
-        <v>186923000</v>
+        <v>216948000</v>
       </c>
       <c r="F42" s="3">
-        <v>182765000</v>
+        <v>186849000</v>
       </c>
       <c r="G42" s="3">
-        <v>190479000</v>
+        <v>182693000</v>
       </c>
       <c r="H42" s="3">
-        <v>122823000</v>
+        <v>190404000</v>
       </c>
       <c r="I42" s="3">
-        <v>116916000</v>
+        <v>122774000</v>
       </c>
       <c r="J42" s="3">
+        <v>116870000</v>
+      </c>
+      <c r="K42" s="3">
         <v>139997000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>117501000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>56894900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>58312500</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1839,9 +1931,12 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1875,9 +1970,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1911,9 +2009,12 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1947,9 +2048,12 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1983,81 +2087,90 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3283900</v>
+        <v>3495200</v>
       </c>
       <c r="E48" s="3">
-        <v>1613300</v>
+        <v>3282600</v>
       </c>
       <c r="F48" s="3">
-        <v>3118200</v>
+        <v>1612600</v>
       </c>
       <c r="G48" s="3">
-        <v>3192000</v>
+        <v>3117000</v>
       </c>
       <c r="H48" s="3">
-        <v>3371000</v>
+        <v>3190800</v>
       </c>
       <c r="I48" s="3">
-        <v>1793800</v>
+        <v>3369700</v>
       </c>
       <c r="J48" s="3">
+        <v>1793100</v>
+      </c>
+      <c r="K48" s="3">
         <v>1786800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3337900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1577700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1583300</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7047400</v>
+        <v>5998600</v>
       </c>
       <c r="E49" s="3">
-        <v>6880200</v>
+        <v>7044600</v>
       </c>
       <c r="F49" s="3">
-        <v>8570400</v>
+        <v>6877500</v>
       </c>
       <c r="G49" s="3">
-        <v>9138000</v>
+        <v>8567000</v>
       </c>
       <c r="H49" s="3">
-        <v>8429100</v>
+        <v>9134400</v>
       </c>
       <c r="I49" s="3">
-        <v>6497900</v>
+        <v>8425800</v>
       </c>
       <c r="J49" s="3">
+        <v>6495300</v>
+      </c>
+      <c r="K49" s="3">
         <v>5813300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5266300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3921200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4003200</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1283600</v>
+        <v>1784500</v>
       </c>
       <c r="E52" s="3">
-        <v>1413100</v>
+        <v>1283000</v>
       </c>
       <c r="F52" s="3">
-        <v>2122000</v>
+        <v>1412500</v>
       </c>
       <c r="G52" s="3">
-        <v>2648000</v>
+        <v>2121200</v>
       </c>
       <c r="H52" s="3">
-        <v>2527100</v>
+        <v>2646900</v>
       </c>
       <c r="I52" s="3">
-        <v>2876400</v>
+        <v>2526100</v>
       </c>
       <c r="J52" s="3">
+        <v>2875300</v>
+      </c>
+      <c r="K52" s="3">
         <v>2575000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2478100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3503000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3906400</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>745217000</v>
+        <v>775460000</v>
       </c>
       <c r="E54" s="3">
-        <v>669016000</v>
+        <v>744923000</v>
       </c>
       <c r="F54" s="3">
-        <v>607074000</v>
+        <v>668752000</v>
       </c>
       <c r="G54" s="3">
-        <v>557056000</v>
+        <v>606834000</v>
       </c>
       <c r="H54" s="3">
-        <v>540063000</v>
+        <v>556836000</v>
       </c>
       <c r="I54" s="3">
-        <v>503909000</v>
+        <v>539850000</v>
       </c>
       <c r="J54" s="3">
+        <v>503710000</v>
+      </c>
+      <c r="K54" s="3">
         <v>462127000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>413427000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>391044000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>384557000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,64 +2397,68 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9175700</v>
+        <v>10089400</v>
       </c>
       <c r="E57" s="3">
-        <v>8491900</v>
+        <v>9172000</v>
       </c>
       <c r="F57" s="3">
-        <v>7889800</v>
+        <v>8488500</v>
       </c>
       <c r="G57" s="3">
-        <v>7906200</v>
+        <v>7886600</v>
       </c>
       <c r="H57" s="3">
-        <v>7874100</v>
+        <v>7903100</v>
       </c>
       <c r="I57" s="3">
-        <v>6866800</v>
+        <v>7870900</v>
       </c>
       <c r="J57" s="3">
+        <v>6864100</v>
+      </c>
+      <c r="K57" s="3">
         <v>6055100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5840600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6660700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5440600</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>97017300</v>
+        <v>107436000</v>
       </c>
       <c r="E58" s="3">
-        <v>92376800</v>
+        <v>96979000</v>
       </c>
       <c r="F58" s="3">
-        <v>77869900</v>
+        <v>92340400</v>
       </c>
       <c r="G58" s="3">
-        <v>65885300</v>
+        <v>77839100</v>
       </c>
       <c r="H58" s="3">
-        <v>54816100</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
+        <v>65859300</v>
+      </c>
+      <c r="I58" s="3">
+        <v>54794500</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -2336,48 +2469,54 @@
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1165800</v>
+        <v>926800</v>
       </c>
       <c r="E59" s="3">
-        <v>1372300</v>
+        <v>1165300</v>
       </c>
       <c r="F59" s="3">
-        <v>1126500</v>
+        <v>1371700</v>
       </c>
       <c r="G59" s="3">
-        <v>912200</v>
+        <v>1126100</v>
       </c>
       <c r="H59" s="3">
-        <v>877700</v>
+        <v>911900</v>
       </c>
       <c r="I59" s="3">
-        <v>840800</v>
+        <v>877300</v>
       </c>
       <c r="J59" s="3">
+        <v>840500</v>
+      </c>
+      <c r="K59" s="3">
         <v>1008800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1012300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>727100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1519600</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2411,81 +2550,90 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>25252700</v>
+        <v>21850300</v>
       </c>
       <c r="E61" s="3">
-        <v>23075000</v>
+        <v>25242700</v>
       </c>
       <c r="F61" s="3">
-        <v>22083500</v>
+        <v>23065900</v>
       </c>
       <c r="G61" s="3">
-        <v>19186600</v>
+        <v>22074700</v>
       </c>
       <c r="H61" s="3">
-        <v>17910900</v>
+        <v>19179000</v>
       </c>
       <c r="I61" s="3">
-        <v>20481200</v>
+        <v>17903800</v>
       </c>
       <c r="J61" s="3">
+        <v>20473100</v>
+      </c>
+      <c r="K61" s="3">
         <v>21493100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>20290100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3046100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4108500</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1419400</v>
+        <v>1117500</v>
       </c>
       <c r="E62" s="3">
-        <v>1188600</v>
+        <v>1418800</v>
       </c>
       <c r="F62" s="3">
-        <v>1012700</v>
+        <v>1188100</v>
       </c>
       <c r="G62" s="3">
-        <v>1491600</v>
+        <v>1012300</v>
       </c>
       <c r="H62" s="3">
-        <v>1601500</v>
+        <v>1491000</v>
       </c>
       <c r="I62" s="3">
-        <v>1429600</v>
+        <v>1600900</v>
       </c>
       <c r="J62" s="3">
+        <v>1429000</v>
+      </c>
+      <c r="K62" s="3">
         <v>1264700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>994600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1239100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1634000</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>700789000</v>
+        <v>730320000</v>
       </c>
       <c r="E66" s="3">
-        <v>628919000</v>
+        <v>700512000</v>
       </c>
       <c r="F66" s="3">
-        <v>571180000</v>
+        <v>628670000</v>
       </c>
       <c r="G66" s="3">
-        <v>522236000</v>
+        <v>570955000</v>
       </c>
       <c r="H66" s="3">
-        <v>506853000</v>
+        <v>522030000</v>
       </c>
       <c r="I66" s="3">
-        <v>472960000</v>
+        <v>506653000</v>
       </c>
       <c r="J66" s="3">
+        <v>472774000</v>
+      </c>
+      <c r="K66" s="3">
         <v>435189000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>390250000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>369719000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>364312000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,45 +2879,51 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3681900</v>
+        <v>2864300</v>
       </c>
       <c r="E70" s="3">
-        <v>3681900</v>
+        <v>3680400</v>
       </c>
       <c r="F70" s="3">
-        <v>3407100</v>
+        <v>3680400</v>
       </c>
       <c r="G70" s="3">
-        <v>3328600</v>
+        <v>3405800</v>
       </c>
       <c r="H70" s="3">
-        <v>3014600</v>
+        <v>3327300</v>
       </c>
       <c r="I70" s="3">
-        <v>2543600</v>
+        <v>3013400</v>
       </c>
       <c r="J70" s="3">
+        <v>2542600</v>
+      </c>
+      <c r="K70" s="3">
         <v>2386600</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1743600</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1834500</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>2197900</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>24136400</v>
+        <v>27855900</v>
       </c>
       <c r="E72" s="3">
-        <v>22550600</v>
+        <v>24126800</v>
       </c>
       <c r="F72" s="3">
-        <v>20293500</v>
+        <v>22541700</v>
       </c>
       <c r="G72" s="3">
-        <v>18612800</v>
+        <v>22092000</v>
       </c>
       <c r="H72" s="3">
-        <v>16647000</v>
+        <v>18605400</v>
       </c>
       <c r="I72" s="3">
-        <v>14861000</v>
+        <v>20113700</v>
       </c>
       <c r="J72" s="3">
+        <v>14855100</v>
+      </c>
+      <c r="K72" s="3">
         <v>13531900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11614300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10076600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8743200</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>40746400</v>
+        <v>42276300</v>
       </c>
       <c r="E76" s="3">
-        <v>36415300</v>
+        <v>40730400</v>
       </c>
       <c r="F76" s="3">
-        <v>32486200</v>
+        <v>36401000</v>
       </c>
       <c r="G76" s="3">
-        <v>31491500</v>
+        <v>32473300</v>
       </c>
       <c r="H76" s="3">
-        <v>30196200</v>
+        <v>31479100</v>
       </c>
       <c r="I76" s="3">
-        <v>28404600</v>
+        <v>30184200</v>
       </c>
       <c r="J76" s="3">
+        <v>28393400</v>
+      </c>
+      <c r="K76" s="3">
         <v>24550800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21433400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19490800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18047300</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44135</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43404</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43039</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42674</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42308</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41943</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41578</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41213</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40847</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3807500</v>
+        <v>5893400</v>
       </c>
       <c r="E81" s="3">
-        <v>4354700</v>
+        <v>3806000</v>
       </c>
       <c r="F81" s="3">
-        <v>4136400</v>
+        <v>4353000</v>
       </c>
       <c r="G81" s="3">
-        <v>4045400</v>
+        <v>4134800</v>
       </c>
       <c r="H81" s="3">
-        <v>3510700</v>
+        <v>4043800</v>
       </c>
       <c r="I81" s="3">
-        <v>3338800</v>
+        <v>3509400</v>
       </c>
       <c r="J81" s="3">
+        <v>3337500</v>
+      </c>
+      <c r="K81" s="3">
         <v>3263500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3087000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2936700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2209400</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1115600</v>
+        <v>1118300</v>
       </c>
       <c r="E83" s="3">
-        <v>776400</v>
+        <v>1115100</v>
       </c>
       <c r="F83" s="3">
-        <v>708900</v>
+        <v>776100</v>
       </c>
       <c r="G83" s="3">
-        <v>687700</v>
+        <v>708600</v>
       </c>
       <c r="H83" s="3">
-        <v>650000</v>
+        <v>687400</v>
       </c>
       <c r="I83" s="3">
-        <v>619400</v>
+        <v>649800</v>
       </c>
       <c r="J83" s="3">
+        <v>619200</v>
+      </c>
+      <c r="K83" s="3">
         <v>586400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>534300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>507600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>413300</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>39908800</v>
+        <v>34567000</v>
       </c>
       <c r="E89" s="3">
-        <v>23004300</v>
+        <v>39893000</v>
       </c>
       <c r="F89" s="3">
-        <v>14061800</v>
+        <v>22995200</v>
       </c>
       <c r="G89" s="3">
-        <v>2282900</v>
+        <v>14056300</v>
       </c>
       <c r="H89" s="3">
-        <v>-2141600</v>
+        <v>2282000</v>
       </c>
       <c r="I89" s="3">
-        <v>1831500</v>
+        <v>-2140800</v>
       </c>
       <c r="J89" s="3">
+        <v>1830800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-2297800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8809800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7636300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1241500</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-313200</v>
+        <v>-379800</v>
       </c>
       <c r="E91" s="3">
-        <v>-375300</v>
+        <v>-313100</v>
       </c>
       <c r="F91" s="3">
-        <v>-259100</v>
+        <v>-375100</v>
       </c>
       <c r="G91" s="3">
-        <v>-236300</v>
+        <v>-259000</v>
       </c>
       <c r="H91" s="3">
-        <v>-175900</v>
+        <v>-236200</v>
       </c>
       <c r="I91" s="3">
+        <v>-175800</v>
+      </c>
+      <c r="J91" s="3">
         <v>-140500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-278700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-277900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-272400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-490900</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-25101200</v>
+        <v>-234600</v>
       </c>
       <c r="E94" s="3">
-        <v>-15371300</v>
+        <v>-25091300</v>
       </c>
       <c r="F94" s="3">
-        <v>-8897000</v>
+        <v>-15365200</v>
       </c>
       <c r="G94" s="3">
-        <v>-2476800</v>
+        <v>-8893500</v>
       </c>
       <c r="H94" s="3">
-        <v>-12036400</v>
+        <v>-2475900</v>
       </c>
       <c r="I94" s="3">
-        <v>3160600</v>
+        <v>-12031600</v>
       </c>
       <c r="J94" s="3">
+        <v>3159400</v>
+      </c>
+      <c r="K94" s="3">
         <v>2585200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1476500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5545900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>74500</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1943000</v>
+        <v>-2338500</v>
       </c>
       <c r="E96" s="3">
-        <v>-2160500</v>
+        <v>-1942200</v>
       </c>
       <c r="F96" s="3">
-        <v>-2027000</v>
+        <v>-2159600</v>
       </c>
       <c r="G96" s="3">
-        <v>-1578000</v>
+        <v>-2026200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1742000</v>
+        <v>-1577300</v>
       </c>
       <c r="I96" s="3">
-        <v>-1676100</v>
+        <v>-1741300</v>
       </c>
       <c r="J96" s="3">
+        <v>-1675400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1453100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1459600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1056000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1277600</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8089200</v>
+        <v>-4019400</v>
       </c>
       <c r="E100" s="3">
-        <v>-2050600</v>
+        <v>-8086000</v>
       </c>
       <c r="F100" s="3">
-        <v>2148700</v>
+        <v>-2049700</v>
       </c>
       <c r="G100" s="3">
-        <v>1567000</v>
+        <v>2147800</v>
       </c>
       <c r="H100" s="3">
-        <v>6316500</v>
+        <v>1566300</v>
       </c>
       <c r="I100" s="3">
+        <v>6314000</v>
+      </c>
+      <c r="J100" s="3">
         <v>51800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-365000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3719800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1513700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-146700</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2177700</v>
+      </c>
+      <c r="E101" s="3">
         <v>36900</v>
       </c>
-      <c r="E101" s="3">
-        <v>-353300</v>
-      </c>
       <c r="F101" s="3">
-        <v>178200</v>
+        <v>-353100</v>
       </c>
       <c r="G101" s="3">
-        <v>-630400</v>
+        <v>178100</v>
       </c>
       <c r="H101" s="3">
-        <v>1077100</v>
+        <v>-630100</v>
       </c>
       <c r="I101" s="3">
-        <v>4305200</v>
+        <v>1076700</v>
       </c>
       <c r="J101" s="3">
+        <v>4303500</v>
+      </c>
+      <c r="K101" s="3">
         <v>1881000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1139300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-363900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>533200</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6755400</v>
+        <v>28135300</v>
       </c>
       <c r="E102" s="3">
-        <v>5229200</v>
+        <v>6752700</v>
       </c>
       <c r="F102" s="3">
-        <v>7491700</v>
+        <v>5227200</v>
       </c>
       <c r="G102" s="3">
-        <v>742700</v>
+        <v>7488800</v>
       </c>
       <c r="H102" s="3">
-        <v>-6784400</v>
+        <v>742400</v>
       </c>
       <c r="I102" s="3">
-        <v>9349200</v>
+        <v>-6781700</v>
       </c>
       <c r="J102" s="3">
+        <v>9345500</v>
+      </c>
+      <c r="K102" s="3">
         <v>1803300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4752900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>212800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1702400</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BMO_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15606100</v>
+        <v>15246200</v>
       </c>
       <c r="E8" s="3">
-        <v>18296200</v>
+        <v>17874200</v>
       </c>
       <c r="F8" s="3">
-        <v>20522500</v>
+        <v>20049200</v>
       </c>
       <c r="G8" s="3">
-        <v>16507000</v>
+        <v>16126300</v>
       </c>
       <c r="H8" s="3">
-        <v>13664700</v>
+        <v>13349500</v>
       </c>
       <c r="I8" s="3">
-        <v>11290800</v>
+        <v>11030400</v>
       </c>
       <c r="J8" s="3">
-        <v>10325600</v>
+        <v>10087400</v>
       </c>
       <c r="K8" s="3">
         <v>10105200</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-497500</v>
+        <v>-486000</v>
       </c>
       <c r="E15" s="3">
-        <v>-486500</v>
+        <v>-475300</v>
       </c>
       <c r="F15" s="3">
-        <v>-434700</v>
+        <v>-424700</v>
       </c>
       <c r="G15" s="3">
-        <v>-394700</v>
+        <v>-385600</v>
       </c>
       <c r="H15" s="3">
-        <v>-761200</v>
+        <v>-743600</v>
       </c>
       <c r="I15" s="3">
-        <v>-696800</v>
+        <v>-680800</v>
       </c>
       <c r="J15" s="3">
-        <v>-322500</v>
+        <v>-315100</v>
       </c>
       <c r="K15" s="3">
         <v>-599800</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4392200</v>
+        <v>4290900</v>
       </c>
       <c r="E17" s="3">
-        <v>8455600</v>
+        <v>8260500</v>
       </c>
       <c r="F17" s="3">
-        <v>11093100</v>
+        <v>10837200</v>
       </c>
       <c r="G17" s="3">
-        <v>8050600</v>
+        <v>7865000</v>
       </c>
       <c r="H17" s="3">
-        <v>5402200</v>
+        <v>5277500</v>
       </c>
       <c r="I17" s="3">
-        <v>4148900</v>
+        <v>4053200</v>
       </c>
       <c r="J17" s="3">
-        <v>3929200</v>
+        <v>3838600</v>
       </c>
       <c r="K17" s="3">
         <v>4035900</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11213900</v>
+        <v>10955300</v>
       </c>
       <c r="E18" s="3">
-        <v>9840600</v>
+        <v>9613700</v>
       </c>
       <c r="F18" s="3">
-        <v>9429400</v>
+        <v>9211900</v>
       </c>
       <c r="G18" s="3">
-        <v>8456400</v>
+        <v>8261300</v>
       </c>
       <c r="H18" s="3">
-        <v>8262500</v>
+        <v>8072000</v>
       </c>
       <c r="I18" s="3">
-        <v>7141900</v>
+        <v>6977200</v>
       </c>
       <c r="J18" s="3">
-        <v>6396400</v>
+        <v>6248900</v>
       </c>
       <c r="K18" s="3">
         <v>6069200</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3164100</v>
+        <v>-3091100</v>
       </c>
       <c r="E20" s="3">
-        <v>-4859100</v>
+        <v>-4747000</v>
       </c>
       <c r="F20" s="3">
-        <v>-3722800</v>
+        <v>-3636900</v>
       </c>
       <c r="G20" s="3">
-        <v>-2638300</v>
+        <v>-2577400</v>
       </c>
       <c r="H20" s="3">
-        <v>-3058900</v>
+        <v>-2988400</v>
       </c>
       <c r="I20" s="3">
-        <v>-2643800</v>
+        <v>-2582800</v>
       </c>
       <c r="J20" s="3">
-        <v>-2205100</v>
+        <v>-2154300</v>
       </c>
       <c r="K20" s="3">
         <v>-1958700</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9162800</v>
+        <v>8960900</v>
       </c>
       <c r="E21" s="3">
-        <v>6091300</v>
+        <v>5960300</v>
       </c>
       <c r="F21" s="3">
-        <v>6479000</v>
+        <v>6336200</v>
       </c>
       <c r="G21" s="3">
-        <v>6523300</v>
+        <v>6378900</v>
       </c>
       <c r="H21" s="3">
-        <v>5887800</v>
+        <v>5757800</v>
       </c>
       <c r="I21" s="3">
-        <v>5144800</v>
+        <v>5031700</v>
       </c>
       <c r="J21" s="3">
-        <v>4807500</v>
+        <v>4701900</v>
       </c>
       <c r="K21" s="3">
         <v>4694800</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8049900</v>
+        <v>7864200</v>
       </c>
       <c r="E23" s="3">
-        <v>4981500</v>
+        <v>4866600</v>
       </c>
       <c r="F23" s="3">
-        <v>5706600</v>
+        <v>5575000</v>
       </c>
       <c r="G23" s="3">
-        <v>5818100</v>
+        <v>5683900</v>
       </c>
       <c r="H23" s="3">
-        <v>5203600</v>
+        <v>5083600</v>
       </c>
       <c r="I23" s="3">
-        <v>4498100</v>
+        <v>4394400</v>
       </c>
       <c r="J23" s="3">
-        <v>4191300</v>
+        <v>4094600</v>
       </c>
       <c r="K23" s="3">
         <v>4110500</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1965000</v>
+        <v>1919700</v>
       </c>
       <c r="E24" s="3">
-        <v>981700</v>
+        <v>959100</v>
       </c>
       <c r="F24" s="3">
-        <v>1188100</v>
+        <v>1160700</v>
       </c>
       <c r="G24" s="3">
-        <v>1205400</v>
+        <v>1177600</v>
       </c>
       <c r="H24" s="3">
-        <v>1013900</v>
+        <v>990500</v>
       </c>
       <c r="I24" s="3">
-        <v>864000</v>
+        <v>844100</v>
       </c>
       <c r="J24" s="3">
-        <v>734500</v>
+        <v>717600</v>
       </c>
       <c r="K24" s="3">
         <v>708900</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6084900</v>
+        <v>5944500</v>
       </c>
       <c r="E26" s="3">
-        <v>3999800</v>
+        <v>3907600</v>
       </c>
       <c r="F26" s="3">
-        <v>4518500</v>
+        <v>4414300</v>
       </c>
       <c r="G26" s="3">
-        <v>4612700</v>
+        <v>4506300</v>
       </c>
       <c r="H26" s="3">
-        <v>4189700</v>
+        <v>4093100</v>
       </c>
       <c r="I26" s="3">
-        <v>3634100</v>
+        <v>3550300</v>
       </c>
       <c r="J26" s="3">
-        <v>3456800</v>
+        <v>3377000</v>
       </c>
       <c r="K26" s="3">
         <v>3401600</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5893400</v>
+        <v>5757500</v>
       </c>
       <c r="E27" s="3">
-        <v>3806000</v>
+        <v>3718200</v>
       </c>
       <c r="F27" s="3">
-        <v>4353000</v>
+        <v>4252600</v>
       </c>
       <c r="G27" s="3">
-        <v>4468300</v>
+        <v>4365200</v>
       </c>
       <c r="H27" s="3">
-        <v>4043800</v>
+        <v>3950500</v>
       </c>
       <c r="I27" s="3">
-        <v>3509400</v>
+        <v>3428400</v>
       </c>
       <c r="J27" s="3">
-        <v>3337500</v>
+        <v>3260500</v>
       </c>
       <c r="K27" s="3">
         <v>3263500</v>
@@ -1482,7 +1482,7 @@
         <v>5</v>
       </c>
       <c r="G29" s="3">
-        <v>-333500</v>
+        <v>-325800</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3164100</v>
+        <v>3091100</v>
       </c>
       <c r="E32" s="3">
-        <v>4859100</v>
+        <v>4747000</v>
       </c>
       <c r="F32" s="3">
-        <v>3722800</v>
+        <v>3636900</v>
       </c>
       <c r="G32" s="3">
-        <v>2638300</v>
+        <v>2577400</v>
       </c>
       <c r="H32" s="3">
-        <v>3058900</v>
+        <v>2988400</v>
       </c>
       <c r="I32" s="3">
-        <v>2643800</v>
+        <v>2582800</v>
       </c>
       <c r="J32" s="3">
-        <v>2205100</v>
+        <v>2154300</v>
       </c>
       <c r="K32" s="3">
         <v>1958700</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5893400</v>
+        <v>5757500</v>
       </c>
       <c r="E33" s="3">
-        <v>3806000</v>
+        <v>3718200</v>
       </c>
       <c r="F33" s="3">
-        <v>4353000</v>
+        <v>4252600</v>
       </c>
       <c r="G33" s="3">
-        <v>4134800</v>
+        <v>4039400</v>
       </c>
       <c r="H33" s="3">
-        <v>4043800</v>
+        <v>3950500</v>
       </c>
       <c r="I33" s="3">
-        <v>3509400</v>
+        <v>3428400</v>
       </c>
       <c r="J33" s="3">
-        <v>3337500</v>
+        <v>3260500</v>
       </c>
       <c r="K33" s="3">
         <v>3263500</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5893400</v>
+        <v>5757500</v>
       </c>
       <c r="E35" s="3">
-        <v>3806000</v>
+        <v>3718200</v>
       </c>
       <c r="F35" s="3">
-        <v>4353000</v>
+        <v>4252600</v>
       </c>
       <c r="G35" s="3">
-        <v>4134800</v>
+        <v>4039400</v>
       </c>
       <c r="H35" s="3">
-        <v>4043800</v>
+        <v>3950500</v>
       </c>
       <c r="I35" s="3">
-        <v>3509400</v>
+        <v>3428400</v>
       </c>
       <c r="J35" s="3">
-        <v>3337500</v>
+        <v>3260500</v>
       </c>
       <c r="K35" s="3">
         <v>3263500</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>73185600</v>
+        <v>71497600</v>
       </c>
       <c r="E41" s="3">
-        <v>45050400</v>
+        <v>44011300</v>
       </c>
       <c r="F41" s="3">
-        <v>38297700</v>
+        <v>37414300</v>
       </c>
       <c r="G41" s="3">
-        <v>66141000</v>
+        <v>64615500</v>
       </c>
       <c r="H41" s="3">
-        <v>51163500</v>
+        <v>49983400</v>
       </c>
       <c r="I41" s="3">
-        <v>49678800</v>
+        <v>48532900</v>
       </c>
       <c r="J41" s="3">
-        <v>31621100</v>
+        <v>30891800</v>
       </c>
       <c r="K41" s="3">
         <v>22284400</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>218621000</v>
+        <v>213578000</v>
       </c>
       <c r="E42" s="3">
-        <v>216948000</v>
+        <v>211945000</v>
       </c>
       <c r="F42" s="3">
-        <v>186849000</v>
+        <v>182539000</v>
       </c>
       <c r="G42" s="3">
-        <v>182693000</v>
+        <v>178479000</v>
       </c>
       <c r="H42" s="3">
-        <v>190404000</v>
+        <v>186012000</v>
       </c>
       <c r="I42" s="3">
-        <v>122774000</v>
+        <v>119942000</v>
       </c>
       <c r="J42" s="3">
-        <v>116870000</v>
+        <v>114174000</v>
       </c>
       <c r="K42" s="3">
         <v>139997000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3495200</v>
+        <v>3414600</v>
       </c>
       <c r="E48" s="3">
-        <v>3282600</v>
+        <v>3206900</v>
       </c>
       <c r="F48" s="3">
-        <v>1612600</v>
+        <v>1575400</v>
       </c>
       <c r="G48" s="3">
-        <v>3117000</v>
+        <v>3045100</v>
       </c>
       <c r="H48" s="3">
-        <v>3190800</v>
+        <v>3117200</v>
       </c>
       <c r="I48" s="3">
-        <v>3369700</v>
+        <v>3292000</v>
       </c>
       <c r="J48" s="3">
-        <v>1793100</v>
+        <v>1751800</v>
       </c>
       <c r="K48" s="3">
         <v>1786800</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5998600</v>
+        <v>5860200</v>
       </c>
       <c r="E49" s="3">
-        <v>7044600</v>
+        <v>6882100</v>
       </c>
       <c r="F49" s="3">
-        <v>6877500</v>
+        <v>6718800</v>
       </c>
       <c r="G49" s="3">
-        <v>8567000</v>
+        <v>8369400</v>
       </c>
       <c r="H49" s="3">
-        <v>9134400</v>
+        <v>8923700</v>
       </c>
       <c r="I49" s="3">
-        <v>8425800</v>
+        <v>8231400</v>
       </c>
       <c r="J49" s="3">
-        <v>6495300</v>
+        <v>6345500</v>
       </c>
       <c r="K49" s="3">
         <v>5813300</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1784500</v>
+        <v>1743300</v>
       </c>
       <c r="E52" s="3">
-        <v>1283000</v>
+        <v>1253500</v>
       </c>
       <c r="F52" s="3">
-        <v>1412500</v>
+        <v>1380000</v>
       </c>
       <c r="G52" s="3">
-        <v>2121200</v>
+        <v>2072200</v>
       </c>
       <c r="H52" s="3">
-        <v>2646900</v>
+        <v>2585900</v>
       </c>
       <c r="I52" s="3">
-        <v>2526100</v>
+        <v>2467800</v>
       </c>
       <c r="J52" s="3">
-        <v>2875300</v>
+        <v>2809000</v>
       </c>
       <c r="K52" s="3">
         <v>2575000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>775460000</v>
+        <v>757575000</v>
       </c>
       <c r="E54" s="3">
-        <v>744923000</v>
+        <v>727742000</v>
       </c>
       <c r="F54" s="3">
-        <v>668752000</v>
+        <v>653327000</v>
       </c>
       <c r="G54" s="3">
-        <v>606834000</v>
+        <v>592837000</v>
       </c>
       <c r="H54" s="3">
-        <v>556836000</v>
+        <v>543992000</v>
       </c>
       <c r="I54" s="3">
-        <v>539850000</v>
+        <v>527399000</v>
       </c>
       <c r="J54" s="3">
-        <v>503710000</v>
+        <v>492092000</v>
       </c>
       <c r="K54" s="3">
         <v>462127000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10089400</v>
+        <v>9856700</v>
       </c>
       <c r="E57" s="3">
-        <v>9172000</v>
+        <v>8960500</v>
       </c>
       <c r="F57" s="3">
-        <v>8488500</v>
+        <v>8292700</v>
       </c>
       <c r="G57" s="3">
-        <v>7886600</v>
+        <v>7704700</v>
       </c>
       <c r="H57" s="3">
-        <v>7903100</v>
+        <v>7720800</v>
       </c>
       <c r="I57" s="3">
-        <v>7870900</v>
+        <v>7689400</v>
       </c>
       <c r="J57" s="3">
-        <v>6864100</v>
+        <v>6705800</v>
       </c>
       <c r="K57" s="3">
         <v>6055100</v>
@@ -2443,22 +2443,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>107436000</v>
+        <v>104958000</v>
       </c>
       <c r="E58" s="3">
-        <v>96979000</v>
+        <v>94742100</v>
       </c>
       <c r="F58" s="3">
-        <v>92340400</v>
+        <v>90210500</v>
       </c>
       <c r="G58" s="3">
-        <v>77839100</v>
+        <v>76043800</v>
       </c>
       <c r="H58" s="3">
-        <v>65859300</v>
+        <v>64340300</v>
       </c>
       <c r="I58" s="3">
-        <v>54794500</v>
+        <v>53530600</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>926800</v>
+        <v>905400</v>
       </c>
       <c r="E59" s="3">
-        <v>1165300</v>
+        <v>1138500</v>
       </c>
       <c r="F59" s="3">
-        <v>1371700</v>
+        <v>1340100</v>
       </c>
       <c r="G59" s="3">
-        <v>1126100</v>
+        <v>1100100</v>
       </c>
       <c r="H59" s="3">
-        <v>911900</v>
+        <v>890800</v>
       </c>
       <c r="I59" s="3">
-        <v>877300</v>
+        <v>857100</v>
       </c>
       <c r="J59" s="3">
-        <v>840500</v>
+        <v>821100</v>
       </c>
       <c r="K59" s="3">
         <v>1008800</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>21850300</v>
+        <v>21346300</v>
       </c>
       <c r="E61" s="3">
-        <v>25242700</v>
+        <v>24660500</v>
       </c>
       <c r="F61" s="3">
-        <v>23065900</v>
+        <v>22533800</v>
       </c>
       <c r="G61" s="3">
-        <v>22074700</v>
+        <v>21565600</v>
       </c>
       <c r="H61" s="3">
-        <v>19179000</v>
+        <v>18736700</v>
       </c>
       <c r="I61" s="3">
-        <v>17903800</v>
+        <v>17490900</v>
       </c>
       <c r="J61" s="3">
-        <v>20473100</v>
+        <v>20000900</v>
       </c>
       <c r="K61" s="3">
         <v>21493100</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1117500</v>
+        <v>1091700</v>
       </c>
       <c r="E62" s="3">
-        <v>1418800</v>
+        <v>1386100</v>
       </c>
       <c r="F62" s="3">
-        <v>1188100</v>
+        <v>1160700</v>
       </c>
       <c r="G62" s="3">
-        <v>1012300</v>
+        <v>989000</v>
       </c>
       <c r="H62" s="3">
-        <v>1491000</v>
+        <v>1456600</v>
       </c>
       <c r="I62" s="3">
-        <v>1600900</v>
+        <v>1563900</v>
       </c>
       <c r="J62" s="3">
-        <v>1429000</v>
+        <v>1396100</v>
       </c>
       <c r="K62" s="3">
         <v>1264700</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>730320000</v>
+        <v>713475000</v>
       </c>
       <c r="E66" s="3">
-        <v>700512000</v>
+        <v>684355000</v>
       </c>
       <c r="F66" s="3">
-        <v>628670000</v>
+        <v>614170000</v>
       </c>
       <c r="G66" s="3">
-        <v>570955000</v>
+        <v>557786000</v>
       </c>
       <c r="H66" s="3">
-        <v>522030000</v>
+        <v>509989000</v>
       </c>
       <c r="I66" s="3">
-        <v>506653000</v>
+        <v>494967000</v>
       </c>
       <c r="J66" s="3">
-        <v>472774000</v>
+        <v>461869000</v>
       </c>
       <c r="K66" s="3">
         <v>435189000</v>
@@ -2889,25 +2889,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2864300</v>
+        <v>2798200</v>
       </c>
       <c r="E70" s="3">
-        <v>3680400</v>
+        <v>3595500</v>
       </c>
       <c r="F70" s="3">
-        <v>3680400</v>
+        <v>3595500</v>
       </c>
       <c r="G70" s="3">
-        <v>3405800</v>
+        <v>3327200</v>
       </c>
       <c r="H70" s="3">
-        <v>3327300</v>
+        <v>3250600</v>
       </c>
       <c r="I70" s="3">
-        <v>3013400</v>
+        <v>2943900</v>
       </c>
       <c r="J70" s="3">
-        <v>2542600</v>
+        <v>2483900</v>
       </c>
       <c r="K70" s="3">
         <v>2386600</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>27855900</v>
+        <v>27213400</v>
       </c>
       <c r="E72" s="3">
-        <v>24126800</v>
+        <v>23570300</v>
       </c>
       <c r="F72" s="3">
-        <v>22541700</v>
+        <v>22021700</v>
       </c>
       <c r="G72" s="3">
-        <v>22092000</v>
+        <v>21582400</v>
       </c>
       <c r="H72" s="3">
-        <v>18605400</v>
+        <v>18176300</v>
       </c>
       <c r="I72" s="3">
-        <v>20113700</v>
+        <v>19649700</v>
       </c>
       <c r="J72" s="3">
-        <v>14855100</v>
+        <v>14512500</v>
       </c>
       <c r="K72" s="3">
         <v>13531900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>42276300</v>
+        <v>41301200</v>
       </c>
       <c r="E76" s="3">
-        <v>40730400</v>
+        <v>39791000</v>
       </c>
       <c r="F76" s="3">
-        <v>36401000</v>
+        <v>35561400</v>
       </c>
       <c r="G76" s="3">
-        <v>32473300</v>
+        <v>31724300</v>
       </c>
       <c r="H76" s="3">
-        <v>31479100</v>
+        <v>30753000</v>
       </c>
       <c r="I76" s="3">
-        <v>30184200</v>
+        <v>29488000</v>
       </c>
       <c r="J76" s="3">
-        <v>28393400</v>
+        <v>27738600</v>
       </c>
       <c r="K76" s="3">
         <v>24550800</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5893400</v>
+        <v>5757500</v>
       </c>
       <c r="E81" s="3">
-        <v>3806000</v>
+        <v>3718200</v>
       </c>
       <c r="F81" s="3">
-        <v>4353000</v>
+        <v>4252600</v>
       </c>
       <c r="G81" s="3">
-        <v>4134800</v>
+        <v>4039400</v>
       </c>
       <c r="H81" s="3">
-        <v>4043800</v>
+        <v>3950500</v>
       </c>
       <c r="I81" s="3">
-        <v>3509400</v>
+        <v>3428400</v>
       </c>
       <c r="J81" s="3">
-        <v>3337500</v>
+        <v>3260500</v>
       </c>
       <c r="K81" s="3">
         <v>3263500</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1118300</v>
+        <v>1092500</v>
       </c>
       <c r="E83" s="3">
-        <v>1115100</v>
+        <v>1089400</v>
       </c>
       <c r="F83" s="3">
-        <v>776100</v>
+        <v>758200</v>
       </c>
       <c r="G83" s="3">
-        <v>708600</v>
+        <v>692300</v>
       </c>
       <c r="H83" s="3">
-        <v>687400</v>
+        <v>671600</v>
       </c>
       <c r="I83" s="3">
-        <v>649800</v>
+        <v>634800</v>
       </c>
       <c r="J83" s="3">
-        <v>619200</v>
+        <v>604900</v>
       </c>
       <c r="K83" s="3">
         <v>586400</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>34567000</v>
+        <v>33769700</v>
       </c>
       <c r="E89" s="3">
-        <v>39893000</v>
+        <v>38972900</v>
       </c>
       <c r="F89" s="3">
-        <v>22995200</v>
+        <v>22464900</v>
       </c>
       <c r="G89" s="3">
-        <v>14056300</v>
+        <v>13732100</v>
       </c>
       <c r="H89" s="3">
-        <v>2282000</v>
+        <v>2229400</v>
       </c>
       <c r="I89" s="3">
-        <v>-2140800</v>
+        <v>-2091400</v>
       </c>
       <c r="J89" s="3">
-        <v>1830800</v>
+        <v>1788600</v>
       </c>
       <c r="K89" s="3">
         <v>-2297800</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-379800</v>
+        <v>-371100</v>
       </c>
       <c r="E91" s="3">
-        <v>-313100</v>
+        <v>-305900</v>
       </c>
       <c r="F91" s="3">
-        <v>-375100</v>
+        <v>-366500</v>
       </c>
       <c r="G91" s="3">
-        <v>-259000</v>
+        <v>-253000</v>
       </c>
       <c r="H91" s="3">
-        <v>-236200</v>
+        <v>-230800</v>
       </c>
       <c r="I91" s="3">
-        <v>-175800</v>
+        <v>-171700</v>
       </c>
       <c r="J91" s="3">
-        <v>-140500</v>
+        <v>-137200</v>
       </c>
       <c r="K91" s="3">
         <v>-278700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-234600</v>
+        <v>-229200</v>
       </c>
       <c r="E94" s="3">
-        <v>-25091300</v>
+        <v>-24512500</v>
       </c>
       <c r="F94" s="3">
-        <v>-15365200</v>
+        <v>-15010800</v>
       </c>
       <c r="G94" s="3">
-        <v>-8893500</v>
+        <v>-8688300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2475900</v>
+        <v>-2418700</v>
       </c>
       <c r="I94" s="3">
-        <v>-12031600</v>
+        <v>-11754100</v>
       </c>
       <c r="J94" s="3">
-        <v>3159400</v>
+        <v>3086500</v>
       </c>
       <c r="K94" s="3">
         <v>2585200</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2338500</v>
+        <v>-2284600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1942200</v>
+        <v>-1897400</v>
       </c>
       <c r="F96" s="3">
-        <v>-2159600</v>
+        <v>-2109800</v>
       </c>
       <c r="G96" s="3">
-        <v>-2026200</v>
+        <v>-1979500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1577300</v>
+        <v>-1540900</v>
       </c>
       <c r="I96" s="3">
-        <v>-1741300</v>
+        <v>-1701200</v>
       </c>
       <c r="J96" s="3">
-        <v>-1675400</v>
+        <v>-1636800</v>
       </c>
       <c r="K96" s="3">
         <v>-1453100</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4019400</v>
+        <v>-3926700</v>
       </c>
       <c r="E100" s="3">
-        <v>-8086000</v>
+        <v>-7899500</v>
       </c>
       <c r="F100" s="3">
-        <v>-2049700</v>
+        <v>-2002500</v>
       </c>
       <c r="G100" s="3">
-        <v>2147800</v>
+        <v>2098300</v>
       </c>
       <c r="H100" s="3">
-        <v>1566300</v>
+        <v>1530200</v>
       </c>
       <c r="I100" s="3">
-        <v>6314000</v>
+        <v>6168400</v>
       </c>
       <c r="J100" s="3">
-        <v>51800</v>
+        <v>50600</v>
       </c>
       <c r="K100" s="3">
         <v>-365000</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2177700</v>
+        <v>-2127400</v>
       </c>
       <c r="E101" s="3">
-        <v>36900</v>
+        <v>36000</v>
       </c>
       <c r="F101" s="3">
-        <v>-353100</v>
+        <v>-345000</v>
       </c>
       <c r="G101" s="3">
-        <v>178100</v>
+        <v>174000</v>
       </c>
       <c r="H101" s="3">
-        <v>-630100</v>
+        <v>-615600</v>
       </c>
       <c r="I101" s="3">
-        <v>1076700</v>
+        <v>1051800</v>
       </c>
       <c r="J101" s="3">
-        <v>4303500</v>
+        <v>4204300</v>
       </c>
       <c r="K101" s="3">
         <v>1881000</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>28135300</v>
+        <v>27486300</v>
       </c>
       <c r="E102" s="3">
-        <v>6752700</v>
+        <v>6596900</v>
       </c>
       <c r="F102" s="3">
-        <v>5227200</v>
+        <v>5106600</v>
       </c>
       <c r="G102" s="3">
-        <v>7488800</v>
+        <v>7316000</v>
       </c>
       <c r="H102" s="3">
-        <v>742400</v>
+        <v>725200</v>
       </c>
       <c r="I102" s="3">
-        <v>-6781700</v>
+        <v>-6625300</v>
       </c>
       <c r="J102" s="3">
-        <v>9345500</v>
+        <v>9129900</v>
       </c>
       <c r="K102" s="3">
         <v>1803300</v>

--- a/AAII_Financials/Yearly/BMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BMO_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15246200</v>
+        <v>15387600</v>
       </c>
       <c r="E8" s="3">
-        <v>17874200</v>
+        <v>18040000</v>
       </c>
       <c r="F8" s="3">
-        <v>20049200</v>
+        <v>20235100</v>
       </c>
       <c r="G8" s="3">
-        <v>16126300</v>
+        <v>16275800</v>
       </c>
       <c r="H8" s="3">
-        <v>13349500</v>
+        <v>13473300</v>
       </c>
       <c r="I8" s="3">
-        <v>11030400</v>
+        <v>11132700</v>
       </c>
       <c r="J8" s="3">
-        <v>10087400</v>
+        <v>10181000</v>
       </c>
       <c r="K8" s="3">
         <v>10105200</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-486000</v>
+        <v>-490600</v>
       </c>
       <c r="E15" s="3">
-        <v>-475300</v>
+        <v>-479700</v>
       </c>
       <c r="F15" s="3">
-        <v>-424700</v>
+        <v>-428700</v>
       </c>
       <c r="G15" s="3">
-        <v>-385600</v>
+        <v>-389200</v>
       </c>
       <c r="H15" s="3">
-        <v>-743600</v>
+        <v>-750500</v>
       </c>
       <c r="I15" s="3">
-        <v>-680800</v>
+        <v>-687100</v>
       </c>
       <c r="J15" s="3">
-        <v>-315100</v>
+        <v>-318000</v>
       </c>
       <c r="K15" s="3">
         <v>-599800</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4290900</v>
+        <v>4330700</v>
       </c>
       <c r="E17" s="3">
-        <v>8260500</v>
+        <v>8337200</v>
       </c>
       <c r="F17" s="3">
-        <v>10837200</v>
+        <v>10937700</v>
       </c>
       <c r="G17" s="3">
-        <v>7865000</v>
+        <v>7937900</v>
       </c>
       <c r="H17" s="3">
-        <v>5277500</v>
+        <v>5326500</v>
       </c>
       <c r="I17" s="3">
-        <v>4053200</v>
+        <v>4090800</v>
       </c>
       <c r="J17" s="3">
-        <v>3838600</v>
+        <v>3874200</v>
       </c>
       <c r="K17" s="3">
         <v>4035900</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10955300</v>
+        <v>11056900</v>
       </c>
       <c r="E18" s="3">
-        <v>9613700</v>
+        <v>9702800</v>
       </c>
       <c r="F18" s="3">
-        <v>9211900</v>
+        <v>9297400</v>
       </c>
       <c r="G18" s="3">
-        <v>8261300</v>
+        <v>8337900</v>
       </c>
       <c r="H18" s="3">
-        <v>8072000</v>
+        <v>8146800</v>
       </c>
       <c r="I18" s="3">
-        <v>6977200</v>
+        <v>7041900</v>
       </c>
       <c r="J18" s="3">
-        <v>6248900</v>
+        <v>6306800</v>
       </c>
       <c r="K18" s="3">
         <v>6069200</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3091100</v>
+        <v>-3119800</v>
       </c>
       <c r="E20" s="3">
-        <v>-4747000</v>
+        <v>-4791100</v>
       </c>
       <c r="F20" s="3">
-        <v>-3636900</v>
+        <v>-3670700</v>
       </c>
       <c r="G20" s="3">
-        <v>-2577400</v>
+        <v>-2601300</v>
       </c>
       <c r="H20" s="3">
-        <v>-2988400</v>
+        <v>-3016100</v>
       </c>
       <c r="I20" s="3">
-        <v>-2582800</v>
+        <v>-2606800</v>
       </c>
       <c r="J20" s="3">
-        <v>-2154300</v>
+        <v>-2174200</v>
       </c>
       <c r="K20" s="3">
         <v>-1958700</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8960900</v>
+        <v>9036200</v>
       </c>
       <c r="E21" s="3">
-        <v>5960300</v>
+        <v>6007800</v>
       </c>
       <c r="F21" s="3">
-        <v>6336200</v>
+        <v>6389500</v>
       </c>
       <c r="G21" s="3">
-        <v>6378900</v>
+        <v>6433100</v>
       </c>
       <c r="H21" s="3">
-        <v>5757800</v>
+        <v>5806400</v>
       </c>
       <c r="I21" s="3">
-        <v>5031700</v>
+        <v>5073800</v>
       </c>
       <c r="J21" s="3">
-        <v>4701900</v>
+        <v>4741200</v>
       </c>
       <c r="K21" s="3">
         <v>4694800</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7864200</v>
+        <v>7937100</v>
       </c>
       <c r="E23" s="3">
-        <v>4866600</v>
+        <v>4911800</v>
       </c>
       <c r="F23" s="3">
-        <v>5575000</v>
+        <v>5626700</v>
       </c>
       <c r="G23" s="3">
-        <v>5683900</v>
+        <v>5736600</v>
       </c>
       <c r="H23" s="3">
-        <v>5083600</v>
+        <v>5130700</v>
       </c>
       <c r="I23" s="3">
-        <v>4394400</v>
+        <v>4435100</v>
       </c>
       <c r="J23" s="3">
-        <v>4094600</v>
+        <v>4132600</v>
       </c>
       <c r="K23" s="3">
         <v>4110500</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1919700</v>
+        <v>1937500</v>
       </c>
       <c r="E24" s="3">
-        <v>959100</v>
+        <v>968000</v>
       </c>
       <c r="F24" s="3">
-        <v>1160700</v>
+        <v>1171500</v>
       </c>
       <c r="G24" s="3">
-        <v>1177600</v>
+        <v>1188500</v>
       </c>
       <c r="H24" s="3">
-        <v>990500</v>
+        <v>999700</v>
       </c>
       <c r="I24" s="3">
-        <v>844100</v>
+        <v>851900</v>
       </c>
       <c r="J24" s="3">
-        <v>717600</v>
+        <v>724200</v>
       </c>
       <c r="K24" s="3">
         <v>708900</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5944500</v>
+        <v>5999700</v>
       </c>
       <c r="E26" s="3">
-        <v>3907600</v>
+        <v>3943800</v>
       </c>
       <c r="F26" s="3">
-        <v>4414300</v>
+        <v>4455300</v>
       </c>
       <c r="G26" s="3">
-        <v>4506300</v>
+        <v>4548100</v>
       </c>
       <c r="H26" s="3">
-        <v>4093100</v>
+        <v>4131100</v>
       </c>
       <c r="I26" s="3">
-        <v>3550300</v>
+        <v>3583200</v>
       </c>
       <c r="J26" s="3">
-        <v>3377000</v>
+        <v>3408400</v>
       </c>
       <c r="K26" s="3">
         <v>3401600</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5757500</v>
+        <v>5810900</v>
       </c>
       <c r="E27" s="3">
-        <v>3718200</v>
+        <v>3752700</v>
       </c>
       <c r="F27" s="3">
-        <v>4252600</v>
+        <v>4292000</v>
       </c>
       <c r="G27" s="3">
-        <v>4365200</v>
+        <v>4405700</v>
       </c>
       <c r="H27" s="3">
-        <v>3950500</v>
+        <v>3987100</v>
       </c>
       <c r="I27" s="3">
-        <v>3428400</v>
+        <v>3460200</v>
       </c>
       <c r="J27" s="3">
-        <v>3260500</v>
+        <v>3290800</v>
       </c>
       <c r="K27" s="3">
         <v>3263500</v>
@@ -1482,7 +1482,7 @@
         <v>5</v>
       </c>
       <c r="G29" s="3">
-        <v>-325800</v>
+        <v>-328800</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3091100</v>
+        <v>3119800</v>
       </c>
       <c r="E32" s="3">
-        <v>4747000</v>
+        <v>4791100</v>
       </c>
       <c r="F32" s="3">
-        <v>3636900</v>
+        <v>3670700</v>
       </c>
       <c r="G32" s="3">
-        <v>2577400</v>
+        <v>2601300</v>
       </c>
       <c r="H32" s="3">
-        <v>2988400</v>
+        <v>3016100</v>
       </c>
       <c r="I32" s="3">
-        <v>2582800</v>
+        <v>2606800</v>
       </c>
       <c r="J32" s="3">
-        <v>2154300</v>
+        <v>2174200</v>
       </c>
       <c r="K32" s="3">
         <v>1958700</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5757500</v>
+        <v>5810900</v>
       </c>
       <c r="E33" s="3">
-        <v>3718200</v>
+        <v>3752700</v>
       </c>
       <c r="F33" s="3">
-        <v>4252600</v>
+        <v>4292000</v>
       </c>
       <c r="G33" s="3">
-        <v>4039400</v>
+        <v>4076900</v>
       </c>
       <c r="H33" s="3">
-        <v>3950500</v>
+        <v>3987100</v>
       </c>
       <c r="I33" s="3">
-        <v>3428400</v>
+        <v>3460200</v>
       </c>
       <c r="J33" s="3">
-        <v>3260500</v>
+        <v>3290800</v>
       </c>
       <c r="K33" s="3">
         <v>3263500</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5757500</v>
+        <v>5810900</v>
       </c>
       <c r="E35" s="3">
-        <v>3718200</v>
+        <v>3752700</v>
       </c>
       <c r="F35" s="3">
-        <v>4252600</v>
+        <v>4292000</v>
       </c>
       <c r="G35" s="3">
-        <v>4039400</v>
+        <v>4076900</v>
       </c>
       <c r="H35" s="3">
-        <v>3950500</v>
+        <v>3987100</v>
       </c>
       <c r="I35" s="3">
-        <v>3428400</v>
+        <v>3460200</v>
       </c>
       <c r="J35" s="3">
-        <v>3260500</v>
+        <v>3290800</v>
       </c>
       <c r="K35" s="3">
         <v>3263500</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>71497600</v>
+        <v>72160700</v>
       </c>
       <c r="E41" s="3">
-        <v>44011300</v>
+        <v>44419400</v>
       </c>
       <c r="F41" s="3">
-        <v>37414300</v>
+        <v>37761300</v>
       </c>
       <c r="G41" s="3">
-        <v>64615500</v>
+        <v>65214700</v>
       </c>
       <c r="H41" s="3">
-        <v>49983400</v>
+        <v>50447000</v>
       </c>
       <c r="I41" s="3">
-        <v>48532900</v>
+        <v>48983000</v>
       </c>
       <c r="J41" s="3">
-        <v>30891800</v>
+        <v>31178300</v>
       </c>
       <c r="K41" s="3">
         <v>22284400</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>213578000</v>
+        <v>215559000</v>
       </c>
       <c r="E42" s="3">
-        <v>211945000</v>
+        <v>213910000</v>
       </c>
       <c r="F42" s="3">
-        <v>182539000</v>
+        <v>184232000</v>
       </c>
       <c r="G42" s="3">
-        <v>178479000</v>
+        <v>180134000</v>
       </c>
       <c r="H42" s="3">
-        <v>186012000</v>
+        <v>187737000</v>
       </c>
       <c r="I42" s="3">
-        <v>119942000</v>
+        <v>121055000</v>
       </c>
       <c r="J42" s="3">
-        <v>114174000</v>
+        <v>115233000</v>
       </c>
       <c r="K42" s="3">
         <v>139997000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3414600</v>
+        <v>3446300</v>
       </c>
       <c r="E48" s="3">
-        <v>3206900</v>
+        <v>3236600</v>
       </c>
       <c r="F48" s="3">
-        <v>1575400</v>
+        <v>1590100</v>
       </c>
       <c r="G48" s="3">
-        <v>3045100</v>
+        <v>3073300</v>
       </c>
       <c r="H48" s="3">
-        <v>3117200</v>
+        <v>3146100</v>
       </c>
       <c r="I48" s="3">
-        <v>3292000</v>
+        <v>3322500</v>
       </c>
       <c r="J48" s="3">
-        <v>1751800</v>
+        <v>1768000</v>
       </c>
       <c r="K48" s="3">
         <v>1786800</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5860200</v>
+        <v>5914500</v>
       </c>
       <c r="E49" s="3">
-        <v>6882100</v>
+        <v>6946000</v>
       </c>
       <c r="F49" s="3">
-        <v>6718800</v>
+        <v>6781100</v>
       </c>
       <c r="G49" s="3">
-        <v>8369400</v>
+        <v>8447000</v>
       </c>
       <c r="H49" s="3">
-        <v>8923700</v>
+        <v>9006500</v>
       </c>
       <c r="I49" s="3">
-        <v>8231400</v>
+        <v>8307800</v>
       </c>
       <c r="J49" s="3">
-        <v>6345500</v>
+        <v>6404300</v>
       </c>
       <c r="K49" s="3">
         <v>5813300</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1743300</v>
+        <v>1759500</v>
       </c>
       <c r="E52" s="3">
-        <v>1253500</v>
+        <v>1265100</v>
       </c>
       <c r="F52" s="3">
-        <v>1380000</v>
+        <v>1392800</v>
       </c>
       <c r="G52" s="3">
-        <v>2072200</v>
+        <v>2091400</v>
       </c>
       <c r="H52" s="3">
-        <v>2585900</v>
+        <v>2609900</v>
       </c>
       <c r="I52" s="3">
-        <v>2467800</v>
+        <v>2490700</v>
       </c>
       <c r="J52" s="3">
-        <v>2809000</v>
+        <v>2835000</v>
       </c>
       <c r="K52" s="3">
         <v>2575000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>757575000</v>
+        <v>764600000</v>
       </c>
       <c r="E54" s="3">
-        <v>727742000</v>
+        <v>734491000</v>
       </c>
       <c r="F54" s="3">
-        <v>653327000</v>
+        <v>659386000</v>
       </c>
       <c r="G54" s="3">
-        <v>592837000</v>
+        <v>598336000</v>
       </c>
       <c r="H54" s="3">
-        <v>543992000</v>
+        <v>549038000</v>
       </c>
       <c r="I54" s="3">
-        <v>527399000</v>
+        <v>532290000</v>
       </c>
       <c r="J54" s="3">
-        <v>492092000</v>
+        <v>496655000</v>
       </c>
       <c r="K54" s="3">
         <v>462127000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9856700</v>
+        <v>9948100</v>
       </c>
       <c r="E57" s="3">
-        <v>8960500</v>
+        <v>9043600</v>
       </c>
       <c r="F57" s="3">
-        <v>8292700</v>
+        <v>8369700</v>
       </c>
       <c r="G57" s="3">
-        <v>7704700</v>
+        <v>7776200</v>
       </c>
       <c r="H57" s="3">
-        <v>7720800</v>
+        <v>7792400</v>
       </c>
       <c r="I57" s="3">
-        <v>7689400</v>
+        <v>7760700</v>
       </c>
       <c r="J57" s="3">
-        <v>6705800</v>
+        <v>6768000</v>
       </c>
       <c r="K57" s="3">
         <v>6055100</v>
@@ -2443,22 +2443,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>104958000</v>
+        <v>105932000</v>
       </c>
       <c r="E58" s="3">
-        <v>94742100</v>
+        <v>95620800</v>
       </c>
       <c r="F58" s="3">
-        <v>90210500</v>
+        <v>91047200</v>
       </c>
       <c r="G58" s="3">
-        <v>76043800</v>
+        <v>76749000</v>
       </c>
       <c r="H58" s="3">
-        <v>64340300</v>
+        <v>64937000</v>
       </c>
       <c r="I58" s="3">
-        <v>53530600</v>
+        <v>54027100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>905400</v>
+        <v>913800</v>
       </c>
       <c r="E59" s="3">
-        <v>1138500</v>
+        <v>1149000</v>
       </c>
       <c r="F59" s="3">
-        <v>1340100</v>
+        <v>1352500</v>
       </c>
       <c r="G59" s="3">
-        <v>1100100</v>
+        <v>1110300</v>
       </c>
       <c r="H59" s="3">
-        <v>890800</v>
+        <v>899100</v>
       </c>
       <c r="I59" s="3">
-        <v>857100</v>
+        <v>865100</v>
       </c>
       <c r="J59" s="3">
-        <v>821100</v>
+        <v>828700</v>
       </c>
       <c r="K59" s="3">
         <v>1008800</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>21346300</v>
+        <v>21544300</v>
       </c>
       <c r="E61" s="3">
-        <v>24660500</v>
+        <v>24889200</v>
       </c>
       <c r="F61" s="3">
-        <v>22533800</v>
+        <v>22742800</v>
       </c>
       <c r="G61" s="3">
-        <v>21565600</v>
+        <v>21765600</v>
       </c>
       <c r="H61" s="3">
-        <v>18736700</v>
+        <v>18910500</v>
       </c>
       <c r="I61" s="3">
-        <v>17490900</v>
+        <v>17653100</v>
       </c>
       <c r="J61" s="3">
-        <v>20000900</v>
+        <v>20186400</v>
       </c>
       <c r="K61" s="3">
         <v>21493100</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1091700</v>
+        <v>1101800</v>
       </c>
       <c r="E62" s="3">
-        <v>1386100</v>
+        <v>1398900</v>
       </c>
       <c r="F62" s="3">
-        <v>1160700</v>
+        <v>1171500</v>
       </c>
       <c r="G62" s="3">
-        <v>989000</v>
+        <v>998100</v>
       </c>
       <c r="H62" s="3">
-        <v>1456600</v>
+        <v>1470100</v>
       </c>
       <c r="I62" s="3">
-        <v>1563900</v>
+        <v>1578500</v>
       </c>
       <c r="J62" s="3">
-        <v>1396100</v>
+        <v>1409000</v>
       </c>
       <c r="K62" s="3">
         <v>1264700</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>713475000</v>
+        <v>720092000</v>
       </c>
       <c r="E66" s="3">
-        <v>684355000</v>
+        <v>690702000</v>
       </c>
       <c r="F66" s="3">
-        <v>614170000</v>
+        <v>619866000</v>
       </c>
       <c r="G66" s="3">
-        <v>557786000</v>
+        <v>562959000</v>
       </c>
       <c r="H66" s="3">
-        <v>509989000</v>
+        <v>514719000</v>
       </c>
       <c r="I66" s="3">
-        <v>494967000</v>
+        <v>499557000</v>
       </c>
       <c r="J66" s="3">
-        <v>461869000</v>
+        <v>466153000</v>
       </c>
       <c r="K66" s="3">
         <v>435189000</v>
@@ -2889,25 +2889,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2798200</v>
+        <v>2824200</v>
       </c>
       <c r="E70" s="3">
-        <v>3595500</v>
+        <v>3628900</v>
       </c>
       <c r="F70" s="3">
-        <v>3595500</v>
+        <v>3628900</v>
       </c>
       <c r="G70" s="3">
-        <v>3327200</v>
+        <v>3358100</v>
       </c>
       <c r="H70" s="3">
-        <v>3250600</v>
+        <v>3280700</v>
       </c>
       <c r="I70" s="3">
-        <v>2943900</v>
+        <v>2971200</v>
       </c>
       <c r="J70" s="3">
-        <v>2483900</v>
+        <v>2507000</v>
       </c>
       <c r="K70" s="3">
         <v>2386600</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>27213400</v>
+        <v>27465800</v>
       </c>
       <c r="E72" s="3">
-        <v>23570300</v>
+        <v>23788900</v>
       </c>
       <c r="F72" s="3">
-        <v>22021700</v>
+        <v>22226000</v>
       </c>
       <c r="G72" s="3">
-        <v>21582400</v>
+        <v>21782600</v>
       </c>
       <c r="H72" s="3">
-        <v>18176300</v>
+        <v>18344800</v>
       </c>
       <c r="I72" s="3">
-        <v>19649700</v>
+        <v>19832000</v>
       </c>
       <c r="J72" s="3">
-        <v>14512500</v>
+        <v>14647100</v>
       </c>
       <c r="K72" s="3">
         <v>13531900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>41301200</v>
+        <v>41684200</v>
       </c>
       <c r="E76" s="3">
-        <v>39791000</v>
+        <v>40159900</v>
       </c>
       <c r="F76" s="3">
-        <v>35561400</v>
+        <v>35891200</v>
       </c>
       <c r="G76" s="3">
-        <v>31724300</v>
+        <v>32018500</v>
       </c>
       <c r="H76" s="3">
-        <v>30753000</v>
+        <v>31038200</v>
       </c>
       <c r="I76" s="3">
-        <v>29488000</v>
+        <v>29761500</v>
       </c>
       <c r="J76" s="3">
-        <v>27738600</v>
+        <v>27995800</v>
       </c>
       <c r="K76" s="3">
         <v>24550800</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5757500</v>
+        <v>5810900</v>
       </c>
       <c r="E81" s="3">
-        <v>3718200</v>
+        <v>3752700</v>
       </c>
       <c r="F81" s="3">
-        <v>4252600</v>
+        <v>4292000</v>
       </c>
       <c r="G81" s="3">
-        <v>4039400</v>
+        <v>4076900</v>
       </c>
       <c r="H81" s="3">
-        <v>3950500</v>
+        <v>3987100</v>
       </c>
       <c r="I81" s="3">
-        <v>3428400</v>
+        <v>3460200</v>
       </c>
       <c r="J81" s="3">
-        <v>3260500</v>
+        <v>3290800</v>
       </c>
       <c r="K81" s="3">
         <v>3263500</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1092500</v>
+        <v>1102600</v>
       </c>
       <c r="E83" s="3">
-        <v>1089400</v>
+        <v>1099500</v>
       </c>
       <c r="F83" s="3">
-        <v>758200</v>
+        <v>765200</v>
       </c>
       <c r="G83" s="3">
-        <v>692300</v>
+        <v>698700</v>
       </c>
       <c r="H83" s="3">
-        <v>671600</v>
+        <v>677800</v>
       </c>
       <c r="I83" s="3">
-        <v>634800</v>
+        <v>640700</v>
       </c>
       <c r="J83" s="3">
-        <v>604900</v>
+        <v>610500</v>
       </c>
       <c r="K83" s="3">
         <v>586400</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>33769700</v>
+        <v>34082900</v>
       </c>
       <c r="E89" s="3">
-        <v>38972900</v>
+        <v>39334400</v>
       </c>
       <c r="F89" s="3">
-        <v>22464900</v>
+        <v>22673200</v>
       </c>
       <c r="G89" s="3">
-        <v>13732100</v>
+        <v>13859400</v>
       </c>
       <c r="H89" s="3">
-        <v>2229400</v>
+        <v>2250100</v>
       </c>
       <c r="I89" s="3">
-        <v>-2091400</v>
+        <v>-2110800</v>
       </c>
       <c r="J89" s="3">
-        <v>1788600</v>
+        <v>1805200</v>
       </c>
       <c r="K89" s="3">
         <v>-2297800</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-371100</v>
+        <v>-374500</v>
       </c>
       <c r="E91" s="3">
-        <v>-305900</v>
+        <v>-308700</v>
       </c>
       <c r="F91" s="3">
-        <v>-366500</v>
+        <v>-369900</v>
       </c>
       <c r="G91" s="3">
-        <v>-253000</v>
+        <v>-255300</v>
       </c>
       <c r="H91" s="3">
-        <v>-230800</v>
+        <v>-232900</v>
       </c>
       <c r="I91" s="3">
-        <v>-171700</v>
+        <v>-173300</v>
       </c>
       <c r="J91" s="3">
-        <v>-137200</v>
+        <v>-138500</v>
       </c>
       <c r="K91" s="3">
         <v>-278700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-229200</v>
+        <v>-231400</v>
       </c>
       <c r="E94" s="3">
-        <v>-24512500</v>
+        <v>-24739900</v>
       </c>
       <c r="F94" s="3">
-        <v>-15010800</v>
+        <v>-15150000</v>
       </c>
       <c r="G94" s="3">
-        <v>-8688300</v>
+        <v>-8768900</v>
       </c>
       <c r="H94" s="3">
-        <v>-2418700</v>
+        <v>-2441200</v>
       </c>
       <c r="I94" s="3">
-        <v>-11754100</v>
+        <v>-11863100</v>
       </c>
       <c r="J94" s="3">
-        <v>3086500</v>
+        <v>3115100</v>
       </c>
       <c r="K94" s="3">
         <v>2585200</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2284600</v>
+        <v>-2305800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1897400</v>
+        <v>-1915000</v>
       </c>
       <c r="F96" s="3">
-        <v>-2109800</v>
+        <v>-2129400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1979500</v>
+        <v>-1997800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1540900</v>
+        <v>-1555200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1701200</v>
+        <v>-1717000</v>
       </c>
       <c r="J96" s="3">
-        <v>-1636800</v>
+        <v>-1652000</v>
       </c>
       <c r="K96" s="3">
         <v>-1453100</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3926700</v>
+        <v>-3963100</v>
       </c>
       <c r="E100" s="3">
-        <v>-7899500</v>
+        <v>-7972700</v>
       </c>
       <c r="F100" s="3">
-        <v>-2002500</v>
+        <v>-2021000</v>
       </c>
       <c r="G100" s="3">
-        <v>2098300</v>
+        <v>2117800</v>
       </c>
       <c r="H100" s="3">
-        <v>1530200</v>
+        <v>1544400</v>
       </c>
       <c r="I100" s="3">
-        <v>6168400</v>
+        <v>6225600</v>
       </c>
       <c r="J100" s="3">
-        <v>50600</v>
+        <v>51100</v>
       </c>
       <c r="K100" s="3">
         <v>-365000</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2127400</v>
+        <v>-2147200</v>
       </c>
       <c r="E101" s="3">
-        <v>36000</v>
+        <v>36400</v>
       </c>
       <c r="F101" s="3">
-        <v>-345000</v>
+        <v>-348200</v>
       </c>
       <c r="G101" s="3">
-        <v>174000</v>
+        <v>175600</v>
       </c>
       <c r="H101" s="3">
-        <v>-615600</v>
+        <v>-621300</v>
       </c>
       <c r="I101" s="3">
-        <v>1051800</v>
+        <v>1061600</v>
       </c>
       <c r="J101" s="3">
-        <v>4204300</v>
+        <v>4243200</v>
       </c>
       <c r="K101" s="3">
         <v>1881000</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>27486300</v>
+        <v>27741300</v>
       </c>
       <c r="E102" s="3">
-        <v>6596900</v>
+        <v>6658100</v>
       </c>
       <c r="F102" s="3">
-        <v>5106600</v>
+        <v>5153900</v>
       </c>
       <c r="G102" s="3">
-        <v>7316000</v>
+        <v>7383900</v>
       </c>
       <c r="H102" s="3">
-        <v>725200</v>
+        <v>732000</v>
       </c>
       <c r="I102" s="3">
-        <v>-6625300</v>
+        <v>-6686700</v>
       </c>
       <c r="J102" s="3">
-        <v>9129900</v>
+        <v>9214600</v>
       </c>
       <c r="K102" s="3">
         <v>1803300</v>

--- a/AAII_Financials/Yearly/BMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BMO_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15387600</v>
+        <v>14932400</v>
       </c>
       <c r="E8" s="3">
-        <v>18040000</v>
+        <v>17506300</v>
       </c>
       <c r="F8" s="3">
-        <v>20235100</v>
+        <v>19636500</v>
       </c>
       <c r="G8" s="3">
-        <v>16275800</v>
+        <v>15794300</v>
       </c>
       <c r="H8" s="3">
-        <v>13473300</v>
+        <v>13074700</v>
       </c>
       <c r="I8" s="3">
-        <v>11132700</v>
+        <v>10803400</v>
       </c>
       <c r="J8" s="3">
-        <v>10181000</v>
+        <v>9879800</v>
       </c>
       <c r="K8" s="3">
         <v>10105200</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-490600</v>
+        <v>-476000</v>
       </c>
       <c r="E15" s="3">
-        <v>-479700</v>
+        <v>-465500</v>
       </c>
       <c r="F15" s="3">
-        <v>-428700</v>
+        <v>-416000</v>
       </c>
       <c r="G15" s="3">
-        <v>-389200</v>
+        <v>-377700</v>
       </c>
       <c r="H15" s="3">
-        <v>-750500</v>
+        <v>-728300</v>
       </c>
       <c r="I15" s="3">
-        <v>-687100</v>
+        <v>-666800</v>
       </c>
       <c r="J15" s="3">
-        <v>-318000</v>
+        <v>-308600</v>
       </c>
       <c r="K15" s="3">
         <v>-599800</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4330700</v>
+        <v>4202600</v>
       </c>
       <c r="E17" s="3">
-        <v>8337200</v>
+        <v>8090500</v>
       </c>
       <c r="F17" s="3">
-        <v>10937700</v>
+        <v>10614200</v>
       </c>
       <c r="G17" s="3">
-        <v>7937900</v>
+        <v>7703100</v>
       </c>
       <c r="H17" s="3">
-        <v>5326500</v>
+        <v>5168900</v>
       </c>
       <c r="I17" s="3">
-        <v>4090800</v>
+        <v>3969800</v>
       </c>
       <c r="J17" s="3">
-        <v>3874200</v>
+        <v>3759600</v>
       </c>
       <c r="K17" s="3">
         <v>4035900</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11056900</v>
+        <v>10729800</v>
       </c>
       <c r="E18" s="3">
-        <v>9702800</v>
+        <v>9415800</v>
       </c>
       <c r="F18" s="3">
-        <v>9297400</v>
+        <v>9022300</v>
       </c>
       <c r="G18" s="3">
-        <v>8337900</v>
+        <v>8091300</v>
       </c>
       <c r="H18" s="3">
-        <v>8146800</v>
+        <v>7905800</v>
       </c>
       <c r="I18" s="3">
-        <v>7041900</v>
+        <v>6833600</v>
       </c>
       <c r="J18" s="3">
-        <v>6306800</v>
+        <v>6120300</v>
       </c>
       <c r="K18" s="3">
         <v>6069200</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3119800</v>
+        <v>-3027500</v>
       </c>
       <c r="E20" s="3">
-        <v>-4791100</v>
+        <v>-4649300</v>
       </c>
       <c r="F20" s="3">
-        <v>-3670700</v>
+        <v>-3562100</v>
       </c>
       <c r="G20" s="3">
-        <v>-2601300</v>
+        <v>-2524400</v>
       </c>
       <c r="H20" s="3">
-        <v>-3016100</v>
+        <v>-2926900</v>
       </c>
       <c r="I20" s="3">
-        <v>-2606800</v>
+        <v>-2529600</v>
       </c>
       <c r="J20" s="3">
-        <v>-2174200</v>
+        <v>-2109900</v>
       </c>
       <c r="K20" s="3">
         <v>-1958700</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9036200</v>
+        <v>8755900</v>
       </c>
       <c r="E21" s="3">
-        <v>6007800</v>
+        <v>5817000</v>
       </c>
       <c r="F21" s="3">
-        <v>6389500</v>
+        <v>6191400</v>
       </c>
       <c r="G21" s="3">
-        <v>6433100</v>
+        <v>6234500</v>
       </c>
       <c r="H21" s="3">
-        <v>5806400</v>
+        <v>5626600</v>
       </c>
       <c r="I21" s="3">
-        <v>5073800</v>
+        <v>4916100</v>
       </c>
       <c r="J21" s="3">
-        <v>4741200</v>
+        <v>4593700</v>
       </c>
       <c r="K21" s="3">
         <v>4694800</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7937100</v>
+        <v>7702300</v>
       </c>
       <c r="E23" s="3">
-        <v>4911800</v>
+        <v>4766500</v>
       </c>
       <c r="F23" s="3">
-        <v>5626700</v>
+        <v>5460300</v>
       </c>
       <c r="G23" s="3">
-        <v>5736600</v>
+        <v>5566900</v>
       </c>
       <c r="H23" s="3">
-        <v>5130700</v>
+        <v>4979000</v>
       </c>
       <c r="I23" s="3">
-        <v>4435100</v>
+        <v>4303900</v>
       </c>
       <c r="J23" s="3">
-        <v>4132600</v>
+        <v>4010300</v>
       </c>
       <c r="K23" s="3">
         <v>4110500</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1937500</v>
+        <v>1880200</v>
       </c>
       <c r="E24" s="3">
-        <v>968000</v>
+        <v>939300</v>
       </c>
       <c r="F24" s="3">
-        <v>1171500</v>
+        <v>1136800</v>
       </c>
       <c r="G24" s="3">
-        <v>1188500</v>
+        <v>1153300</v>
       </c>
       <c r="H24" s="3">
-        <v>999700</v>
+        <v>970100</v>
       </c>
       <c r="I24" s="3">
-        <v>851900</v>
+        <v>826700</v>
       </c>
       <c r="J24" s="3">
-        <v>724200</v>
+        <v>702800</v>
       </c>
       <c r="K24" s="3">
         <v>708900</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5999700</v>
+        <v>5822200</v>
       </c>
       <c r="E26" s="3">
-        <v>3943800</v>
+        <v>3827100</v>
       </c>
       <c r="F26" s="3">
-        <v>4455300</v>
+        <v>4323500</v>
       </c>
       <c r="G26" s="3">
-        <v>4548100</v>
+        <v>4413600</v>
       </c>
       <c r="H26" s="3">
-        <v>4131100</v>
+        <v>4008800</v>
       </c>
       <c r="I26" s="3">
-        <v>3583200</v>
+        <v>3477200</v>
       </c>
       <c r="J26" s="3">
-        <v>3408400</v>
+        <v>3307500</v>
       </c>
       <c r="K26" s="3">
         <v>3401600</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5810900</v>
+        <v>5639000</v>
       </c>
       <c r="E27" s="3">
-        <v>3752700</v>
+        <v>3641700</v>
       </c>
       <c r="F27" s="3">
-        <v>4292000</v>
+        <v>4165000</v>
       </c>
       <c r="G27" s="3">
-        <v>4405700</v>
+        <v>4275400</v>
       </c>
       <c r="H27" s="3">
-        <v>3987100</v>
+        <v>3869200</v>
       </c>
       <c r="I27" s="3">
-        <v>3460200</v>
+        <v>3357800</v>
       </c>
       <c r="J27" s="3">
-        <v>3290800</v>
+        <v>3193400</v>
       </c>
       <c r="K27" s="3">
         <v>3263500</v>
@@ -1482,7 +1482,7 @@
         <v>5</v>
       </c>
       <c r="G29" s="3">
-        <v>-328800</v>
+        <v>-319100</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3119800</v>
+        <v>3027500</v>
       </c>
       <c r="E32" s="3">
-        <v>4791100</v>
+        <v>4649300</v>
       </c>
       <c r="F32" s="3">
-        <v>3670700</v>
+        <v>3562100</v>
       </c>
       <c r="G32" s="3">
-        <v>2601300</v>
+        <v>2524400</v>
       </c>
       <c r="H32" s="3">
-        <v>3016100</v>
+        <v>2926900</v>
       </c>
       <c r="I32" s="3">
-        <v>2606800</v>
+        <v>2529600</v>
       </c>
       <c r="J32" s="3">
-        <v>2174200</v>
+        <v>2109900</v>
       </c>
       <c r="K32" s="3">
         <v>1958700</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5810900</v>
+        <v>5639000</v>
       </c>
       <c r="E33" s="3">
-        <v>3752700</v>
+        <v>3641700</v>
       </c>
       <c r="F33" s="3">
-        <v>4292000</v>
+        <v>4165000</v>
       </c>
       <c r="G33" s="3">
-        <v>4076900</v>
+        <v>3956300</v>
       </c>
       <c r="H33" s="3">
-        <v>3987100</v>
+        <v>3869200</v>
       </c>
       <c r="I33" s="3">
-        <v>3460200</v>
+        <v>3357800</v>
       </c>
       <c r="J33" s="3">
-        <v>3290800</v>
+        <v>3193400</v>
       </c>
       <c r="K33" s="3">
         <v>3263500</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5810900</v>
+        <v>5639000</v>
       </c>
       <c r="E35" s="3">
-        <v>3752700</v>
+        <v>3641700</v>
       </c>
       <c r="F35" s="3">
-        <v>4292000</v>
+        <v>4165000</v>
       </c>
       <c r="G35" s="3">
-        <v>4076900</v>
+        <v>3956300</v>
       </c>
       <c r="H35" s="3">
-        <v>3987100</v>
+        <v>3869200</v>
       </c>
       <c r="I35" s="3">
-        <v>3460200</v>
+        <v>3357800</v>
       </c>
       <c r="J35" s="3">
-        <v>3290800</v>
+        <v>3193400</v>
       </c>
       <c r="K35" s="3">
         <v>3263500</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>72160700</v>
+        <v>70026000</v>
       </c>
       <c r="E41" s="3">
-        <v>44419400</v>
+        <v>43105400</v>
       </c>
       <c r="F41" s="3">
-        <v>37761300</v>
+        <v>36644200</v>
       </c>
       <c r="G41" s="3">
-        <v>65214700</v>
+        <v>63285500</v>
       </c>
       <c r="H41" s="3">
-        <v>50447000</v>
+        <v>48954600</v>
       </c>
       <c r="I41" s="3">
-        <v>48983000</v>
+        <v>47533900</v>
       </c>
       <c r="J41" s="3">
-        <v>31178300</v>
+        <v>30255900</v>
       </c>
       <c r="K41" s="3">
         <v>22284400</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>215559000</v>
+        <v>209182000</v>
       </c>
       <c r="E42" s="3">
-        <v>213910000</v>
+        <v>207582000</v>
       </c>
       <c r="F42" s="3">
-        <v>184232000</v>
+        <v>178782000</v>
       </c>
       <c r="G42" s="3">
-        <v>180134000</v>
+        <v>174806000</v>
       </c>
       <c r="H42" s="3">
-        <v>187737000</v>
+        <v>182183000</v>
       </c>
       <c r="I42" s="3">
-        <v>121055000</v>
+        <v>117474000</v>
       </c>
       <c r="J42" s="3">
-        <v>115233000</v>
+        <v>111824000</v>
       </c>
       <c r="K42" s="3">
         <v>139997000</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3446300</v>
+        <v>3344300</v>
       </c>
       <c r="E48" s="3">
-        <v>3236600</v>
+        <v>3140800</v>
       </c>
       <c r="F48" s="3">
-        <v>1590100</v>
+        <v>1543000</v>
       </c>
       <c r="G48" s="3">
-        <v>3073300</v>
+        <v>2982400</v>
       </c>
       <c r="H48" s="3">
-        <v>3146100</v>
+        <v>3053000</v>
       </c>
       <c r="I48" s="3">
-        <v>3322500</v>
+        <v>3224200</v>
       </c>
       <c r="J48" s="3">
-        <v>1768000</v>
+        <v>1715700</v>
       </c>
       <c r="K48" s="3">
         <v>1786800</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5914500</v>
+        <v>5739600</v>
       </c>
       <c r="E49" s="3">
-        <v>6946000</v>
+        <v>6740500</v>
       </c>
       <c r="F49" s="3">
-        <v>6781100</v>
+        <v>6580500</v>
       </c>
       <c r="G49" s="3">
-        <v>8447000</v>
+        <v>8197100</v>
       </c>
       <c r="H49" s="3">
-        <v>9006500</v>
+        <v>8740000</v>
       </c>
       <c r="I49" s="3">
-        <v>8307800</v>
+        <v>8062000</v>
       </c>
       <c r="J49" s="3">
-        <v>6404300</v>
+        <v>6214900</v>
       </c>
       <c r="K49" s="3">
         <v>5813300</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1759500</v>
+        <v>1707500</v>
       </c>
       <c r="E52" s="3">
-        <v>1265100</v>
+        <v>1227700</v>
       </c>
       <c r="F52" s="3">
-        <v>1392800</v>
+        <v>1351500</v>
       </c>
       <c r="G52" s="3">
-        <v>2091400</v>
+        <v>2029600</v>
       </c>
       <c r="H52" s="3">
-        <v>2609900</v>
+        <v>2532700</v>
       </c>
       <c r="I52" s="3">
-        <v>2490700</v>
+        <v>2417000</v>
       </c>
       <c r="J52" s="3">
-        <v>2835000</v>
+        <v>2751200</v>
       </c>
       <c r="K52" s="3">
         <v>2575000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>764600000</v>
+        <v>741981000</v>
       </c>
       <c r="E54" s="3">
-        <v>734491000</v>
+        <v>712762000</v>
       </c>
       <c r="F54" s="3">
-        <v>659386000</v>
+        <v>639879000</v>
       </c>
       <c r="G54" s="3">
-        <v>598336000</v>
+        <v>580635000</v>
       </c>
       <c r="H54" s="3">
-        <v>549038000</v>
+        <v>532795000</v>
       </c>
       <c r="I54" s="3">
-        <v>532290000</v>
+        <v>516543000</v>
       </c>
       <c r="J54" s="3">
-        <v>496655000</v>
+        <v>481963000</v>
       </c>
       <c r="K54" s="3">
         <v>462127000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9948100</v>
+        <v>9653800</v>
       </c>
       <c r="E57" s="3">
-        <v>9043600</v>
+        <v>8776100</v>
       </c>
       <c r="F57" s="3">
-        <v>8369700</v>
+        <v>8122100</v>
       </c>
       <c r="G57" s="3">
-        <v>7776200</v>
+        <v>7546100</v>
       </c>
       <c r="H57" s="3">
-        <v>7792400</v>
+        <v>7561900</v>
       </c>
       <c r="I57" s="3">
-        <v>7760700</v>
+        <v>7531100</v>
       </c>
       <c r="J57" s="3">
-        <v>6768000</v>
+        <v>6567800</v>
       </c>
       <c r="K57" s="3">
         <v>6055100</v>
@@ -2443,22 +2443,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>105932000</v>
+        <v>102798000</v>
       </c>
       <c r="E58" s="3">
-        <v>95620800</v>
+        <v>92792000</v>
       </c>
       <c r="F58" s="3">
-        <v>91047200</v>
+        <v>88353700</v>
       </c>
       <c r="G58" s="3">
-        <v>76749000</v>
+        <v>74478600</v>
       </c>
       <c r="H58" s="3">
-        <v>64937000</v>
+        <v>63015900</v>
       </c>
       <c r="I58" s="3">
-        <v>54027100</v>
+        <v>52428800</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>913800</v>
+        <v>886800</v>
       </c>
       <c r="E59" s="3">
-        <v>1149000</v>
+        <v>1115000</v>
       </c>
       <c r="F59" s="3">
-        <v>1352500</v>
+        <v>1312500</v>
       </c>
       <c r="G59" s="3">
-        <v>1110300</v>
+        <v>1077500</v>
       </c>
       <c r="H59" s="3">
-        <v>899100</v>
+        <v>872500</v>
       </c>
       <c r="I59" s="3">
-        <v>865100</v>
+        <v>839500</v>
       </c>
       <c r="J59" s="3">
-        <v>828700</v>
+        <v>804200</v>
       </c>
       <c r="K59" s="3">
         <v>1008800</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>21544300</v>
+        <v>20906900</v>
       </c>
       <c r="E61" s="3">
-        <v>24889200</v>
+        <v>24152900</v>
       </c>
       <c r="F61" s="3">
-        <v>22742800</v>
+        <v>22070000</v>
       </c>
       <c r="G61" s="3">
-        <v>21765600</v>
+        <v>21121700</v>
       </c>
       <c r="H61" s="3">
-        <v>18910500</v>
+        <v>18351000</v>
       </c>
       <c r="I61" s="3">
-        <v>17653100</v>
+        <v>17130900</v>
       </c>
       <c r="J61" s="3">
-        <v>20186400</v>
+        <v>19589200</v>
       </c>
       <c r="K61" s="3">
         <v>21493100</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1101800</v>
+        <v>1069200</v>
       </c>
       <c r="E62" s="3">
-        <v>1398900</v>
+        <v>1357600</v>
       </c>
       <c r="F62" s="3">
-        <v>1171500</v>
+        <v>1136800</v>
       </c>
       <c r="G62" s="3">
-        <v>998100</v>
+        <v>968600</v>
       </c>
       <c r="H62" s="3">
-        <v>1470100</v>
+        <v>1426600</v>
       </c>
       <c r="I62" s="3">
-        <v>1578500</v>
+        <v>1531800</v>
       </c>
       <c r="J62" s="3">
-        <v>1409000</v>
+        <v>1367300</v>
       </c>
       <c r="K62" s="3">
         <v>1264700</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>720092000</v>
+        <v>698789000</v>
       </c>
       <c r="E66" s="3">
-        <v>690702000</v>
+        <v>670269000</v>
       </c>
       <c r="F66" s="3">
-        <v>619866000</v>
+        <v>601528000</v>
       </c>
       <c r="G66" s="3">
-        <v>562959000</v>
+        <v>546305000</v>
       </c>
       <c r="H66" s="3">
-        <v>514719000</v>
+        <v>499492000</v>
       </c>
       <c r="I66" s="3">
-        <v>499557000</v>
+        <v>484779000</v>
       </c>
       <c r="J66" s="3">
-        <v>466153000</v>
+        <v>452362000</v>
       </c>
       <c r="K66" s="3">
         <v>435189000</v>
@@ -2889,25 +2889,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2824200</v>
+        <v>2740600</v>
       </c>
       <c r="E70" s="3">
-        <v>3628900</v>
+        <v>3521500</v>
       </c>
       <c r="F70" s="3">
-        <v>3628900</v>
+        <v>3521500</v>
       </c>
       <c r="G70" s="3">
-        <v>3358100</v>
+        <v>3258700</v>
       </c>
       <c r="H70" s="3">
-        <v>3280700</v>
+        <v>3183600</v>
       </c>
       <c r="I70" s="3">
-        <v>2971200</v>
+        <v>2883300</v>
       </c>
       <c r="J70" s="3">
-        <v>2507000</v>
+        <v>2432800</v>
       </c>
       <c r="K70" s="3">
         <v>2386600</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>27465800</v>
+        <v>26653300</v>
       </c>
       <c r="E72" s="3">
-        <v>23788900</v>
+        <v>23085200</v>
       </c>
       <c r="F72" s="3">
-        <v>22226000</v>
+        <v>21568500</v>
       </c>
       <c r="G72" s="3">
-        <v>21782600</v>
+        <v>21138200</v>
       </c>
       <c r="H72" s="3">
-        <v>18344800</v>
+        <v>17802100</v>
       </c>
       <c r="I72" s="3">
-        <v>19832000</v>
+        <v>19245300</v>
       </c>
       <c r="J72" s="3">
-        <v>14647100</v>
+        <v>14213800</v>
       </c>
       <c r="K72" s="3">
         <v>13531900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>41684200</v>
+        <v>40451100</v>
       </c>
       <c r="E76" s="3">
-        <v>40159900</v>
+        <v>38971900</v>
       </c>
       <c r="F76" s="3">
-        <v>35891200</v>
+        <v>34829400</v>
       </c>
       <c r="G76" s="3">
-        <v>32018500</v>
+        <v>31071400</v>
       </c>
       <c r="H76" s="3">
-        <v>31038200</v>
+        <v>30120000</v>
       </c>
       <c r="I76" s="3">
-        <v>29761500</v>
+        <v>28881100</v>
       </c>
       <c r="J76" s="3">
-        <v>27995800</v>
+        <v>27167600</v>
       </c>
       <c r="K76" s="3">
         <v>24550800</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5810900</v>
+        <v>5639000</v>
       </c>
       <c r="E81" s="3">
-        <v>3752700</v>
+        <v>3641700</v>
       </c>
       <c r="F81" s="3">
-        <v>4292000</v>
+        <v>4165000</v>
       </c>
       <c r="G81" s="3">
-        <v>4076900</v>
+        <v>3956300</v>
       </c>
       <c r="H81" s="3">
-        <v>3987100</v>
+        <v>3869200</v>
       </c>
       <c r="I81" s="3">
-        <v>3460200</v>
+        <v>3357800</v>
       </c>
       <c r="J81" s="3">
-        <v>3290800</v>
+        <v>3193400</v>
       </c>
       <c r="K81" s="3">
         <v>3263500</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1102600</v>
+        <v>1070000</v>
       </c>
       <c r="E83" s="3">
-        <v>1099500</v>
+        <v>1067000</v>
       </c>
       <c r="F83" s="3">
-        <v>765200</v>
+        <v>742600</v>
       </c>
       <c r="G83" s="3">
-        <v>698700</v>
+        <v>678000</v>
       </c>
       <c r="H83" s="3">
-        <v>677800</v>
+        <v>657800</v>
       </c>
       <c r="I83" s="3">
-        <v>640700</v>
+        <v>621700</v>
       </c>
       <c r="J83" s="3">
-        <v>610500</v>
+        <v>592400</v>
       </c>
       <c r="K83" s="3">
         <v>586400</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>34082900</v>
+        <v>33074600</v>
       </c>
       <c r="E89" s="3">
-        <v>39334400</v>
+        <v>38170700</v>
       </c>
       <c r="F89" s="3">
-        <v>22673200</v>
+        <v>22002500</v>
       </c>
       <c r="G89" s="3">
-        <v>13859400</v>
+        <v>13449400</v>
       </c>
       <c r="H89" s="3">
-        <v>2250100</v>
+        <v>2183500</v>
       </c>
       <c r="I89" s="3">
-        <v>-2110800</v>
+        <v>-2048300</v>
       </c>
       <c r="J89" s="3">
-        <v>1805200</v>
+        <v>1751800</v>
       </c>
       <c r="K89" s="3">
         <v>-2297800</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-374500</v>
+        <v>-363400</v>
       </c>
       <c r="E91" s="3">
-        <v>-308700</v>
+        <v>-299600</v>
       </c>
       <c r="F91" s="3">
-        <v>-369900</v>
+        <v>-358900</v>
       </c>
       <c r="G91" s="3">
-        <v>-255300</v>
+        <v>-247800</v>
       </c>
       <c r="H91" s="3">
-        <v>-232900</v>
+        <v>-226000</v>
       </c>
       <c r="I91" s="3">
-        <v>-173300</v>
+        <v>-168200</v>
       </c>
       <c r="J91" s="3">
-        <v>-138500</v>
+        <v>-134400</v>
       </c>
       <c r="K91" s="3">
         <v>-278700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-231400</v>
+        <v>-224500</v>
       </c>
       <c r="E94" s="3">
-        <v>-24739900</v>
+        <v>-24008000</v>
       </c>
       <c r="F94" s="3">
-        <v>-15150000</v>
+        <v>-14701800</v>
       </c>
       <c r="G94" s="3">
-        <v>-8768900</v>
+        <v>-8509500</v>
       </c>
       <c r="H94" s="3">
-        <v>-2441200</v>
+        <v>-2369000</v>
       </c>
       <c r="I94" s="3">
-        <v>-11863100</v>
+        <v>-11512200</v>
       </c>
       <c r="J94" s="3">
-        <v>3115100</v>
+        <v>3023000</v>
       </c>
       <c r="K94" s="3">
         <v>2585200</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2305800</v>
+        <v>-2237600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1915000</v>
+        <v>-1858400</v>
       </c>
       <c r="F96" s="3">
-        <v>-2129400</v>
+        <v>-2066400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1997800</v>
+        <v>-1938700</v>
       </c>
       <c r="H96" s="3">
-        <v>-1555200</v>
+        <v>-1509200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1717000</v>
+        <v>-1666200</v>
       </c>
       <c r="J96" s="3">
-        <v>-1652000</v>
+        <v>-1603100</v>
       </c>
       <c r="K96" s="3">
         <v>-1453100</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3963100</v>
+        <v>-3845900</v>
       </c>
       <c r="E100" s="3">
-        <v>-7972700</v>
+        <v>-7736900</v>
       </c>
       <c r="F100" s="3">
-        <v>-2021000</v>
+        <v>-1961200</v>
       </c>
       <c r="G100" s="3">
-        <v>2117800</v>
+        <v>2055100</v>
       </c>
       <c r="H100" s="3">
-        <v>1544400</v>
+        <v>1498700</v>
       </c>
       <c r="I100" s="3">
-        <v>6225600</v>
+        <v>6041400</v>
       </c>
       <c r="J100" s="3">
-        <v>51100</v>
+        <v>49600</v>
       </c>
       <c r="K100" s="3">
         <v>-365000</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2147200</v>
+        <v>-2083600</v>
       </c>
       <c r="E101" s="3">
-        <v>36400</v>
+        <v>35300</v>
       </c>
       <c r="F101" s="3">
-        <v>-348200</v>
+        <v>-337900</v>
       </c>
       <c r="G101" s="3">
-        <v>175600</v>
+        <v>170400</v>
       </c>
       <c r="H101" s="3">
-        <v>-621300</v>
+        <v>-602900</v>
       </c>
       <c r="I101" s="3">
-        <v>1061600</v>
+        <v>1030200</v>
       </c>
       <c r="J101" s="3">
-        <v>4243200</v>
+        <v>4117700</v>
       </c>
       <c r="K101" s="3">
         <v>1881000</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>27741300</v>
+        <v>26920600</v>
       </c>
       <c r="E102" s="3">
-        <v>6658100</v>
+        <v>6461200</v>
       </c>
       <c r="F102" s="3">
-        <v>5153900</v>
+        <v>5001500</v>
       </c>
       <c r="G102" s="3">
-        <v>7383900</v>
+        <v>7165500</v>
       </c>
       <c r="H102" s="3">
-        <v>732000</v>
+        <v>710300</v>
       </c>
       <c r="I102" s="3">
-        <v>-6686700</v>
+        <v>-6488900</v>
       </c>
       <c r="J102" s="3">
-        <v>9214600</v>
+        <v>8942000</v>
       </c>
       <c r="K102" s="3">
         <v>1803300</v>

--- a/AAII_Financials/Yearly/BMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BMO_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>BMO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,105 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43404</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43039</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42674</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42308</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41943</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41578</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41213</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40847</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14932400</v>
+        <v>19452400</v>
       </c>
       <c r="E8" s="3">
-        <v>17506300</v>
+        <v>14382700</v>
       </c>
       <c r="F8" s="3">
-        <v>19636500</v>
+        <v>16861900</v>
       </c>
       <c r="G8" s="3">
-        <v>15794300</v>
+        <v>18913600</v>
       </c>
       <c r="H8" s="3">
-        <v>13074700</v>
+        <v>15212900</v>
       </c>
       <c r="I8" s="3">
-        <v>10803400</v>
+        <v>12593400</v>
       </c>
       <c r="J8" s="3">
+        <v>10405700</v>
+      </c>
+      <c r="K8" s="3">
         <v>9879800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10105200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10211700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10252200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9621300</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -794,9 +800,12 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -833,9 +842,12 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,9 +944,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,48 +986,54 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-476000</v>
+        <v>-436800</v>
       </c>
       <c r="E15" s="3">
-        <v>-465500</v>
+        <v>-458500</v>
       </c>
       <c r="F15" s="3">
-        <v>-416000</v>
+        <v>-448400</v>
       </c>
       <c r="G15" s="3">
-        <v>-377700</v>
+        <v>-400700</v>
       </c>
       <c r="H15" s="3">
-        <v>-728300</v>
+        <v>-363800</v>
       </c>
       <c r="I15" s="3">
-        <v>-666800</v>
+        <v>-701500</v>
       </c>
       <c r="J15" s="3">
+        <v>-642200</v>
+      </c>
+      <c r="K15" s="3">
         <v>-308600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-599800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-266400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-246300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-177500</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4202600</v>
+        <v>8190500</v>
       </c>
       <c r="E17" s="3">
-        <v>8090500</v>
+        <v>4047900</v>
       </c>
       <c r="F17" s="3">
-        <v>10614200</v>
+        <v>7792700</v>
       </c>
       <c r="G17" s="3">
-        <v>7703100</v>
+        <v>10223400</v>
       </c>
       <c r="H17" s="3">
-        <v>5168900</v>
+        <v>7419500</v>
       </c>
       <c r="I17" s="3">
-        <v>3969800</v>
+        <v>4978600</v>
       </c>
       <c r="J17" s="3">
+        <v>3823700</v>
+      </c>
+      <c r="K17" s="3">
         <v>3759600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4035900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3983800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4169800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4810700</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10729800</v>
+        <v>11262000</v>
       </c>
       <c r="E18" s="3">
-        <v>9415800</v>
+        <v>10334800</v>
       </c>
       <c r="F18" s="3">
-        <v>9022300</v>
+        <v>9069200</v>
       </c>
       <c r="G18" s="3">
-        <v>8091300</v>
+        <v>8690200</v>
       </c>
       <c r="H18" s="3">
-        <v>7905800</v>
+        <v>7793400</v>
       </c>
       <c r="I18" s="3">
-        <v>6833600</v>
+        <v>7614800</v>
       </c>
       <c r="J18" s="3">
+        <v>6582000</v>
+      </c>
+      <c r="K18" s="3">
         <v>6120300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6069200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6227800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6082400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4810700</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,86 +1148,93 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3027500</v>
+        <v>1673500</v>
       </c>
       <c r="E20" s="3">
-        <v>-4649300</v>
+        <v>-2916000</v>
       </c>
       <c r="F20" s="3">
-        <v>-3562100</v>
+        <v>-4478200</v>
       </c>
       <c r="G20" s="3">
-        <v>-2524400</v>
+        <v>-3431000</v>
       </c>
       <c r="H20" s="3">
-        <v>-2926900</v>
+        <v>-2431500</v>
       </c>
       <c r="I20" s="3">
-        <v>-2529600</v>
+        <v>-2819100</v>
       </c>
       <c r="J20" s="3">
+        <v>-2436500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2109900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1958700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2186300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2339100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1745400</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8755900</v>
+        <v>14007700</v>
       </c>
       <c r="E21" s="3">
-        <v>5817000</v>
+        <v>8451100</v>
       </c>
       <c r="F21" s="3">
-        <v>6191400</v>
+        <v>5620400</v>
       </c>
       <c r="G21" s="3">
-        <v>6234500</v>
+        <v>5975700</v>
       </c>
       <c r="H21" s="3">
-        <v>5626600</v>
+        <v>6016100</v>
       </c>
       <c r="I21" s="3">
-        <v>4916100</v>
+        <v>5430300</v>
       </c>
       <c r="J21" s="3">
+        <v>4745300</v>
+      </c>
+      <c r="K21" s="3">
         <v>4593700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4694800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4574900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4252000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3480500</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1232,87 +1271,96 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7702300</v>
+        <v>12935500</v>
       </c>
       <c r="E23" s="3">
-        <v>4766500</v>
+        <v>7418800</v>
       </c>
       <c r="F23" s="3">
-        <v>5460300</v>
+        <v>4591000</v>
       </c>
       <c r="G23" s="3">
-        <v>5566900</v>
+        <v>5259300</v>
       </c>
       <c r="H23" s="3">
-        <v>4979000</v>
+        <v>5362000</v>
       </c>
       <c r="I23" s="3">
-        <v>4303900</v>
+        <v>4795700</v>
       </c>
       <c r="J23" s="3">
+        <v>4145500</v>
+      </c>
+      <c r="K23" s="3">
         <v>4010300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4110500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4041600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3743400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3065200</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1880200</v>
+        <v>3145300</v>
       </c>
       <c r="E24" s="3">
-        <v>939300</v>
+        <v>1810900</v>
       </c>
       <c r="F24" s="3">
-        <v>1136800</v>
+        <v>904700</v>
       </c>
       <c r="G24" s="3">
-        <v>1153300</v>
+        <v>1095000</v>
       </c>
       <c r="H24" s="3">
-        <v>970100</v>
+        <v>1110900</v>
       </c>
       <c r="I24" s="3">
-        <v>826700</v>
+        <v>934400</v>
       </c>
       <c r="J24" s="3">
+        <v>796300</v>
+      </c>
+      <c r="K24" s="3">
         <v>702800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>708900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>812200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>650400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>673000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5822200</v>
+        <v>9790200</v>
       </c>
       <c r="E26" s="3">
-        <v>3827100</v>
+        <v>5607800</v>
       </c>
       <c r="F26" s="3">
-        <v>4323500</v>
+        <v>3686300</v>
       </c>
       <c r="G26" s="3">
-        <v>4413600</v>
+        <v>4164300</v>
       </c>
       <c r="H26" s="3">
-        <v>4008800</v>
+        <v>4251100</v>
       </c>
       <c r="I26" s="3">
-        <v>3477200</v>
+        <v>3861300</v>
       </c>
       <c r="J26" s="3">
+        <v>3349200</v>
+      </c>
+      <c r="K26" s="3">
         <v>3307500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3401600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3229400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3092900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2392300</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5639000</v>
+        <v>9623200</v>
       </c>
       <c r="E27" s="3">
-        <v>3641700</v>
+        <v>5431400</v>
       </c>
       <c r="F27" s="3">
-        <v>4165000</v>
+        <v>3507600</v>
       </c>
       <c r="G27" s="3">
-        <v>4275400</v>
+        <v>4011700</v>
       </c>
       <c r="H27" s="3">
-        <v>3869200</v>
+        <v>4118000</v>
       </c>
       <c r="I27" s="3">
-        <v>3357800</v>
+        <v>3726800</v>
       </c>
       <c r="J27" s="3">
+        <v>3234200</v>
+      </c>
+      <c r="K27" s="3">
         <v>3193400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3263500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3087000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2936700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2209400</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1481,11 +1541,11 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>-319100</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-307400</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
@@ -1502,12 +1562,15 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3027500</v>
+        <v>-1673500</v>
       </c>
       <c r="E32" s="3">
-        <v>4649300</v>
+        <v>2916000</v>
       </c>
       <c r="F32" s="3">
-        <v>3562100</v>
+        <v>4478200</v>
       </c>
       <c r="G32" s="3">
-        <v>2524400</v>
+        <v>3431000</v>
       </c>
       <c r="H32" s="3">
-        <v>2926900</v>
+        <v>2431500</v>
       </c>
       <c r="I32" s="3">
-        <v>2529600</v>
+        <v>2819100</v>
       </c>
       <c r="J32" s="3">
+        <v>2436500</v>
+      </c>
+      <c r="K32" s="3">
         <v>2109900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1958700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2186300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2339100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1745400</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5639000</v>
+        <v>9623200</v>
       </c>
       <c r="E33" s="3">
-        <v>3641700</v>
+        <v>5431400</v>
       </c>
       <c r="F33" s="3">
-        <v>4165000</v>
+        <v>3507600</v>
       </c>
       <c r="G33" s="3">
-        <v>3956300</v>
+        <v>4011700</v>
       </c>
       <c r="H33" s="3">
-        <v>3869200</v>
+        <v>3810600</v>
       </c>
       <c r="I33" s="3">
-        <v>3357800</v>
+        <v>3726800</v>
       </c>
       <c r="J33" s="3">
+        <v>3234200</v>
+      </c>
+      <c r="K33" s="3">
         <v>3193400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3263500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3087000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2936700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2209400</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5639000</v>
+        <v>9623200</v>
       </c>
       <c r="E35" s="3">
-        <v>3641700</v>
+        <v>5431400</v>
       </c>
       <c r="F35" s="3">
-        <v>4165000</v>
+        <v>3507600</v>
       </c>
       <c r="G35" s="3">
-        <v>3956300</v>
+        <v>4011700</v>
       </c>
       <c r="H35" s="3">
-        <v>3869200</v>
+        <v>3810600</v>
       </c>
       <c r="I35" s="3">
-        <v>3357800</v>
+        <v>3726800</v>
       </c>
       <c r="J35" s="3">
+        <v>3234200</v>
+      </c>
+      <c r="K35" s="3">
         <v>3193400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3263500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3087000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2936700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2209400</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43404</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43039</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42674</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42308</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41943</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41578</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41213</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40847</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,86 +1903,93 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>70026000</v>
+        <v>63257200</v>
       </c>
       <c r="E41" s="3">
-        <v>43105400</v>
+        <v>67448200</v>
       </c>
       <c r="F41" s="3">
-        <v>36644200</v>
+        <v>41518600</v>
       </c>
       <c r="G41" s="3">
-        <v>63285500</v>
+        <v>35295300</v>
       </c>
       <c r="H41" s="3">
-        <v>48954600</v>
+        <v>60955900</v>
       </c>
       <c r="I41" s="3">
-        <v>47533900</v>
+        <v>47152500</v>
       </c>
       <c r="J41" s="3">
+        <v>45784200</v>
+      </c>
+      <c r="K41" s="3">
         <v>30255900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22284400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>40167700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14840300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15115700</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>209182000</v>
+        <v>219703000</v>
       </c>
       <c r="E42" s="3">
-        <v>207582000</v>
+        <v>201482000</v>
       </c>
       <c r="F42" s="3">
-        <v>178782000</v>
+        <v>199941000</v>
       </c>
       <c r="G42" s="3">
-        <v>174806000</v>
+        <v>172201000</v>
       </c>
       <c r="H42" s="3">
-        <v>182183000</v>
+        <v>168371000</v>
       </c>
       <c r="I42" s="3">
-        <v>117474000</v>
+        <v>175477000</v>
       </c>
       <c r="J42" s="3">
+        <v>113149000</v>
+      </c>
+      <c r="K42" s="3">
         <v>111824000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>139997000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>117501000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>56894900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>58312500</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1934,9 +2026,12 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1973,9 +2068,12 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2012,9 +2110,12 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2051,9 +2152,12 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2090,87 +2194,96 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3344300</v>
+        <v>3501100</v>
       </c>
       <c r="E48" s="3">
-        <v>3140800</v>
+        <v>3221200</v>
       </c>
       <c r="F48" s="3">
-        <v>1543000</v>
+        <v>3025200</v>
       </c>
       <c r="G48" s="3">
-        <v>2982400</v>
+        <v>1486200</v>
       </c>
       <c r="H48" s="3">
-        <v>3053000</v>
+        <v>2872600</v>
       </c>
       <c r="I48" s="3">
-        <v>3224200</v>
+        <v>2940600</v>
       </c>
       <c r="J48" s="3">
+        <v>3105500</v>
+      </c>
+      <c r="K48" s="3">
         <v>1715700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1786800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3337900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1577700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1583300</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5739600</v>
+        <v>5408200</v>
       </c>
       <c r="E49" s="3">
-        <v>6740500</v>
+        <v>5528300</v>
       </c>
       <c r="F49" s="3">
-        <v>6580500</v>
+        <v>6492300</v>
       </c>
       <c r="G49" s="3">
-        <v>8197100</v>
+        <v>6338300</v>
       </c>
       <c r="H49" s="3">
-        <v>8740000</v>
+        <v>7895400</v>
       </c>
       <c r="I49" s="3">
-        <v>8062000</v>
+        <v>8418300</v>
       </c>
       <c r="J49" s="3">
+        <v>7765200</v>
+      </c>
+      <c r="K49" s="3">
         <v>6214900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5813300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5266300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3921200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4003200</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1707500</v>
+        <v>1803000</v>
       </c>
       <c r="E52" s="3">
-        <v>1227700</v>
+        <v>1644600</v>
       </c>
       <c r="F52" s="3">
-        <v>1351500</v>
+        <v>1182500</v>
       </c>
       <c r="G52" s="3">
-        <v>2029600</v>
+        <v>1301800</v>
       </c>
       <c r="H52" s="3">
-        <v>2532700</v>
+        <v>1954900</v>
       </c>
       <c r="I52" s="3">
-        <v>2417000</v>
+        <v>2439400</v>
       </c>
       <c r="J52" s="3">
+        <v>2328000</v>
+      </c>
+      <c r="K52" s="3">
         <v>2751200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2575000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2478100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3503000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3906400</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>741981000</v>
+        <v>823892000</v>
       </c>
       <c r="E54" s="3">
-        <v>712762000</v>
+        <v>714668000</v>
       </c>
       <c r="F54" s="3">
-        <v>639879000</v>
+        <v>686525000</v>
       </c>
       <c r="G54" s="3">
-        <v>580635000</v>
+        <v>616325000</v>
       </c>
       <c r="H54" s="3">
-        <v>532795000</v>
+        <v>559261000</v>
       </c>
       <c r="I54" s="3">
-        <v>516543000</v>
+        <v>513182000</v>
       </c>
       <c r="J54" s="3">
+        <v>497528000</v>
+      </c>
+      <c r="K54" s="3">
         <v>481963000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>462127000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>413427000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>391044000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>384557000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,70 +2527,74 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9653800</v>
+        <v>10568400</v>
       </c>
       <c r="E57" s="3">
-        <v>8776100</v>
+        <v>9298400</v>
       </c>
       <c r="F57" s="3">
-        <v>8122100</v>
+        <v>8453000</v>
       </c>
       <c r="G57" s="3">
-        <v>7546100</v>
+        <v>7823100</v>
       </c>
       <c r="H57" s="3">
-        <v>7561900</v>
+        <v>7268400</v>
       </c>
       <c r="I57" s="3">
-        <v>7531100</v>
+        <v>7283500</v>
       </c>
       <c r="J57" s="3">
+        <v>7253900</v>
+      </c>
+      <c r="K57" s="3">
         <v>6567800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6055100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5840600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6660700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5440600</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>102798000</v>
+        <v>109587000</v>
       </c>
       <c r="E58" s="3">
-        <v>92792000</v>
+        <v>96946200</v>
       </c>
       <c r="F58" s="3">
-        <v>88353700</v>
+        <v>89376300</v>
       </c>
       <c r="G58" s="3">
-        <v>74478600</v>
+        <v>85101300</v>
       </c>
       <c r="H58" s="3">
-        <v>63015900</v>
+        <v>71736900</v>
       </c>
       <c r="I58" s="3">
-        <v>52428800</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
+        <v>60696200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>50498800</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
@@ -2472,51 +2605,57 @@
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>886800</v>
+        <v>1984500</v>
       </c>
       <c r="E59" s="3">
-        <v>1115000</v>
+        <v>854100</v>
       </c>
       <c r="F59" s="3">
-        <v>1312500</v>
+        <v>1074000</v>
       </c>
       <c r="G59" s="3">
-        <v>1077500</v>
+        <v>1264200</v>
       </c>
       <c r="H59" s="3">
-        <v>872500</v>
+        <v>1037800</v>
       </c>
       <c r="I59" s="3">
-        <v>839500</v>
+        <v>840400</v>
       </c>
       <c r="J59" s="3">
+        <v>808600</v>
+      </c>
+      <c r="K59" s="3">
         <v>804200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1008800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1012300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>727100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1519600</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2553,87 +2692,96 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20906900</v>
+        <v>22759000</v>
       </c>
       <c r="E61" s="3">
-        <v>24152900</v>
+        <v>22205000</v>
       </c>
       <c r="F61" s="3">
-        <v>22070000</v>
+        <v>23263800</v>
       </c>
       <c r="G61" s="3">
-        <v>21121700</v>
+        <v>21257600</v>
       </c>
       <c r="H61" s="3">
-        <v>18351000</v>
+        <v>20344200</v>
       </c>
       <c r="I61" s="3">
-        <v>17130900</v>
+        <v>17675500</v>
       </c>
       <c r="J61" s="3">
+        <v>16500300</v>
+      </c>
+      <c r="K61" s="3">
         <v>19589200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>21493100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>20290100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3046100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4108500</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1069200</v>
+        <v>739100</v>
       </c>
       <c r="E62" s="3">
-        <v>1357600</v>
+        <v>1029900</v>
       </c>
       <c r="F62" s="3">
-        <v>1136800</v>
+        <v>1307600</v>
       </c>
       <c r="G62" s="3">
-        <v>968600</v>
+        <v>1095000</v>
       </c>
       <c r="H62" s="3">
-        <v>1426600</v>
+        <v>933000</v>
       </c>
       <c r="I62" s="3">
-        <v>1531800</v>
+        <v>1374100</v>
       </c>
       <c r="J62" s="3">
+        <v>1475400</v>
+      </c>
+      <c r="K62" s="3">
         <v>1367300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1264700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>994600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1239100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1634000</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>698789000</v>
+        <v>772515000</v>
       </c>
       <c r="E66" s="3">
-        <v>670269000</v>
+        <v>673066000</v>
       </c>
       <c r="F66" s="3">
-        <v>601528000</v>
+        <v>645595000</v>
       </c>
       <c r="G66" s="3">
-        <v>546305000</v>
+        <v>579385000</v>
       </c>
       <c r="H66" s="3">
-        <v>499492000</v>
+        <v>526195000</v>
       </c>
       <c r="I66" s="3">
-        <v>484779000</v>
+        <v>481105000</v>
       </c>
       <c r="J66" s="3">
+        <v>466933000</v>
+      </c>
+      <c r="K66" s="3">
         <v>452362000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>435189000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>390250000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>369719000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>364312000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,48 +3046,54 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2740600</v>
+        <v>1916500</v>
       </c>
       <c r="E70" s="3">
-        <v>3521500</v>
+        <v>2639800</v>
       </c>
       <c r="F70" s="3">
-        <v>3521500</v>
+        <v>3391900</v>
       </c>
       <c r="G70" s="3">
-        <v>3258700</v>
+        <v>3391900</v>
       </c>
       <c r="H70" s="3">
-        <v>3183600</v>
+        <v>3138800</v>
       </c>
       <c r="I70" s="3">
-        <v>2883300</v>
+        <v>3066500</v>
       </c>
       <c r="J70" s="3">
+        <v>2777200</v>
+      </c>
+      <c r="K70" s="3">
         <v>2432800</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>2386600</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1743600</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1834500</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>2197900</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>26653300</v>
+        <v>32629500</v>
       </c>
       <c r="E72" s="3">
-        <v>23085200</v>
+        <v>25672100</v>
       </c>
       <c r="F72" s="3">
-        <v>21568500</v>
+        <v>22235400</v>
       </c>
       <c r="G72" s="3">
-        <v>21138200</v>
+        <v>20774500</v>
       </c>
       <c r="H72" s="3">
-        <v>17802100</v>
+        <v>18695200</v>
       </c>
       <c r="I72" s="3">
-        <v>19245300</v>
+        <v>17146800</v>
       </c>
       <c r="J72" s="3">
+        <v>15335900</v>
+      </c>
+      <c r="K72" s="3">
         <v>14213800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13531900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11614300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10076600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8743200</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>40451100</v>
+        <v>49459600</v>
       </c>
       <c r="E76" s="3">
-        <v>38971900</v>
+        <v>38962000</v>
       </c>
       <c r="F76" s="3">
-        <v>34829400</v>
+        <v>37537300</v>
       </c>
       <c r="G76" s="3">
-        <v>31071400</v>
+        <v>33547300</v>
       </c>
       <c r="H76" s="3">
-        <v>30120000</v>
+        <v>29927500</v>
       </c>
       <c r="I76" s="3">
-        <v>28881100</v>
+        <v>29011200</v>
       </c>
       <c r="J76" s="3">
+        <v>27817900</v>
+      </c>
+      <c r="K76" s="3">
         <v>27167600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24550800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21433400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>19490800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18047300</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43404</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43039</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42674</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42308</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41943</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41578</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41213</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40847</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5639000</v>
+        <v>9623200</v>
       </c>
       <c r="E81" s="3">
-        <v>3641700</v>
+        <v>5431400</v>
       </c>
       <c r="F81" s="3">
-        <v>4165000</v>
+        <v>3507600</v>
       </c>
       <c r="G81" s="3">
-        <v>3956300</v>
+        <v>4011700</v>
       </c>
       <c r="H81" s="3">
-        <v>3869200</v>
+        <v>3810600</v>
       </c>
       <c r="I81" s="3">
-        <v>3357800</v>
+        <v>3726800</v>
       </c>
       <c r="J81" s="3">
+        <v>3234200</v>
+      </c>
+      <c r="K81" s="3">
         <v>3193400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3263500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3087000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2936700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2209400</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1070000</v>
+        <v>1070400</v>
       </c>
       <c r="E83" s="3">
-        <v>1067000</v>
+        <v>1030600</v>
       </c>
       <c r="F83" s="3">
-        <v>742600</v>
+        <v>1027700</v>
       </c>
       <c r="G83" s="3">
-        <v>678000</v>
+        <v>715300</v>
       </c>
       <c r="H83" s="3">
-        <v>657800</v>
+        <v>653100</v>
       </c>
       <c r="I83" s="3">
-        <v>621700</v>
+        <v>633500</v>
       </c>
       <c r="J83" s="3">
+        <v>598800</v>
+      </c>
+      <c r="K83" s="3">
         <v>592400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>586400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>534300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>507600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>413300</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>33074600</v>
+        <v>3585000</v>
       </c>
       <c r="E89" s="3">
-        <v>38170700</v>
+        <v>31857100</v>
       </c>
       <c r="F89" s="3">
-        <v>22002500</v>
+        <v>36765600</v>
       </c>
       <c r="G89" s="3">
-        <v>13449400</v>
+        <v>21192500</v>
       </c>
       <c r="H89" s="3">
-        <v>2183500</v>
+        <v>12954300</v>
       </c>
       <c r="I89" s="3">
-        <v>-2048300</v>
+        <v>2103100</v>
       </c>
       <c r="J89" s="3">
+        <v>-1972900</v>
+      </c>
+      <c r="K89" s="3">
         <v>1751800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2297800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8809800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7636300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1241500</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-363400</v>
+        <v>-561900</v>
       </c>
       <c r="E91" s="3">
-        <v>-299600</v>
+        <v>-350000</v>
       </c>
       <c r="F91" s="3">
-        <v>-358900</v>
+        <v>-288600</v>
       </c>
       <c r="G91" s="3">
-        <v>-247800</v>
+        <v>-345700</v>
       </c>
       <c r="H91" s="3">
-        <v>-226000</v>
+        <v>-238700</v>
       </c>
       <c r="I91" s="3">
-        <v>-168200</v>
+        <v>-217700</v>
       </c>
       <c r="J91" s="3">
+        <v>-162000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-134400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-278700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-277900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-272400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-490900</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-224500</v>
+        <v>-21314000</v>
       </c>
       <c r="E94" s="3">
-        <v>-24008000</v>
+        <v>-216200</v>
       </c>
       <c r="F94" s="3">
-        <v>-14701800</v>
+        <v>-23124200</v>
       </c>
       <c r="G94" s="3">
-        <v>-8509500</v>
+        <v>-14160600</v>
       </c>
       <c r="H94" s="3">
-        <v>-2369000</v>
+        <v>-8196300</v>
       </c>
       <c r="I94" s="3">
-        <v>-11512200</v>
+        <v>-2281800</v>
       </c>
       <c r="J94" s="3">
+        <v>-11088400</v>
+      </c>
+      <c r="K94" s="3">
         <v>3023000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2585200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1476500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5545900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>74500</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2237600</v>
+        <v>-1876800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1858400</v>
+        <v>-2155200</v>
       </c>
       <c r="F96" s="3">
-        <v>-2066400</v>
+        <v>-1790000</v>
       </c>
       <c r="G96" s="3">
-        <v>-1938700</v>
+        <v>-1990300</v>
       </c>
       <c r="H96" s="3">
-        <v>-1509200</v>
+        <v>-1867400</v>
       </c>
       <c r="I96" s="3">
-        <v>-1666200</v>
+        <v>-1453700</v>
       </c>
       <c r="J96" s="3">
+        <v>-1604800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1603100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1453100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1459600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1056000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1277600</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3845900</v>
+        <v>11557100</v>
       </c>
       <c r="E100" s="3">
-        <v>-7736900</v>
+        <v>-3704300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1961200</v>
+        <v>-7452100</v>
       </c>
       <c r="G100" s="3">
-        <v>2055100</v>
+        <v>-1889100</v>
       </c>
       <c r="H100" s="3">
-        <v>1498700</v>
+        <v>1979500</v>
       </c>
       <c r="I100" s="3">
-        <v>6041400</v>
+        <v>1443500</v>
       </c>
       <c r="J100" s="3">
+        <v>5819000</v>
+      </c>
+      <c r="K100" s="3">
         <v>49600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-365000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3719800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1513700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-146700</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2083600</v>
+        <v>1980900</v>
       </c>
       <c r="E101" s="3">
-        <v>35300</v>
+        <v>-2006900</v>
       </c>
       <c r="F101" s="3">
-        <v>-337900</v>
+        <v>34000</v>
       </c>
       <c r="G101" s="3">
-        <v>170400</v>
+        <v>-325400</v>
       </c>
       <c r="H101" s="3">
-        <v>-602900</v>
+        <v>164200</v>
       </c>
       <c r="I101" s="3">
-        <v>1030200</v>
+        <v>-580700</v>
       </c>
       <c r="J101" s="3">
+        <v>992300</v>
+      </c>
+      <c r="K101" s="3">
         <v>4117700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1881000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1139300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-363900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>533200</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>26920600</v>
+        <v>-4191100</v>
       </c>
       <c r="E102" s="3">
-        <v>6461200</v>
+        <v>25929600</v>
       </c>
       <c r="F102" s="3">
-        <v>5001500</v>
+        <v>6223300</v>
       </c>
       <c r="G102" s="3">
-        <v>7165500</v>
+        <v>4817400</v>
       </c>
       <c r="H102" s="3">
-        <v>710300</v>
+        <v>6901700</v>
       </c>
       <c r="I102" s="3">
-        <v>-6488900</v>
+        <v>684200</v>
       </c>
       <c r="J102" s="3">
+        <v>-6250100</v>
+      </c>
+      <c r="K102" s="3">
         <v>8942000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1803300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4752900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>212800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1702400</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BMO_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19452400</v>
+        <v>19923700</v>
       </c>
       <c r="E8" s="3">
-        <v>14382700</v>
+        <v>14731100</v>
       </c>
       <c r="F8" s="3">
-        <v>16861900</v>
+        <v>17270400</v>
       </c>
       <c r="G8" s="3">
-        <v>18913600</v>
+        <v>19371800</v>
       </c>
       <c r="H8" s="3">
-        <v>15212900</v>
+        <v>15581500</v>
       </c>
       <c r="I8" s="3">
-        <v>12593400</v>
+        <v>12898500</v>
       </c>
       <c r="J8" s="3">
-        <v>10405700</v>
+        <v>10657800</v>
       </c>
       <c r="K8" s="3">
         <v>9879800</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-436800</v>
+        <v>-447400</v>
       </c>
       <c r="E15" s="3">
-        <v>-458500</v>
+        <v>-469600</v>
       </c>
       <c r="F15" s="3">
-        <v>-448400</v>
+        <v>-459300</v>
       </c>
       <c r="G15" s="3">
-        <v>-400700</v>
+        <v>-410400</v>
       </c>
       <c r="H15" s="3">
-        <v>-363800</v>
+        <v>-372600</v>
       </c>
       <c r="I15" s="3">
-        <v>-701500</v>
+        <v>-718500</v>
       </c>
       <c r="J15" s="3">
-        <v>-642200</v>
+        <v>-657800</v>
       </c>
       <c r="K15" s="3">
         <v>-308600</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8190500</v>
+        <v>8388900</v>
       </c>
       <c r="E17" s="3">
-        <v>4047900</v>
+        <v>4145900</v>
       </c>
       <c r="F17" s="3">
-        <v>7792700</v>
+        <v>7981500</v>
       </c>
       <c r="G17" s="3">
-        <v>10223400</v>
+        <v>10471100</v>
       </c>
       <c r="H17" s="3">
-        <v>7419500</v>
+        <v>7599300</v>
       </c>
       <c r="I17" s="3">
-        <v>4978600</v>
+        <v>5099300</v>
       </c>
       <c r="J17" s="3">
-        <v>3823700</v>
+        <v>3916300</v>
       </c>
       <c r="K17" s="3">
         <v>3759600</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11262000</v>
+        <v>11534800</v>
       </c>
       <c r="E18" s="3">
-        <v>10334800</v>
+        <v>10585200</v>
       </c>
       <c r="F18" s="3">
-        <v>9069200</v>
+        <v>9288900</v>
       </c>
       <c r="G18" s="3">
-        <v>8690200</v>
+        <v>8900700</v>
       </c>
       <c r="H18" s="3">
-        <v>7793400</v>
+        <v>7982200</v>
       </c>
       <c r="I18" s="3">
-        <v>7614800</v>
+        <v>7799300</v>
       </c>
       <c r="J18" s="3">
-        <v>6582000</v>
+        <v>6741500</v>
       </c>
       <c r="K18" s="3">
         <v>6120300</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1673500</v>
+        <v>1714100</v>
       </c>
       <c r="E20" s="3">
-        <v>-2916000</v>
+        <v>-2986700</v>
       </c>
       <c r="F20" s="3">
-        <v>-4478200</v>
+        <v>-4586700</v>
       </c>
       <c r="G20" s="3">
-        <v>-3431000</v>
+        <v>-3514100</v>
       </c>
       <c r="H20" s="3">
-        <v>-2431500</v>
+        <v>-2490400</v>
       </c>
       <c r="I20" s="3">
-        <v>-2819100</v>
+        <v>-2887400</v>
       </c>
       <c r="J20" s="3">
-        <v>-2436500</v>
+        <v>-2495600</v>
       </c>
       <c r="K20" s="3">
         <v>-2109900</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>14007700</v>
+        <v>14349200</v>
       </c>
       <c r="E21" s="3">
-        <v>8451100</v>
+        <v>8657900</v>
       </c>
       <c r="F21" s="3">
-        <v>5620400</v>
+        <v>5758600</v>
       </c>
       <c r="G21" s="3">
-        <v>5975700</v>
+        <v>6121900</v>
       </c>
       <c r="H21" s="3">
-        <v>6016100</v>
+        <v>6163200</v>
       </c>
       <c r="I21" s="3">
-        <v>5430300</v>
+        <v>5563100</v>
       </c>
       <c r="J21" s="3">
-        <v>4745300</v>
+        <v>4861500</v>
       </c>
       <c r="K21" s="3">
         <v>4593700</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12935500</v>
+        <v>13248900</v>
       </c>
       <c r="E23" s="3">
-        <v>7418800</v>
+        <v>7598500</v>
       </c>
       <c r="F23" s="3">
-        <v>4591000</v>
+        <v>4702200</v>
       </c>
       <c r="G23" s="3">
-        <v>5259300</v>
+        <v>5386700</v>
       </c>
       <c r="H23" s="3">
-        <v>5362000</v>
+        <v>5491800</v>
       </c>
       <c r="I23" s="3">
-        <v>4795700</v>
+        <v>4911800</v>
       </c>
       <c r="J23" s="3">
-        <v>4145500</v>
+        <v>4245900</v>
       </c>
       <c r="K23" s="3">
         <v>4010300</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3145300</v>
+        <v>3221500</v>
       </c>
       <c r="E24" s="3">
-        <v>1810900</v>
+        <v>1854800</v>
       </c>
       <c r="F24" s="3">
-        <v>904700</v>
+        <v>926700</v>
       </c>
       <c r="G24" s="3">
-        <v>1095000</v>
+        <v>1121500</v>
       </c>
       <c r="H24" s="3">
-        <v>1110900</v>
+        <v>1137800</v>
       </c>
       <c r="I24" s="3">
-        <v>934400</v>
+        <v>957000</v>
       </c>
       <c r="J24" s="3">
-        <v>796300</v>
+        <v>815600</v>
       </c>
       <c r="K24" s="3">
         <v>702800</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9790200</v>
+        <v>10027400</v>
       </c>
       <c r="E26" s="3">
-        <v>5607800</v>
+        <v>5743700</v>
       </c>
       <c r="F26" s="3">
-        <v>3686300</v>
+        <v>3775600</v>
       </c>
       <c r="G26" s="3">
-        <v>4164300</v>
+        <v>4265200</v>
       </c>
       <c r="H26" s="3">
-        <v>4251100</v>
+        <v>4354100</v>
       </c>
       <c r="I26" s="3">
-        <v>3861300</v>
+        <v>3954800</v>
       </c>
       <c r="J26" s="3">
-        <v>3349200</v>
+        <v>3430400</v>
       </c>
       <c r="K26" s="3">
         <v>3307500</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>9623200</v>
+        <v>9856300</v>
       </c>
       <c r="E27" s="3">
-        <v>5431400</v>
+        <v>5563000</v>
       </c>
       <c r="F27" s="3">
-        <v>3507600</v>
+        <v>3592600</v>
       </c>
       <c r="G27" s="3">
-        <v>4011700</v>
+        <v>4108900</v>
       </c>
       <c r="H27" s="3">
-        <v>4118000</v>
+        <v>4217800</v>
       </c>
       <c r="I27" s="3">
-        <v>3726800</v>
+        <v>3817000</v>
       </c>
       <c r="J27" s="3">
-        <v>3234200</v>
+        <v>3312600</v>
       </c>
       <c r="K27" s="3">
         <v>3193400</v>
@@ -1545,7 +1545,7 @@
         <v>5</v>
       </c>
       <c r="H29" s="3">
-        <v>-307400</v>
+        <v>-314800</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1673500</v>
+        <v>-1714100</v>
       </c>
       <c r="E32" s="3">
-        <v>2916000</v>
+        <v>2986700</v>
       </c>
       <c r="F32" s="3">
-        <v>4478200</v>
+        <v>4586700</v>
       </c>
       <c r="G32" s="3">
-        <v>3431000</v>
+        <v>3514100</v>
       </c>
       <c r="H32" s="3">
-        <v>2431500</v>
+        <v>2490400</v>
       </c>
       <c r="I32" s="3">
-        <v>2819100</v>
+        <v>2887400</v>
       </c>
       <c r="J32" s="3">
-        <v>2436500</v>
+        <v>2495600</v>
       </c>
       <c r="K32" s="3">
         <v>2109900</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9623200</v>
+        <v>9856300</v>
       </c>
       <c r="E33" s="3">
-        <v>5431400</v>
+        <v>5563000</v>
       </c>
       <c r="F33" s="3">
-        <v>3507600</v>
+        <v>3592600</v>
       </c>
       <c r="G33" s="3">
-        <v>4011700</v>
+        <v>4108900</v>
       </c>
       <c r="H33" s="3">
-        <v>3810600</v>
+        <v>3903000</v>
       </c>
       <c r="I33" s="3">
-        <v>3726800</v>
+        <v>3817000</v>
       </c>
       <c r="J33" s="3">
-        <v>3234200</v>
+        <v>3312600</v>
       </c>
       <c r="K33" s="3">
         <v>3193400</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9623200</v>
+        <v>9856300</v>
       </c>
       <c r="E35" s="3">
-        <v>5431400</v>
+        <v>5563000</v>
       </c>
       <c r="F35" s="3">
-        <v>3507600</v>
+        <v>3592600</v>
       </c>
       <c r="G35" s="3">
-        <v>4011700</v>
+        <v>4108900</v>
       </c>
       <c r="H35" s="3">
-        <v>3810600</v>
+        <v>3903000</v>
       </c>
       <c r="I35" s="3">
-        <v>3726800</v>
+        <v>3817000</v>
       </c>
       <c r="J35" s="3">
-        <v>3234200</v>
+        <v>3312600</v>
       </c>
       <c r="K35" s="3">
         <v>3193400</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>63257200</v>
+        <v>64789600</v>
       </c>
       <c r="E41" s="3">
-        <v>67448200</v>
+        <v>69082200</v>
       </c>
       <c r="F41" s="3">
-        <v>41518600</v>
+        <v>42524400</v>
       </c>
       <c r="G41" s="3">
-        <v>35295300</v>
+        <v>36150300</v>
       </c>
       <c r="H41" s="3">
-        <v>60955900</v>
+        <v>62432500</v>
       </c>
       <c r="I41" s="3">
-        <v>47152500</v>
+        <v>48294800</v>
       </c>
       <c r="J41" s="3">
-        <v>45784200</v>
+        <v>46893300</v>
       </c>
       <c r="K41" s="3">
         <v>30255900</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>219703000</v>
+        <v>225026000</v>
       </c>
       <c r="E42" s="3">
-        <v>201482000</v>
+        <v>206363000</v>
       </c>
       <c r="F42" s="3">
-        <v>199941000</v>
+        <v>204784000</v>
       </c>
       <c r="G42" s="3">
-        <v>172201000</v>
+        <v>176372000</v>
       </c>
       <c r="H42" s="3">
-        <v>168371000</v>
+        <v>172450000</v>
       </c>
       <c r="I42" s="3">
-        <v>175477000</v>
+        <v>179728000</v>
       </c>
       <c r="J42" s="3">
-        <v>113149000</v>
+        <v>115890000</v>
       </c>
       <c r="K42" s="3">
         <v>111824000</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3501100</v>
+        <v>3585900</v>
       </c>
       <c r="E48" s="3">
-        <v>3221200</v>
+        <v>3299300</v>
       </c>
       <c r="F48" s="3">
-        <v>3025200</v>
+        <v>3098500</v>
       </c>
       <c r="G48" s="3">
-        <v>1486200</v>
+        <v>1522200</v>
       </c>
       <c r="H48" s="3">
-        <v>2872600</v>
+        <v>2942200</v>
       </c>
       <c r="I48" s="3">
-        <v>2940600</v>
+        <v>3011800</v>
       </c>
       <c r="J48" s="3">
-        <v>3105500</v>
+        <v>3180700</v>
       </c>
       <c r="K48" s="3">
         <v>1715700</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5408200</v>
+        <v>5539300</v>
       </c>
       <c r="E49" s="3">
-        <v>5528300</v>
+        <v>5662200</v>
       </c>
       <c r="F49" s="3">
-        <v>6492300</v>
+        <v>6649600</v>
       </c>
       <c r="G49" s="3">
-        <v>6338300</v>
+        <v>6491800</v>
       </c>
       <c r="H49" s="3">
-        <v>7895400</v>
+        <v>8086700</v>
       </c>
       <c r="I49" s="3">
-        <v>8418300</v>
+        <v>8622200</v>
       </c>
       <c r="J49" s="3">
-        <v>7765200</v>
+        <v>7953300</v>
       </c>
       <c r="K49" s="3">
         <v>6214900</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1803000</v>
+        <v>1846700</v>
       </c>
       <c r="E52" s="3">
-        <v>1644600</v>
+        <v>1684400</v>
       </c>
       <c r="F52" s="3">
-        <v>1182500</v>
+        <v>1211100</v>
       </c>
       <c r="G52" s="3">
-        <v>1301800</v>
+        <v>1333300</v>
       </c>
       <c r="H52" s="3">
-        <v>1954900</v>
+        <v>2002200</v>
       </c>
       <c r="I52" s="3">
-        <v>2439400</v>
+        <v>2498500</v>
       </c>
       <c r="J52" s="3">
-        <v>2328000</v>
+        <v>2384400</v>
       </c>
       <c r="K52" s="3">
         <v>2751200</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>823892000</v>
+        <v>843850000</v>
       </c>
       <c r="E54" s="3">
-        <v>714668000</v>
+        <v>731981000</v>
       </c>
       <c r="F54" s="3">
-        <v>686525000</v>
+        <v>703156000</v>
       </c>
       <c r="G54" s="3">
-        <v>616325000</v>
+        <v>631255000</v>
       </c>
       <c r="H54" s="3">
-        <v>559261000</v>
+        <v>572809000</v>
       </c>
       <c r="I54" s="3">
-        <v>513182000</v>
+        <v>525614000</v>
       </c>
       <c r="J54" s="3">
-        <v>497528000</v>
+        <v>509581000</v>
       </c>
       <c r="K54" s="3">
         <v>481963000</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10568400</v>
+        <v>10824400</v>
       </c>
       <c r="E57" s="3">
-        <v>9298400</v>
+        <v>9523700</v>
       </c>
       <c r="F57" s="3">
-        <v>8453000</v>
+        <v>8657800</v>
       </c>
       <c r="G57" s="3">
-        <v>7823100</v>
+        <v>8012600</v>
       </c>
       <c r="H57" s="3">
-        <v>7268400</v>
+        <v>7444400</v>
       </c>
       <c r="I57" s="3">
-        <v>7283500</v>
+        <v>7460000</v>
       </c>
       <c r="J57" s="3">
-        <v>7253900</v>
+        <v>7429600</v>
       </c>
       <c r="K57" s="3">
         <v>6567800</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>109587000</v>
+        <v>112241000</v>
       </c>
       <c r="E58" s="3">
-        <v>96946200</v>
+        <v>99294700</v>
       </c>
       <c r="F58" s="3">
-        <v>89376300</v>
+        <v>91541400</v>
       </c>
       <c r="G58" s="3">
-        <v>85101300</v>
+        <v>87162900</v>
       </c>
       <c r="H58" s="3">
-        <v>71736900</v>
+        <v>73474700</v>
       </c>
       <c r="I58" s="3">
-        <v>60696200</v>
+        <v>62166600</v>
       </c>
       <c r="J58" s="3">
-        <v>50498800</v>
+        <v>51722200</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1984500</v>
+        <v>2032600</v>
       </c>
       <c r="E59" s="3">
-        <v>854100</v>
+        <v>874800</v>
       </c>
       <c r="F59" s="3">
-        <v>1074000</v>
+        <v>1100000</v>
       </c>
       <c r="G59" s="3">
-        <v>1264200</v>
+        <v>1294800</v>
       </c>
       <c r="H59" s="3">
-        <v>1037800</v>
+        <v>1063000</v>
       </c>
       <c r="I59" s="3">
-        <v>840400</v>
+        <v>860700</v>
       </c>
       <c r="J59" s="3">
-        <v>808600</v>
+        <v>828100</v>
       </c>
       <c r="K59" s="3">
         <v>804200</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>22759000</v>
+        <v>23310300</v>
       </c>
       <c r="E61" s="3">
-        <v>22205000</v>
+        <v>22742900</v>
       </c>
       <c r="F61" s="3">
-        <v>23263800</v>
+        <v>23827400</v>
       </c>
       <c r="G61" s="3">
-        <v>21257600</v>
+        <v>21772600</v>
       </c>
       <c r="H61" s="3">
-        <v>20344200</v>
+        <v>20837000</v>
       </c>
       <c r="I61" s="3">
-        <v>17675500</v>
+        <v>18103700</v>
       </c>
       <c r="J61" s="3">
-        <v>16500300</v>
+        <v>16900000</v>
       </c>
       <c r="K61" s="3">
         <v>19589200</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>739100</v>
+        <v>757000</v>
       </c>
       <c r="E62" s="3">
-        <v>1029900</v>
+        <v>1054800</v>
       </c>
       <c r="F62" s="3">
-        <v>1307600</v>
+        <v>1339300</v>
       </c>
       <c r="G62" s="3">
-        <v>1095000</v>
+        <v>1121500</v>
       </c>
       <c r="H62" s="3">
-        <v>933000</v>
+        <v>955600</v>
       </c>
       <c r="I62" s="3">
-        <v>1374100</v>
+        <v>1407400</v>
       </c>
       <c r="J62" s="3">
-        <v>1475400</v>
+        <v>1511100</v>
       </c>
       <c r="K62" s="3">
         <v>1367300</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>772515000</v>
+        <v>791230000</v>
       </c>
       <c r="E66" s="3">
-        <v>673066000</v>
+        <v>689371000</v>
       </c>
       <c r="F66" s="3">
-        <v>645595000</v>
+        <v>661235000</v>
       </c>
       <c r="G66" s="3">
-        <v>579385000</v>
+        <v>593421000</v>
       </c>
       <c r="H66" s="3">
-        <v>526195000</v>
+        <v>538942000</v>
       </c>
       <c r="I66" s="3">
-        <v>481105000</v>
+        <v>492760000</v>
       </c>
       <c r="J66" s="3">
-        <v>466933000</v>
+        <v>478245000</v>
       </c>
       <c r="K66" s="3">
         <v>452362000</v>
@@ -3056,25 +3056,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1916500</v>
+        <v>1963000</v>
       </c>
       <c r="E70" s="3">
-        <v>2639800</v>
+        <v>2703700</v>
       </c>
       <c r="F70" s="3">
-        <v>3391900</v>
+        <v>3474100</v>
       </c>
       <c r="G70" s="3">
-        <v>3391900</v>
+        <v>3474100</v>
       </c>
       <c r="H70" s="3">
-        <v>3138800</v>
+        <v>3214800</v>
       </c>
       <c r="I70" s="3">
-        <v>3066500</v>
+        <v>3140700</v>
       </c>
       <c r="J70" s="3">
-        <v>2777200</v>
+        <v>2844400</v>
       </c>
       <c r="K70" s="3">
         <v>2432800</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>32629500</v>
+        <v>33420000</v>
       </c>
       <c r="E72" s="3">
-        <v>25672100</v>
+        <v>26294000</v>
       </c>
       <c r="F72" s="3">
-        <v>22235400</v>
+        <v>22774100</v>
       </c>
       <c r="G72" s="3">
-        <v>20774500</v>
+        <v>21277800</v>
       </c>
       <c r="H72" s="3">
-        <v>18695200</v>
+        <v>19148100</v>
       </c>
       <c r="I72" s="3">
-        <v>17146800</v>
+        <v>17562200</v>
       </c>
       <c r="J72" s="3">
-        <v>15335900</v>
+        <v>15707400</v>
       </c>
       <c r="K72" s="3">
         <v>14213800</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>49459600</v>
+        <v>50657700</v>
       </c>
       <c r="E76" s="3">
-        <v>38962000</v>
+        <v>39905900</v>
       </c>
       <c r="F76" s="3">
-        <v>37537300</v>
+        <v>38446600</v>
       </c>
       <c r="G76" s="3">
-        <v>33547300</v>
+        <v>34359900</v>
       </c>
       <c r="H76" s="3">
-        <v>29927500</v>
+        <v>30652600</v>
       </c>
       <c r="I76" s="3">
-        <v>29011200</v>
+        <v>29714100</v>
       </c>
       <c r="J76" s="3">
-        <v>27817900</v>
+        <v>28491900</v>
       </c>
       <c r="K76" s="3">
         <v>27167600</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9623200</v>
+        <v>9856300</v>
       </c>
       <c r="E81" s="3">
-        <v>5431400</v>
+        <v>5563000</v>
       </c>
       <c r="F81" s="3">
-        <v>3507600</v>
+        <v>3592600</v>
       </c>
       <c r="G81" s="3">
-        <v>4011700</v>
+        <v>4108900</v>
       </c>
       <c r="H81" s="3">
-        <v>3810600</v>
+        <v>3903000</v>
       </c>
       <c r="I81" s="3">
-        <v>3726800</v>
+        <v>3817000</v>
       </c>
       <c r="J81" s="3">
-        <v>3234200</v>
+        <v>3312600</v>
       </c>
       <c r="K81" s="3">
         <v>3193400</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1070400</v>
+        <v>1096300</v>
       </c>
       <c r="E83" s="3">
-        <v>1030600</v>
+        <v>1055600</v>
       </c>
       <c r="F83" s="3">
-        <v>1027700</v>
+        <v>1052600</v>
       </c>
       <c r="G83" s="3">
-        <v>715300</v>
+        <v>732600</v>
       </c>
       <c r="H83" s="3">
-        <v>653100</v>
+        <v>668900</v>
       </c>
       <c r="I83" s="3">
-        <v>633500</v>
+        <v>648900</v>
       </c>
       <c r="J83" s="3">
-        <v>598800</v>
+        <v>613300</v>
       </c>
       <c r="K83" s="3">
         <v>592400</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3585000</v>
+        <v>3671800</v>
       </c>
       <c r="E89" s="3">
-        <v>31857100</v>
+        <v>32628900</v>
       </c>
       <c r="F89" s="3">
-        <v>36765600</v>
+        <v>37656300</v>
       </c>
       <c r="G89" s="3">
-        <v>21192500</v>
+        <v>21705900</v>
       </c>
       <c r="H89" s="3">
-        <v>12954300</v>
+        <v>13268100</v>
       </c>
       <c r="I89" s="3">
-        <v>2103100</v>
+        <v>2154100</v>
       </c>
       <c r="J89" s="3">
-        <v>-1972900</v>
+        <v>-2020700</v>
       </c>
       <c r="K89" s="3">
         <v>1751800</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-561900</v>
+        <v>-575600</v>
       </c>
       <c r="E91" s="3">
-        <v>-350000</v>
+        <v>-358500</v>
       </c>
       <c r="F91" s="3">
-        <v>-288600</v>
+        <v>-295600</v>
       </c>
       <c r="G91" s="3">
-        <v>-345700</v>
+        <v>-354100</v>
       </c>
       <c r="H91" s="3">
-        <v>-238700</v>
+        <v>-244400</v>
       </c>
       <c r="I91" s="3">
-        <v>-217700</v>
+        <v>-223000</v>
       </c>
       <c r="J91" s="3">
-        <v>-162000</v>
+        <v>-165900</v>
       </c>
       <c r="K91" s="3">
         <v>-134400</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-21314000</v>
+        <v>-21830300</v>
       </c>
       <c r="E94" s="3">
-        <v>-216200</v>
+        <v>-221500</v>
       </c>
       <c r="F94" s="3">
-        <v>-23124200</v>
+        <v>-23684400</v>
       </c>
       <c r="G94" s="3">
-        <v>-14160600</v>
+        <v>-14503700</v>
       </c>
       <c r="H94" s="3">
-        <v>-8196300</v>
+        <v>-8394800</v>
       </c>
       <c r="I94" s="3">
-        <v>-2281800</v>
+        <v>-2337000</v>
       </c>
       <c r="J94" s="3">
-        <v>-11088400</v>
+        <v>-11357000</v>
       </c>
       <c r="K94" s="3">
         <v>3023000</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1876800</v>
+        <v>-1922200</v>
       </c>
       <c r="E96" s="3">
-        <v>-2155200</v>
+        <v>-2207400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1790000</v>
+        <v>-1833300</v>
       </c>
       <c r="G96" s="3">
-        <v>-1990300</v>
+        <v>-2038500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1867400</v>
+        <v>-1912600</v>
       </c>
       <c r="I96" s="3">
-        <v>-1453700</v>
+        <v>-1488900</v>
       </c>
       <c r="J96" s="3">
-        <v>-1604800</v>
+        <v>-1643700</v>
       </c>
       <c r="K96" s="3">
         <v>-1603100</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>11557100</v>
+        <v>11837000</v>
       </c>
       <c r="E100" s="3">
-        <v>-3704300</v>
+        <v>-3794100</v>
       </c>
       <c r="F100" s="3">
-        <v>-7452100</v>
+        <v>-7632600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1889100</v>
+        <v>-1934800</v>
       </c>
       <c r="H100" s="3">
-        <v>1979500</v>
+        <v>2027400</v>
       </c>
       <c r="I100" s="3">
-        <v>1443500</v>
+        <v>1478500</v>
       </c>
       <c r="J100" s="3">
-        <v>5819000</v>
+        <v>5960000</v>
       </c>
       <c r="K100" s="3">
         <v>49600</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1980900</v>
+        <v>2028900</v>
       </c>
       <c r="E101" s="3">
-        <v>-2006900</v>
+        <v>-2055600</v>
       </c>
       <c r="F101" s="3">
-        <v>34000</v>
+        <v>34800</v>
       </c>
       <c r="G101" s="3">
-        <v>-325400</v>
+        <v>-333300</v>
       </c>
       <c r="H101" s="3">
-        <v>164200</v>
+        <v>168100</v>
       </c>
       <c r="I101" s="3">
-        <v>-580700</v>
+        <v>-594800</v>
       </c>
       <c r="J101" s="3">
-        <v>992300</v>
+        <v>1016300</v>
       </c>
       <c r="K101" s="3">
         <v>4117700</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4191100</v>
+        <v>-4292600</v>
       </c>
       <c r="E102" s="3">
-        <v>25929600</v>
+        <v>26557800</v>
       </c>
       <c r="F102" s="3">
-        <v>6223300</v>
+        <v>6374100</v>
       </c>
       <c r="G102" s="3">
-        <v>4817400</v>
+        <v>4934100</v>
       </c>
       <c r="H102" s="3">
-        <v>6901700</v>
+        <v>7068900</v>
       </c>
       <c r="I102" s="3">
-        <v>684200</v>
+        <v>700700</v>
       </c>
       <c r="J102" s="3">
-        <v>-6250100</v>
+        <v>-6401500</v>
       </c>
       <c r="K102" s="3">
         <v>8942000</v>

--- a/AAII_Financials/Yearly/BMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BMO_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19923700</v>
+        <v>19913500</v>
       </c>
       <c r="E8" s="3">
-        <v>14731100</v>
+        <v>14723500</v>
       </c>
       <c r="F8" s="3">
-        <v>17270400</v>
+        <v>17261500</v>
       </c>
       <c r="G8" s="3">
-        <v>19371800</v>
+        <v>19361900</v>
       </c>
       <c r="H8" s="3">
-        <v>15581500</v>
+        <v>15573500</v>
       </c>
       <c r="I8" s="3">
-        <v>12898500</v>
+        <v>12891900</v>
       </c>
       <c r="J8" s="3">
-        <v>10657800</v>
+        <v>10652300</v>
       </c>
       <c r="K8" s="3">
         <v>9879800</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-447400</v>
+        <v>-447200</v>
       </c>
       <c r="E15" s="3">
-        <v>-469600</v>
+        <v>-469400</v>
       </c>
       <c r="F15" s="3">
-        <v>-459300</v>
+        <v>-459000</v>
       </c>
       <c r="G15" s="3">
-        <v>-410400</v>
+        <v>-410200</v>
       </c>
       <c r="H15" s="3">
-        <v>-372600</v>
+        <v>-372400</v>
       </c>
       <c r="I15" s="3">
-        <v>-718500</v>
+        <v>-718100</v>
       </c>
       <c r="J15" s="3">
-        <v>-657800</v>
+        <v>-657400</v>
       </c>
       <c r="K15" s="3">
         <v>-308600</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8388900</v>
+        <v>8384600</v>
       </c>
       <c r="E17" s="3">
-        <v>4145900</v>
+        <v>4143800</v>
       </c>
       <c r="F17" s="3">
-        <v>7981500</v>
+        <v>7977400</v>
       </c>
       <c r="G17" s="3">
-        <v>10471100</v>
+        <v>10465700</v>
       </c>
       <c r="H17" s="3">
-        <v>7599300</v>
+        <v>7595400</v>
       </c>
       <c r="I17" s="3">
-        <v>5099300</v>
+        <v>5096600</v>
       </c>
       <c r="J17" s="3">
-        <v>3916300</v>
+        <v>3914300</v>
       </c>
       <c r="K17" s="3">
         <v>3759600</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11534800</v>
+        <v>11528900</v>
       </c>
       <c r="E18" s="3">
-        <v>10585200</v>
+        <v>10579700</v>
       </c>
       <c r="F18" s="3">
-        <v>9288900</v>
+        <v>9284100</v>
       </c>
       <c r="G18" s="3">
-        <v>8900700</v>
+        <v>8896200</v>
       </c>
       <c r="H18" s="3">
-        <v>7982200</v>
+        <v>7978100</v>
       </c>
       <c r="I18" s="3">
-        <v>7799300</v>
+        <v>7795300</v>
       </c>
       <c r="J18" s="3">
-        <v>6741500</v>
+        <v>6738000</v>
       </c>
       <c r="K18" s="3">
         <v>6120300</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1714100</v>
+        <v>1713200</v>
       </c>
       <c r="E20" s="3">
-        <v>-2986700</v>
+        <v>-2985100</v>
       </c>
       <c r="F20" s="3">
-        <v>-4586700</v>
+        <v>-4584300</v>
       </c>
       <c r="G20" s="3">
-        <v>-3514100</v>
+        <v>-3512300</v>
       </c>
       <c r="H20" s="3">
-        <v>-2490400</v>
+        <v>-2489100</v>
       </c>
       <c r="I20" s="3">
-        <v>-2887400</v>
+        <v>-2885900</v>
       </c>
       <c r="J20" s="3">
-        <v>-2495600</v>
+        <v>-2494300</v>
       </c>
       <c r="K20" s="3">
         <v>-2109900</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>14349200</v>
+        <v>14337800</v>
       </c>
       <c r="E21" s="3">
-        <v>8657900</v>
+        <v>8649600</v>
       </c>
       <c r="F21" s="3">
-        <v>5758600</v>
+        <v>5751900</v>
       </c>
       <c r="G21" s="3">
-        <v>6121900</v>
+        <v>6116100</v>
       </c>
       <c r="H21" s="3">
-        <v>6163200</v>
+        <v>6157600</v>
       </c>
       <c r="I21" s="3">
-        <v>5563100</v>
+        <v>5557900</v>
       </c>
       <c r="J21" s="3">
-        <v>4861500</v>
+        <v>4856800</v>
       </c>
       <c r="K21" s="3">
         <v>4593700</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>13248900</v>
+        <v>13242100</v>
       </c>
       <c r="E23" s="3">
-        <v>7598500</v>
+        <v>7594600</v>
       </c>
       <c r="F23" s="3">
-        <v>4702200</v>
+        <v>4699800</v>
       </c>
       <c r="G23" s="3">
-        <v>5386700</v>
+        <v>5383900</v>
       </c>
       <c r="H23" s="3">
-        <v>5491800</v>
+        <v>5489000</v>
       </c>
       <c r="I23" s="3">
-        <v>4911800</v>
+        <v>4909300</v>
       </c>
       <c r="J23" s="3">
-        <v>4245900</v>
+        <v>4243700</v>
       </c>
       <c r="K23" s="3">
         <v>4010300</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3221500</v>
+        <v>3219800</v>
       </c>
       <c r="E24" s="3">
-        <v>1854800</v>
+        <v>1853900</v>
       </c>
       <c r="F24" s="3">
-        <v>926700</v>
+        <v>926200</v>
       </c>
       <c r="G24" s="3">
-        <v>1121500</v>
+        <v>1120900</v>
       </c>
       <c r="H24" s="3">
-        <v>1137800</v>
+        <v>1137200</v>
       </c>
       <c r="I24" s="3">
-        <v>957000</v>
+        <v>956500</v>
       </c>
       <c r="J24" s="3">
-        <v>815600</v>
+        <v>815100</v>
       </c>
       <c r="K24" s="3">
         <v>702800</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>10027400</v>
+        <v>10022300</v>
       </c>
       <c r="E26" s="3">
-        <v>5743700</v>
+        <v>5740800</v>
       </c>
       <c r="F26" s="3">
-        <v>3775600</v>
+        <v>3773600</v>
       </c>
       <c r="G26" s="3">
-        <v>4265200</v>
+        <v>4263000</v>
       </c>
       <c r="H26" s="3">
-        <v>4354100</v>
+        <v>4351800</v>
       </c>
       <c r="I26" s="3">
-        <v>3954800</v>
+        <v>3952800</v>
       </c>
       <c r="J26" s="3">
-        <v>3430400</v>
+        <v>3428600</v>
       </c>
       <c r="K26" s="3">
         <v>3307500</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>9856300</v>
+        <v>9851200</v>
       </c>
       <c r="E27" s="3">
-        <v>5563000</v>
+        <v>5560100</v>
       </c>
       <c r="F27" s="3">
-        <v>3592600</v>
+        <v>3590700</v>
       </c>
       <c r="G27" s="3">
-        <v>4108900</v>
+        <v>4106800</v>
       </c>
       <c r="H27" s="3">
-        <v>4217800</v>
+        <v>4215600</v>
       </c>
       <c r="I27" s="3">
-        <v>3817000</v>
+        <v>3815100</v>
       </c>
       <c r="J27" s="3">
-        <v>3312600</v>
+        <v>3310900</v>
       </c>
       <c r="K27" s="3">
         <v>3193400</v>
@@ -1545,7 +1545,7 @@
         <v>5</v>
       </c>
       <c r="H29" s="3">
-        <v>-314800</v>
+        <v>-314700</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1714100</v>
+        <v>-1713200</v>
       </c>
       <c r="E32" s="3">
-        <v>2986700</v>
+        <v>2985100</v>
       </c>
       <c r="F32" s="3">
-        <v>4586700</v>
+        <v>4584300</v>
       </c>
       <c r="G32" s="3">
-        <v>3514100</v>
+        <v>3512300</v>
       </c>
       <c r="H32" s="3">
-        <v>2490400</v>
+        <v>2489100</v>
       </c>
       <c r="I32" s="3">
-        <v>2887400</v>
+        <v>2885900</v>
       </c>
       <c r="J32" s="3">
-        <v>2495600</v>
+        <v>2494300</v>
       </c>
       <c r="K32" s="3">
         <v>2109900</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9856300</v>
+        <v>9851200</v>
       </c>
       <c r="E33" s="3">
-        <v>5563000</v>
+        <v>5560100</v>
       </c>
       <c r="F33" s="3">
-        <v>3592600</v>
+        <v>3590700</v>
       </c>
       <c r="G33" s="3">
-        <v>4108900</v>
+        <v>4106800</v>
       </c>
       <c r="H33" s="3">
-        <v>3903000</v>
+        <v>3901000</v>
       </c>
       <c r="I33" s="3">
-        <v>3817000</v>
+        <v>3815100</v>
       </c>
       <c r="J33" s="3">
-        <v>3312600</v>
+        <v>3310900</v>
       </c>
       <c r="K33" s="3">
         <v>3193400</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9856300</v>
+        <v>9851200</v>
       </c>
       <c r="E35" s="3">
-        <v>5563000</v>
+        <v>5560100</v>
       </c>
       <c r="F35" s="3">
-        <v>3592600</v>
+        <v>3590700</v>
       </c>
       <c r="G35" s="3">
-        <v>4108900</v>
+        <v>4106800</v>
       </c>
       <c r="H35" s="3">
-        <v>3903000</v>
+        <v>3901000</v>
       </c>
       <c r="I35" s="3">
-        <v>3817000</v>
+        <v>3815100</v>
       </c>
       <c r="J35" s="3">
-        <v>3312600</v>
+        <v>3310900</v>
       </c>
       <c r="K35" s="3">
         <v>3193400</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>64789600</v>
+        <v>64756300</v>
       </c>
       <c r="E41" s="3">
-        <v>69082200</v>
+        <v>69046700</v>
       </c>
       <c r="F41" s="3">
-        <v>42524400</v>
+        <v>42502600</v>
       </c>
       <c r="G41" s="3">
-        <v>36150300</v>
+        <v>36131800</v>
       </c>
       <c r="H41" s="3">
-        <v>62432500</v>
+        <v>62400500</v>
       </c>
       <c r="I41" s="3">
-        <v>48294800</v>
+        <v>48270000</v>
       </c>
       <c r="J41" s="3">
-        <v>46893300</v>
+        <v>46869200</v>
       </c>
       <c r="K41" s="3">
         <v>30255900</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>225026000</v>
+        <v>224910000</v>
       </c>
       <c r="E42" s="3">
-        <v>206363000</v>
+        <v>206257000</v>
       </c>
       <c r="F42" s="3">
-        <v>204784000</v>
+        <v>204679000</v>
       </c>
       <c r="G42" s="3">
-        <v>176372000</v>
+        <v>176282000</v>
       </c>
       <c r="H42" s="3">
-        <v>172450000</v>
+        <v>172361000</v>
       </c>
       <c r="I42" s="3">
-        <v>179728000</v>
+        <v>179636000</v>
       </c>
       <c r="J42" s="3">
-        <v>115890000</v>
+        <v>115831000</v>
       </c>
       <c r="K42" s="3">
         <v>111824000</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3585900</v>
+        <v>3584100</v>
       </c>
       <c r="E48" s="3">
-        <v>3299300</v>
+        <v>3297600</v>
       </c>
       <c r="F48" s="3">
-        <v>3098500</v>
+        <v>3096900</v>
       </c>
       <c r="G48" s="3">
-        <v>1522200</v>
+        <v>1521400</v>
       </c>
       <c r="H48" s="3">
-        <v>2942200</v>
+        <v>2940700</v>
       </c>
       <c r="I48" s="3">
-        <v>3011800</v>
+        <v>3010300</v>
       </c>
       <c r="J48" s="3">
-        <v>3180700</v>
+        <v>3179100</v>
       </c>
       <c r="K48" s="3">
         <v>1715700</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5539300</v>
+        <v>5536400</v>
       </c>
       <c r="E49" s="3">
-        <v>5662200</v>
+        <v>5659300</v>
       </c>
       <c r="F49" s="3">
-        <v>6649600</v>
+        <v>6646200</v>
       </c>
       <c r="G49" s="3">
-        <v>6491800</v>
+        <v>6488500</v>
       </c>
       <c r="H49" s="3">
-        <v>8086700</v>
+        <v>8082500</v>
       </c>
       <c r="I49" s="3">
-        <v>8622200</v>
+        <v>8617800</v>
       </c>
       <c r="J49" s="3">
-        <v>7953300</v>
+        <v>7949200</v>
       </c>
       <c r="K49" s="3">
         <v>6214900</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1846700</v>
+        <v>1845700</v>
       </c>
       <c r="E52" s="3">
-        <v>1684400</v>
+        <v>1683600</v>
       </c>
       <c r="F52" s="3">
-        <v>1211100</v>
+        <v>1210500</v>
       </c>
       <c r="G52" s="3">
-        <v>1333300</v>
+        <v>1332600</v>
       </c>
       <c r="H52" s="3">
-        <v>2002200</v>
+        <v>2001200</v>
       </c>
       <c r="I52" s="3">
-        <v>2498500</v>
+        <v>2497200</v>
       </c>
       <c r="J52" s="3">
-        <v>2384400</v>
+        <v>2383200</v>
       </c>
       <c r="K52" s="3">
         <v>2751200</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>843850000</v>
+        <v>843417000</v>
       </c>
       <c r="E54" s="3">
-        <v>731981000</v>
+        <v>731605000</v>
       </c>
       <c r="F54" s="3">
-        <v>703156000</v>
+        <v>702795000</v>
       </c>
       <c r="G54" s="3">
-        <v>631255000</v>
+        <v>630931000</v>
       </c>
       <c r="H54" s="3">
-        <v>572809000</v>
+        <v>572515000</v>
       </c>
       <c r="I54" s="3">
-        <v>525614000</v>
+        <v>525345000</v>
       </c>
       <c r="J54" s="3">
-        <v>509581000</v>
+        <v>509320000</v>
       </c>
       <c r="K54" s="3">
         <v>481963000</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10824400</v>
+        <v>10818900</v>
       </c>
       <c r="E57" s="3">
-        <v>9523700</v>
+        <v>9518800</v>
       </c>
       <c r="F57" s="3">
-        <v>8657800</v>
+        <v>8653300</v>
       </c>
       <c r="G57" s="3">
-        <v>8012600</v>
+        <v>8008500</v>
       </c>
       <c r="H57" s="3">
-        <v>7444400</v>
+        <v>7440600</v>
       </c>
       <c r="I57" s="3">
-        <v>7460000</v>
+        <v>7456200</v>
       </c>
       <c r="J57" s="3">
-        <v>7429600</v>
+        <v>7425800</v>
       </c>
       <c r="K57" s="3">
         <v>6567800</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>112241000</v>
+        <v>112184000</v>
       </c>
       <c r="E58" s="3">
-        <v>99294700</v>
+        <v>99243800</v>
       </c>
       <c r="F58" s="3">
-        <v>91541400</v>
+        <v>91494400</v>
       </c>
       <c r="G58" s="3">
-        <v>87162900</v>
+        <v>87118200</v>
       </c>
       <c r="H58" s="3">
-        <v>73474700</v>
+        <v>73437000</v>
       </c>
       <c r="I58" s="3">
-        <v>62166600</v>
+        <v>62134700</v>
       </c>
       <c r="J58" s="3">
-        <v>51722200</v>
+        <v>51695600</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2032600</v>
+        <v>2031500</v>
       </c>
       <c r="E59" s="3">
-        <v>874800</v>
+        <v>874400</v>
       </c>
       <c r="F59" s="3">
-        <v>1100000</v>
+        <v>1099400</v>
       </c>
       <c r="G59" s="3">
-        <v>1294800</v>
+        <v>1294100</v>
       </c>
       <c r="H59" s="3">
-        <v>1063000</v>
+        <v>1062400</v>
       </c>
       <c r="I59" s="3">
-        <v>860700</v>
+        <v>860300</v>
       </c>
       <c r="J59" s="3">
-        <v>828100</v>
+        <v>827700</v>
       </c>
       <c r="K59" s="3">
         <v>804200</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>23310300</v>
+        <v>23298400</v>
       </c>
       <c r="E61" s="3">
-        <v>22742900</v>
+        <v>22731300</v>
       </c>
       <c r="F61" s="3">
-        <v>23827400</v>
+        <v>23815200</v>
       </c>
       <c r="G61" s="3">
-        <v>21772600</v>
+        <v>21761400</v>
       </c>
       <c r="H61" s="3">
-        <v>20837000</v>
+        <v>20826300</v>
       </c>
       <c r="I61" s="3">
-        <v>18103700</v>
+        <v>18094400</v>
       </c>
       <c r="J61" s="3">
-        <v>16900000</v>
+        <v>16891300</v>
       </c>
       <c r="K61" s="3">
         <v>19589200</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>757000</v>
+        <v>756600</v>
       </c>
       <c r="E62" s="3">
-        <v>1054800</v>
+        <v>1054300</v>
       </c>
       <c r="F62" s="3">
-        <v>1339300</v>
+        <v>1338600</v>
       </c>
       <c r="G62" s="3">
-        <v>1121500</v>
+        <v>1120900</v>
       </c>
       <c r="H62" s="3">
-        <v>955600</v>
+        <v>955100</v>
       </c>
       <c r="I62" s="3">
-        <v>1407400</v>
+        <v>1406700</v>
       </c>
       <c r="J62" s="3">
-        <v>1511100</v>
+        <v>1510300</v>
       </c>
       <c r="K62" s="3">
         <v>1367300</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>791230000</v>
+        <v>790824000</v>
       </c>
       <c r="E66" s="3">
-        <v>689371000</v>
+        <v>689018000</v>
       </c>
       <c r="F66" s="3">
-        <v>661235000</v>
+        <v>660896000</v>
       </c>
       <c r="G66" s="3">
-        <v>593421000</v>
+        <v>593117000</v>
       </c>
       <c r="H66" s="3">
-        <v>538942000</v>
+        <v>538665000</v>
       </c>
       <c r="I66" s="3">
-        <v>492760000</v>
+        <v>492507000</v>
       </c>
       <c r="J66" s="3">
-        <v>478245000</v>
+        <v>477999000</v>
       </c>
       <c r="K66" s="3">
         <v>452362000</v>
@@ -3056,25 +3056,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1963000</v>
+        <v>1962000</v>
       </c>
       <c r="E70" s="3">
-        <v>2703700</v>
+        <v>2702300</v>
       </c>
       <c r="F70" s="3">
-        <v>3474100</v>
+        <v>3472300</v>
       </c>
       <c r="G70" s="3">
-        <v>3474100</v>
+        <v>3472300</v>
       </c>
       <c r="H70" s="3">
-        <v>3214800</v>
+        <v>3213200</v>
       </c>
       <c r="I70" s="3">
-        <v>3140700</v>
+        <v>3139100</v>
       </c>
       <c r="J70" s="3">
-        <v>2844400</v>
+        <v>2843000</v>
       </c>
       <c r="K70" s="3">
         <v>2432800</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>33420000</v>
+        <v>33402800</v>
       </c>
       <c r="E72" s="3">
-        <v>26294000</v>
+        <v>26280600</v>
       </c>
       <c r="F72" s="3">
-        <v>22774100</v>
+        <v>22762400</v>
       </c>
       <c r="G72" s="3">
-        <v>21277800</v>
+        <v>21266800</v>
       </c>
       <c r="H72" s="3">
-        <v>19148100</v>
+        <v>19138300</v>
       </c>
       <c r="I72" s="3">
-        <v>17562200</v>
+        <v>17553200</v>
       </c>
       <c r="J72" s="3">
-        <v>15707400</v>
+        <v>15699300</v>
       </c>
       <c r="K72" s="3">
         <v>14213800</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>50657700</v>
+        <v>50631700</v>
       </c>
       <c r="E76" s="3">
-        <v>39905900</v>
+        <v>39885400</v>
       </c>
       <c r="F76" s="3">
-        <v>38446600</v>
+        <v>38426900</v>
       </c>
       <c r="G76" s="3">
-        <v>34359900</v>
+        <v>34342300</v>
       </c>
       <c r="H76" s="3">
-        <v>30652600</v>
+        <v>30636800</v>
       </c>
       <c r="I76" s="3">
-        <v>29714100</v>
+        <v>29698800</v>
       </c>
       <c r="J76" s="3">
-        <v>28491900</v>
+        <v>28477200</v>
       </c>
       <c r="K76" s="3">
         <v>27167600</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9856300</v>
+        <v>9851200</v>
       </c>
       <c r="E81" s="3">
-        <v>5563000</v>
+        <v>5560100</v>
       </c>
       <c r="F81" s="3">
-        <v>3592600</v>
+        <v>3590700</v>
       </c>
       <c r="G81" s="3">
-        <v>4108900</v>
+        <v>4106800</v>
       </c>
       <c r="H81" s="3">
-        <v>3903000</v>
+        <v>3901000</v>
       </c>
       <c r="I81" s="3">
-        <v>3817000</v>
+        <v>3815100</v>
       </c>
       <c r="J81" s="3">
-        <v>3312600</v>
+        <v>3310900</v>
       </c>
       <c r="K81" s="3">
         <v>3193400</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1096300</v>
+        <v>1095700</v>
       </c>
       <c r="E83" s="3">
-        <v>1055600</v>
+        <v>1055000</v>
       </c>
       <c r="F83" s="3">
-        <v>1052600</v>
+        <v>1052100</v>
       </c>
       <c r="G83" s="3">
-        <v>732600</v>
+        <v>732200</v>
       </c>
       <c r="H83" s="3">
-        <v>668900</v>
+        <v>668500</v>
       </c>
       <c r="I83" s="3">
-        <v>648900</v>
+        <v>648600</v>
       </c>
       <c r="J83" s="3">
-        <v>613300</v>
+        <v>613000</v>
       </c>
       <c r="K83" s="3">
         <v>592400</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3671800</v>
+        <v>3670000</v>
       </c>
       <c r="E89" s="3">
-        <v>32628900</v>
+        <v>32612100</v>
       </c>
       <c r="F89" s="3">
-        <v>37656300</v>
+        <v>37636900</v>
       </c>
       <c r="G89" s="3">
-        <v>21705900</v>
+        <v>21694800</v>
       </c>
       <c r="H89" s="3">
-        <v>13268100</v>
+        <v>13261300</v>
       </c>
       <c r="I89" s="3">
-        <v>2154100</v>
+        <v>2153000</v>
       </c>
       <c r="J89" s="3">
-        <v>-2020700</v>
+        <v>-2019700</v>
       </c>
       <c r="K89" s="3">
         <v>1751800</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-575600</v>
+        <v>-575300</v>
       </c>
       <c r="E91" s="3">
-        <v>-358500</v>
+        <v>-358300</v>
       </c>
       <c r="F91" s="3">
-        <v>-295600</v>
+        <v>-295400</v>
       </c>
       <c r="G91" s="3">
-        <v>-354100</v>
+        <v>-353900</v>
       </c>
       <c r="H91" s="3">
-        <v>-244400</v>
+        <v>-244300</v>
       </c>
       <c r="I91" s="3">
-        <v>-223000</v>
+        <v>-222800</v>
       </c>
       <c r="J91" s="3">
-        <v>-165900</v>
+        <v>-165800</v>
       </c>
       <c r="K91" s="3">
         <v>-134400</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-21830300</v>
+        <v>-21819100</v>
       </c>
       <c r="E94" s="3">
-        <v>-221500</v>
+        <v>-221400</v>
       </c>
       <c r="F94" s="3">
-        <v>-23684400</v>
+        <v>-23672300</v>
       </c>
       <c r="G94" s="3">
-        <v>-14503700</v>
+        <v>-14496200</v>
       </c>
       <c r="H94" s="3">
-        <v>-8394800</v>
+        <v>-8390500</v>
       </c>
       <c r="I94" s="3">
-        <v>-2337000</v>
+        <v>-2335800</v>
       </c>
       <c r="J94" s="3">
-        <v>-11357000</v>
+        <v>-11351200</v>
       </c>
       <c r="K94" s="3">
         <v>3023000</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1922200</v>
+        <v>-1921200</v>
       </c>
       <c r="E96" s="3">
-        <v>-2207400</v>
+        <v>-2206300</v>
       </c>
       <c r="F96" s="3">
-        <v>-1833300</v>
+        <v>-1832400</v>
       </c>
       <c r="G96" s="3">
-        <v>-2038500</v>
+        <v>-2037500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1912600</v>
+        <v>-1911600</v>
       </c>
       <c r="I96" s="3">
-        <v>-1488900</v>
+        <v>-1488100</v>
       </c>
       <c r="J96" s="3">
-        <v>-1643700</v>
+        <v>-1642900</v>
       </c>
       <c r="K96" s="3">
         <v>-1603100</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>11837000</v>
+        <v>11831000</v>
       </c>
       <c r="E100" s="3">
-        <v>-3794100</v>
+        <v>-3792100</v>
       </c>
       <c r="F100" s="3">
-        <v>-7632600</v>
+        <v>-7628700</v>
       </c>
       <c r="G100" s="3">
-        <v>-1934800</v>
+        <v>-1933800</v>
       </c>
       <c r="H100" s="3">
-        <v>2027400</v>
+        <v>2026400</v>
       </c>
       <c r="I100" s="3">
-        <v>1478500</v>
+        <v>1477800</v>
       </c>
       <c r="J100" s="3">
-        <v>5960000</v>
+        <v>5956900</v>
       </c>
       <c r="K100" s="3">
         <v>49600</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2028900</v>
+        <v>2027800</v>
       </c>
       <c r="E101" s="3">
-        <v>-2055600</v>
+        <v>-2054500</v>
       </c>
       <c r="F101" s="3">
         <v>34800</v>
       </c>
       <c r="G101" s="3">
-        <v>-333300</v>
+        <v>-333200</v>
       </c>
       <c r="H101" s="3">
         <v>168100</v>
       </c>
       <c r="I101" s="3">
-        <v>-594800</v>
+        <v>-594500</v>
       </c>
       <c r="J101" s="3">
-        <v>1016300</v>
+        <v>1015800</v>
       </c>
       <c r="K101" s="3">
         <v>4117700</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4292600</v>
+        <v>-4290400</v>
       </c>
       <c r="E102" s="3">
-        <v>26557800</v>
+        <v>26544100</v>
       </c>
       <c r="F102" s="3">
-        <v>6374100</v>
+        <v>6370800</v>
       </c>
       <c r="G102" s="3">
-        <v>4934100</v>
+        <v>4931500</v>
       </c>
       <c r="H102" s="3">
-        <v>7068900</v>
+        <v>7065300</v>
       </c>
       <c r="I102" s="3">
-        <v>700700</v>
+        <v>700400</v>
       </c>
       <c r="J102" s="3">
-        <v>-6401500</v>
+        <v>-6398200</v>
       </c>
       <c r="K102" s="3">
         <v>8942000</v>

--- a/AAII_Financials/Yearly/BMO_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BMO_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19913500</v>
+        <v>19554400</v>
       </c>
       <c r="E8" s="3">
-        <v>14723500</v>
+        <v>14458000</v>
       </c>
       <c r="F8" s="3">
-        <v>17261500</v>
+        <v>16950200</v>
       </c>
       <c r="G8" s="3">
-        <v>19361900</v>
+        <v>19012800</v>
       </c>
       <c r="H8" s="3">
-        <v>15573500</v>
+        <v>15292700</v>
       </c>
       <c r="I8" s="3">
-        <v>12891900</v>
+        <v>12659400</v>
       </c>
       <c r="J8" s="3">
-        <v>10652300</v>
+        <v>10460200</v>
       </c>
       <c r="K8" s="3">
         <v>9879800</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-447200</v>
+        <v>-439100</v>
       </c>
       <c r="E15" s="3">
-        <v>-469400</v>
+        <v>-460900</v>
       </c>
       <c r="F15" s="3">
-        <v>-459000</v>
+        <v>-450700</v>
       </c>
       <c r="G15" s="3">
-        <v>-410200</v>
+        <v>-402800</v>
       </c>
       <c r="H15" s="3">
-        <v>-372400</v>
+        <v>-365700</v>
       </c>
       <c r="I15" s="3">
-        <v>-718100</v>
+        <v>-705200</v>
       </c>
       <c r="J15" s="3">
-        <v>-657400</v>
+        <v>-645600</v>
       </c>
       <c r="K15" s="3">
         <v>-308600</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8384600</v>
+        <v>8233400</v>
       </c>
       <c r="E17" s="3">
-        <v>4143800</v>
+        <v>4069100</v>
       </c>
       <c r="F17" s="3">
-        <v>7977400</v>
+        <v>7833500</v>
       </c>
       <c r="G17" s="3">
-        <v>10465700</v>
+        <v>10277000</v>
       </c>
       <c r="H17" s="3">
-        <v>7595400</v>
+        <v>7458400</v>
       </c>
       <c r="I17" s="3">
-        <v>5096600</v>
+        <v>5004700</v>
       </c>
       <c r="J17" s="3">
-        <v>3914300</v>
+        <v>3843700</v>
       </c>
       <c r="K17" s="3">
         <v>3759600</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11528900</v>
+        <v>11321000</v>
       </c>
       <c r="E18" s="3">
-        <v>10579700</v>
+        <v>10389000</v>
       </c>
       <c r="F18" s="3">
-        <v>9284100</v>
+        <v>9116700</v>
       </c>
       <c r="G18" s="3">
-        <v>8896200</v>
+        <v>8735800</v>
       </c>
       <c r="H18" s="3">
-        <v>7978100</v>
+        <v>7834300</v>
       </c>
       <c r="I18" s="3">
-        <v>7795300</v>
+        <v>7654700</v>
       </c>
       <c r="J18" s="3">
-        <v>6738000</v>
+        <v>6616500</v>
       </c>
       <c r="K18" s="3">
         <v>6120300</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1713200</v>
+        <v>1682300</v>
       </c>
       <c r="E20" s="3">
-        <v>-2985100</v>
+        <v>-2931300</v>
       </c>
       <c r="F20" s="3">
-        <v>-4584300</v>
+        <v>-4501600</v>
       </c>
       <c r="G20" s="3">
-        <v>-3512300</v>
+        <v>-3448900</v>
       </c>
       <c r="H20" s="3">
-        <v>-2489100</v>
+        <v>-2444200</v>
       </c>
       <c r="I20" s="3">
-        <v>-2885900</v>
+        <v>-2833900</v>
       </c>
       <c r="J20" s="3">
-        <v>-2494300</v>
+        <v>-2449300</v>
       </c>
       <c r="K20" s="3">
         <v>-2109900</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>14337800</v>
+        <v>14085300</v>
       </c>
       <c r="E21" s="3">
-        <v>8649600</v>
+        <v>8499500</v>
       </c>
       <c r="F21" s="3">
-        <v>5751900</v>
+        <v>5654000</v>
       </c>
       <c r="G21" s="3">
-        <v>6116100</v>
+        <v>6009900</v>
       </c>
       <c r="H21" s="3">
-        <v>6157600</v>
+        <v>6050200</v>
       </c>
       <c r="I21" s="3">
-        <v>5557900</v>
+        <v>5461200</v>
       </c>
       <c r="J21" s="3">
-        <v>4856800</v>
+        <v>4772600</v>
       </c>
       <c r="K21" s="3">
         <v>4593700</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>13242100</v>
+        <v>13003300</v>
       </c>
       <c r="E23" s="3">
-        <v>7594600</v>
+        <v>7457700</v>
       </c>
       <c r="F23" s="3">
-        <v>4699800</v>
+        <v>4615100</v>
       </c>
       <c r="G23" s="3">
-        <v>5383900</v>
+        <v>5286800</v>
       </c>
       <c r="H23" s="3">
-        <v>5489000</v>
+        <v>5390100</v>
       </c>
       <c r="I23" s="3">
-        <v>4909300</v>
+        <v>4820800</v>
       </c>
       <c r="J23" s="3">
-        <v>4243700</v>
+        <v>4167200</v>
       </c>
       <c r="K23" s="3">
         <v>4010300</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3219800</v>
+        <v>3161800</v>
       </c>
       <c r="E24" s="3">
-        <v>1853900</v>
+        <v>1820400</v>
       </c>
       <c r="F24" s="3">
-        <v>926200</v>
+        <v>909500</v>
       </c>
       <c r="G24" s="3">
-        <v>1120900</v>
+        <v>1100700</v>
       </c>
       <c r="H24" s="3">
-        <v>1137200</v>
+        <v>1116700</v>
       </c>
       <c r="I24" s="3">
-        <v>956500</v>
+        <v>939300</v>
       </c>
       <c r="J24" s="3">
-        <v>815100</v>
+        <v>800400</v>
       </c>
       <c r="K24" s="3">
         <v>702800</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>10022300</v>
+        <v>9841500</v>
       </c>
       <c r="E26" s="3">
-        <v>5740800</v>
+        <v>5637200</v>
       </c>
       <c r="F26" s="3">
-        <v>3773600</v>
+        <v>3705600</v>
       </c>
       <c r="G26" s="3">
-        <v>4263000</v>
+        <v>4186100</v>
       </c>
       <c r="H26" s="3">
-        <v>4351800</v>
+        <v>4273400</v>
       </c>
       <c r="I26" s="3">
-        <v>3952800</v>
+        <v>3881500</v>
       </c>
       <c r="J26" s="3">
-        <v>3428600</v>
+        <v>3366800</v>
       </c>
       <c r="K26" s="3">
         <v>3307500</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>9851200</v>
+        <v>9673600</v>
       </c>
       <c r="E27" s="3">
-        <v>5560100</v>
+        <v>5459800</v>
       </c>
       <c r="F27" s="3">
-        <v>3590700</v>
+        <v>3526000</v>
       </c>
       <c r="G27" s="3">
-        <v>4106800</v>
+        <v>4032700</v>
       </c>
       <c r="H27" s="3">
-        <v>4215600</v>
+        <v>4139600</v>
       </c>
       <c r="I27" s="3">
-        <v>3815100</v>
+        <v>3746300</v>
       </c>
       <c r="J27" s="3">
-        <v>3310900</v>
+        <v>3251200</v>
       </c>
       <c r="K27" s="3">
         <v>3193400</v>
@@ -1545,7 +1545,7 @@
         <v>5</v>
       </c>
       <c r="H29" s="3">
-        <v>-314700</v>
+        <v>-309000</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1713200</v>
+        <v>-1682300</v>
       </c>
       <c r="E32" s="3">
-        <v>2985100</v>
+        <v>2931300</v>
       </c>
       <c r="F32" s="3">
-        <v>4584300</v>
+        <v>4501600</v>
       </c>
       <c r="G32" s="3">
-        <v>3512300</v>
+        <v>3448900</v>
       </c>
       <c r="H32" s="3">
-        <v>2489100</v>
+        <v>2444200</v>
       </c>
       <c r="I32" s="3">
-        <v>2885900</v>
+        <v>2833900</v>
       </c>
       <c r="J32" s="3">
-        <v>2494300</v>
+        <v>2449300</v>
       </c>
       <c r="K32" s="3">
         <v>2109900</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9851200</v>
+        <v>9673600</v>
       </c>
       <c r="E33" s="3">
-        <v>5560100</v>
+        <v>5459800</v>
       </c>
       <c r="F33" s="3">
-        <v>3590700</v>
+        <v>3526000</v>
       </c>
       <c r="G33" s="3">
-        <v>4106800</v>
+        <v>4032700</v>
       </c>
       <c r="H33" s="3">
-        <v>3901000</v>
+        <v>3830600</v>
       </c>
       <c r="I33" s="3">
-        <v>3815100</v>
+        <v>3746300</v>
       </c>
       <c r="J33" s="3">
-        <v>3310900</v>
+        <v>3251200</v>
       </c>
       <c r="K33" s="3">
         <v>3193400</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9851200</v>
+        <v>9673600</v>
       </c>
       <c r="E35" s="3">
-        <v>5560100</v>
+        <v>5459800</v>
       </c>
       <c r="F35" s="3">
-        <v>3590700</v>
+        <v>3526000</v>
       </c>
       <c r="G35" s="3">
-        <v>4106800</v>
+        <v>4032700</v>
       </c>
       <c r="H35" s="3">
-        <v>3901000</v>
+        <v>3830600</v>
       </c>
       <c r="I35" s="3">
-        <v>3815100</v>
+        <v>3746300</v>
       </c>
       <c r="J35" s="3">
-        <v>3310900</v>
+        <v>3251200</v>
       </c>
       <c r="K35" s="3">
         <v>3193400</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>64756300</v>
+        <v>63588700</v>
       </c>
       <c r="E41" s="3">
-        <v>69046700</v>
+        <v>67801700</v>
       </c>
       <c r="F41" s="3">
-        <v>42502600</v>
+        <v>41736200</v>
       </c>
       <c r="G41" s="3">
-        <v>36131800</v>
+        <v>35480300</v>
       </c>
       <c r="H41" s="3">
-        <v>62400500</v>
+        <v>61275300</v>
       </c>
       <c r="I41" s="3">
-        <v>48270000</v>
+        <v>47399600</v>
       </c>
       <c r="J41" s="3">
-        <v>46869200</v>
+        <v>46024100</v>
       </c>
       <c r="K41" s="3">
         <v>30255900</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>224910000</v>
+        <v>220855000</v>
       </c>
       <c r="E42" s="3">
-        <v>206257000</v>
+        <v>202538000</v>
       </c>
       <c r="F42" s="3">
-        <v>204679000</v>
+        <v>200989000</v>
       </c>
       <c r="G42" s="3">
-        <v>176282000</v>
+        <v>173103000</v>
       </c>
       <c r="H42" s="3">
-        <v>172361000</v>
+        <v>169253000</v>
       </c>
       <c r="I42" s="3">
-        <v>179636000</v>
+        <v>176397000</v>
       </c>
       <c r="J42" s="3">
-        <v>115831000</v>
+        <v>113742000</v>
       </c>
       <c r="K42" s="3">
         <v>111824000</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3584100</v>
+        <v>3519500</v>
       </c>
       <c r="E48" s="3">
-        <v>3297600</v>
+        <v>3238100</v>
       </c>
       <c r="F48" s="3">
-        <v>3096900</v>
+        <v>3041100</v>
       </c>
       <c r="G48" s="3">
-        <v>1521400</v>
+        <v>1494000</v>
       </c>
       <c r="H48" s="3">
-        <v>2940700</v>
+        <v>2887700</v>
       </c>
       <c r="I48" s="3">
-        <v>3010300</v>
+        <v>2956000</v>
       </c>
       <c r="J48" s="3">
-        <v>3179100</v>
+        <v>3121800</v>
       </c>
       <c r="K48" s="3">
         <v>1715700</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5536400</v>
+        <v>5436600</v>
       </c>
       <c r="E49" s="3">
-        <v>5659300</v>
+        <v>5557300</v>
       </c>
       <c r="F49" s="3">
-        <v>6646200</v>
+        <v>6526400</v>
       </c>
       <c r="G49" s="3">
-        <v>6488500</v>
+        <v>6371500</v>
       </c>
       <c r="H49" s="3">
-        <v>8082500</v>
+        <v>7936800</v>
       </c>
       <c r="I49" s="3">
-        <v>8617800</v>
+        <v>8462400</v>
       </c>
       <c r="J49" s="3">
-        <v>7949200</v>
+        <v>7805900</v>
       </c>
       <c r="K49" s="3">
         <v>6214900</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1845700</v>
+        <v>1812400</v>
       </c>
       <c r="E52" s="3">
-        <v>1683600</v>
+        <v>1653200</v>
       </c>
       <c r="F52" s="3">
-        <v>1210500</v>
+        <v>1188700</v>
       </c>
       <c r="G52" s="3">
-        <v>1332600</v>
+        <v>1308600</v>
       </c>
       <c r="H52" s="3">
-        <v>2001200</v>
+        <v>1965100</v>
       </c>
       <c r="I52" s="3">
-        <v>2497200</v>
+        <v>2452200</v>
       </c>
       <c r="J52" s="3">
-        <v>2383200</v>
+        <v>2340200</v>
       </c>
       <c r="K52" s="3">
         <v>2751200</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>843417000</v>
+        <v>828209000</v>
       </c>
       <c r="E54" s="3">
-        <v>731605000</v>
+        <v>718413000</v>
       </c>
       <c r="F54" s="3">
-        <v>702795000</v>
+        <v>690122000</v>
       </c>
       <c r="G54" s="3">
-        <v>630931000</v>
+        <v>619554000</v>
       </c>
       <c r="H54" s="3">
-        <v>572515000</v>
+        <v>562192000</v>
       </c>
       <c r="I54" s="3">
-        <v>525345000</v>
+        <v>515872000</v>
       </c>
       <c r="J54" s="3">
-        <v>509320000</v>
+        <v>500136000</v>
       </c>
       <c r="K54" s="3">
         <v>481963000</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10818900</v>
+        <v>10623800</v>
       </c>
       <c r="E57" s="3">
-        <v>9518800</v>
+        <v>9347200</v>
       </c>
       <c r="F57" s="3">
-        <v>8653300</v>
+        <v>8497300</v>
       </c>
       <c r="G57" s="3">
-        <v>8008500</v>
+        <v>7864100</v>
       </c>
       <c r="H57" s="3">
-        <v>7440600</v>
+        <v>7306500</v>
       </c>
       <c r="I57" s="3">
-        <v>7456200</v>
+        <v>7321700</v>
       </c>
       <c r="J57" s="3">
-        <v>7425800</v>
+        <v>7291900</v>
       </c>
       <c r="K57" s="3">
         <v>6567800</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>112184000</v>
+        <v>110161000</v>
       </c>
       <c r="E58" s="3">
-        <v>99243800</v>
+        <v>97454200</v>
       </c>
       <c r="F58" s="3">
-        <v>91494400</v>
+        <v>89844600</v>
       </c>
       <c r="G58" s="3">
-        <v>87118200</v>
+        <v>85547300</v>
       </c>
       <c r="H58" s="3">
-        <v>73437000</v>
+        <v>72112800</v>
       </c>
       <c r="I58" s="3">
-        <v>62134700</v>
+        <v>61014300</v>
       </c>
       <c r="J58" s="3">
-        <v>51695600</v>
+        <v>50763500</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2031500</v>
+        <v>1994900</v>
       </c>
       <c r="E59" s="3">
-        <v>874400</v>
+        <v>858600</v>
       </c>
       <c r="F59" s="3">
-        <v>1099400</v>
+        <v>1079600</v>
       </c>
       <c r="G59" s="3">
-        <v>1294100</v>
+        <v>1270800</v>
       </c>
       <c r="H59" s="3">
-        <v>1062400</v>
+        <v>1043300</v>
       </c>
       <c r="I59" s="3">
-        <v>860300</v>
+        <v>844800</v>
       </c>
       <c r="J59" s="3">
-        <v>827700</v>
+        <v>812800</v>
       </c>
       <c r="K59" s="3">
         <v>804200</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>23298400</v>
+        <v>22878300</v>
       </c>
       <c r="E61" s="3">
-        <v>22731300</v>
+        <v>22321400</v>
       </c>
       <c r="F61" s="3">
-        <v>23815200</v>
+        <v>23385700</v>
       </c>
       <c r="G61" s="3">
-        <v>21761400</v>
+        <v>21369000</v>
       </c>
       <c r="H61" s="3">
-        <v>20826300</v>
+        <v>20450800</v>
       </c>
       <c r="I61" s="3">
-        <v>18094400</v>
+        <v>17768100</v>
       </c>
       <c r="J61" s="3">
-        <v>16891300</v>
+        <v>16586700</v>
       </c>
       <c r="K61" s="3">
         <v>19589200</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>756600</v>
+        <v>743000</v>
       </c>
       <c r="E62" s="3">
-        <v>1054300</v>
+        <v>1035300</v>
       </c>
       <c r="F62" s="3">
-        <v>1338600</v>
+        <v>1314400</v>
       </c>
       <c r="G62" s="3">
-        <v>1120900</v>
+        <v>1100700</v>
       </c>
       <c r="H62" s="3">
-        <v>955100</v>
+        <v>937800</v>
       </c>
       <c r="I62" s="3">
-        <v>1406700</v>
+        <v>1381300</v>
       </c>
       <c r="J62" s="3">
-        <v>1510300</v>
+        <v>1483100</v>
       </c>
       <c r="K62" s="3">
         <v>1367300</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>790824000</v>
+        <v>776564000</v>
       </c>
       <c r="E66" s="3">
-        <v>689018000</v>
+        <v>676593000</v>
       </c>
       <c r="F66" s="3">
-        <v>660896000</v>
+        <v>648979000</v>
       </c>
       <c r="G66" s="3">
-        <v>593117000</v>
+        <v>582422000</v>
       </c>
       <c r="H66" s="3">
-        <v>538665000</v>
+        <v>528952000</v>
       </c>
       <c r="I66" s="3">
-        <v>492507000</v>
+        <v>483626000</v>
       </c>
       <c r="J66" s="3">
-        <v>477999000</v>
+        <v>469380000</v>
       </c>
       <c r="K66" s="3">
         <v>452362000</v>
@@ -3056,25 +3056,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1962000</v>
+        <v>1926600</v>
       </c>
       <c r="E70" s="3">
-        <v>2702300</v>
+        <v>2653600</v>
       </c>
       <c r="F70" s="3">
-        <v>3472300</v>
+        <v>3409700</v>
       </c>
       <c r="G70" s="3">
-        <v>3472300</v>
+        <v>3409700</v>
       </c>
       <c r="H70" s="3">
-        <v>3213200</v>
+        <v>3155200</v>
       </c>
       <c r="I70" s="3">
-        <v>3139100</v>
+        <v>3082500</v>
       </c>
       <c r="J70" s="3">
-        <v>2843000</v>
+        <v>2791700</v>
       </c>
       <c r="K70" s="3">
         <v>2432800</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>33402800</v>
+        <v>32800500</v>
       </c>
       <c r="E72" s="3">
-        <v>26280600</v>
+        <v>25806700</v>
       </c>
       <c r="F72" s="3">
-        <v>22762400</v>
+        <v>22351900</v>
       </c>
       <c r="G72" s="3">
-        <v>21266800</v>
+        <v>20883400</v>
       </c>
       <c r="H72" s="3">
-        <v>19138300</v>
+        <v>18793200</v>
       </c>
       <c r="I72" s="3">
-        <v>17553200</v>
+        <v>17236700</v>
       </c>
       <c r="J72" s="3">
-        <v>15699300</v>
+        <v>15416200</v>
       </c>
       <c r="K72" s="3">
         <v>14213800</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>50631700</v>
+        <v>49718700</v>
       </c>
       <c r="E76" s="3">
-        <v>39885400</v>
+        <v>39166200</v>
       </c>
       <c r="F76" s="3">
-        <v>38426900</v>
+        <v>37734000</v>
       </c>
       <c r="G76" s="3">
-        <v>34342300</v>
+        <v>33723100</v>
       </c>
       <c r="H76" s="3">
-        <v>30636800</v>
+        <v>30084400</v>
       </c>
       <c r="I76" s="3">
-        <v>29698800</v>
+        <v>29163300</v>
       </c>
       <c r="J76" s="3">
-        <v>28477200</v>
+        <v>27963700</v>
       </c>
       <c r="K76" s="3">
         <v>27167600</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9851200</v>
+        <v>9673600</v>
       </c>
       <c r="E81" s="3">
-        <v>5560100</v>
+        <v>5459800</v>
       </c>
       <c r="F81" s="3">
-        <v>3590700</v>
+        <v>3526000</v>
       </c>
       <c r="G81" s="3">
-        <v>4106800</v>
+        <v>4032700</v>
       </c>
       <c r="H81" s="3">
-        <v>3901000</v>
+        <v>3830600</v>
       </c>
       <c r="I81" s="3">
-        <v>3815100</v>
+        <v>3746300</v>
       </c>
       <c r="J81" s="3">
-        <v>3310900</v>
+        <v>3251200</v>
       </c>
       <c r="K81" s="3">
         <v>3193400</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1095700</v>
+        <v>1076000</v>
       </c>
       <c r="E83" s="3">
-        <v>1055000</v>
+        <v>1036000</v>
       </c>
       <c r="F83" s="3">
-        <v>1052100</v>
+        <v>1033100</v>
       </c>
       <c r="G83" s="3">
-        <v>732200</v>
+        <v>719000</v>
       </c>
       <c r="H83" s="3">
-        <v>668500</v>
+        <v>656500</v>
       </c>
       <c r="I83" s="3">
-        <v>648600</v>
+        <v>636900</v>
       </c>
       <c r="J83" s="3">
-        <v>613000</v>
+        <v>602000</v>
       </c>
       <c r="K83" s="3">
         <v>592400</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3670000</v>
+        <v>3603800</v>
       </c>
       <c r="E89" s="3">
-        <v>32612100</v>
+        <v>32024100</v>
       </c>
       <c r="F89" s="3">
-        <v>37636900</v>
+        <v>36958300</v>
       </c>
       <c r="G89" s="3">
-        <v>21694800</v>
+        <v>21303600</v>
       </c>
       <c r="H89" s="3">
-        <v>13261300</v>
+        <v>13022200</v>
       </c>
       <c r="I89" s="3">
-        <v>2153000</v>
+        <v>2114100</v>
       </c>
       <c r="J89" s="3">
-        <v>-2019700</v>
+        <v>-1983300</v>
       </c>
       <c r="K89" s="3">
         <v>1751800</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-575300</v>
+        <v>-564900</v>
       </c>
       <c r="E91" s="3">
-        <v>-358300</v>
+        <v>-351900</v>
       </c>
       <c r="F91" s="3">
-        <v>-295400</v>
+        <v>-290100</v>
       </c>
       <c r="G91" s="3">
-        <v>-353900</v>
+        <v>-347500</v>
       </c>
       <c r="H91" s="3">
-        <v>-244300</v>
+        <v>-239900</v>
       </c>
       <c r="I91" s="3">
-        <v>-222800</v>
+        <v>-218800</v>
       </c>
       <c r="J91" s="3">
-        <v>-165800</v>
+        <v>-162900</v>
       </c>
       <c r="K91" s="3">
         <v>-134400</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-21819100</v>
+        <v>-21425700</v>
       </c>
       <c r="E94" s="3">
-        <v>-221400</v>
+        <v>-217400</v>
       </c>
       <c r="F94" s="3">
-        <v>-23672300</v>
+        <v>-23245400</v>
       </c>
       <c r="G94" s="3">
-        <v>-14496200</v>
+        <v>-14234900</v>
       </c>
       <c r="H94" s="3">
-        <v>-8390500</v>
+        <v>-8239200</v>
       </c>
       <c r="I94" s="3">
-        <v>-2335800</v>
+        <v>-2293700</v>
       </c>
       <c r="J94" s="3">
-        <v>-11351200</v>
+        <v>-11146500</v>
       </c>
       <c r="K94" s="3">
         <v>3023000</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1921200</v>
+        <v>-1886600</v>
       </c>
       <c r="E96" s="3">
-        <v>-2206300</v>
+        <v>-2166500</v>
       </c>
       <c r="F96" s="3">
-        <v>-1832400</v>
+        <v>-1799300</v>
       </c>
       <c r="G96" s="3">
-        <v>-2037500</v>
+        <v>-2000700</v>
       </c>
       <c r="H96" s="3">
-        <v>-1911600</v>
+        <v>-1877100</v>
       </c>
       <c r="I96" s="3">
-        <v>-1488100</v>
+        <v>-1461300</v>
       </c>
       <c r="J96" s="3">
-        <v>-1642900</v>
+        <v>-1613200</v>
       </c>
       <c r="K96" s="3">
         <v>-1603100</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>11831000</v>
+        <v>11617600</v>
       </c>
       <c r="E100" s="3">
-        <v>-3792100</v>
+        <v>-3723700</v>
       </c>
       <c r="F100" s="3">
-        <v>-7628700</v>
+        <v>-7491100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1933800</v>
+        <v>-1899000</v>
       </c>
       <c r="H100" s="3">
-        <v>2026400</v>
+        <v>1989800</v>
       </c>
       <c r="I100" s="3">
-        <v>1477800</v>
+        <v>1451100</v>
       </c>
       <c r="J100" s="3">
-        <v>5956900</v>
+        <v>5849500</v>
       </c>
       <c r="K100" s="3">
         <v>49600</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2027800</v>
+        <v>1991300</v>
       </c>
       <c r="E101" s="3">
-        <v>-2054500</v>
+        <v>-2017500</v>
       </c>
       <c r="F101" s="3">
-        <v>34800</v>
+        <v>34200</v>
       </c>
       <c r="G101" s="3">
-        <v>-333200</v>
+        <v>-327200</v>
       </c>
       <c r="H101" s="3">
-        <v>168100</v>
+        <v>165000</v>
       </c>
       <c r="I101" s="3">
-        <v>-594500</v>
+        <v>-583800</v>
       </c>
       <c r="J101" s="3">
-        <v>1015800</v>
+        <v>997500</v>
       </c>
       <c r="K101" s="3">
         <v>4117700</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4290400</v>
+        <v>-4213000</v>
       </c>
       <c r="E102" s="3">
-        <v>26544100</v>
+        <v>26065500</v>
       </c>
       <c r="F102" s="3">
-        <v>6370800</v>
+        <v>6255900</v>
       </c>
       <c r="G102" s="3">
-        <v>4931500</v>
+        <v>4842600</v>
       </c>
       <c r="H102" s="3">
-        <v>7065300</v>
+        <v>6937900</v>
       </c>
       <c r="I102" s="3">
-        <v>700400</v>
+        <v>687800</v>
       </c>
       <c r="J102" s="3">
-        <v>-6398200</v>
+        <v>-6282800</v>
       </c>
       <c r="K102" s="3">
         <v>8942000</v>
